--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1123,20 +1123,20 @@
       <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>1</v>
@@ -1147,35 +1147,35 @@
       <c r="K2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
+      <c r="L2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="O2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>1</v>
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="V2" s="2" t="n">
         <v>0</v>
@@ -1183,83 +1183,83 @@
       <c r="W2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="X2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="2" t="n">
-        <v>0</v>
+      <c r="X2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AX2" s="2" t="n">
         <v>0</v>
@@ -1332,11 +1332,11 @@
       <c r="A3" t="n">
         <v>1007</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -1347,11 +1347,11 @@
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0</v>
@@ -1392,17 +1392,17 @@
       <c r="U3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>0</v>
+      <c r="V3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="Z3" s="2" t="n">
         <v>0</v>
@@ -1422,11 +1422,11 @@
       <c r="AE3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>0</v>
+      <c r="AF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AH3" s="2" t="n">
         <v>0</v>
@@ -1440,11 +1440,11 @@
       <c r="AK3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="3" t="n">
-        <v>1</v>
+      <c r="AL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AN3" s="2" t="n">
         <v>0</v>
@@ -1452,23 +1452,23 @@
       <c r="AO3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>1</v>
+      <c r="AP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AV3" s="2" t="n">
         <v>0</v>
@@ -1547,20 +1547,20 @@
       <c r="A4" t="n">
         <v>1008</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -1589,23 +1589,23 @@
       <c r="O4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>0</v>
+      <c r="P4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="V4" s="2" t="n">
         <v>0</v>
@@ -1631,11 +1631,11 @@
       <c r="AC4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3" t="n">
-        <v>1</v>
+      <c r="AD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AF4" s="2" t="n">
         <v>0</v>
@@ -1649,11 +1649,11 @@
       <c r="AI4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="3" t="n">
-        <v>1</v>
+      <c r="AJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
         <v>0</v>
@@ -1685,11 +1685,11 @@
       <c r="AU4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="3" t="n">
-        <v>1</v>
+      <c r="AV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AX4" s="3" t="n">
         <v>1</v>
@@ -1822,8 +1822,8 @@
       <c r="U5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V5" s="3" t="n">
-        <v>1</v>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="W5" s="3" t="n">
         <v>1</v>
@@ -1831,20 +1831,20 @@
       <c r="X5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Y5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="3" t="n">
-        <v>1</v>
+      <c r="Y5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AD5" s="2" t="n">
         <v>0</v>
@@ -1852,17 +1852,17 @@
       <c r="AE5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="3" t="n">
-        <v>1</v>
+      <c r="AF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AJ5" s="2" t="n">
         <v>0</v>
@@ -1885,11 +1885,11 @@
       <c r="AP5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>0</v>
+      <c r="AQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AS5" s="2" t="n">
         <v>0</v>
@@ -2073,11 +2073,11 @@
       <c r="AG6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AH6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>0</v>
+      <c r="AH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AJ6" s="2" t="n">
         <v>0</v>
@@ -2091,11 +2091,11 @@
       <c r="AM6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="3" t="n">
-        <v>1</v>
+      <c r="AN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AP6" s="2" t="n">
         <v>0</v>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -41,14 +41,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1115,156 +1115,156 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1005</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AZ2" s="4" t="n"/>
@@ -1330,156 +1330,156 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1007</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AZ3" s="4" t="n"/>
@@ -1545,157 +1545,157 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AD4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AX4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="4" t="n"/>
       <c r="BA4" s="4" t="n"/>
@@ -1760,156 +1760,156 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AC5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AZ5" s="4" t="n"/>
@@ -1975,157 +1975,157 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AX6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="4" t="n"/>
       <c r="BA6" s="4" t="n"/>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -41,14 +41,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1118,153 +1118,153 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AR2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AZ2" s="4" t="n"/>
@@ -1333,153 +1333,153 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AZ3" s="4" t="n"/>
@@ -1547,155 +1547,155 @@
       <c r="A4" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="n">
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AX4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="4" t="n"/>
       <c r="BA4" s="4" t="n"/>
@@ -1762,154 +1762,154 @@
       <c r="A5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="n">
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="V5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AC5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AZ5" s="4" t="n"/>
@@ -1978,154 +1978,154 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AQ6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AY6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="4" t="n"/>
       <c r="BA6" s="4" t="n"/>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DG6"/>
+  <dimension ref="A1:DG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,14 +1123,14 @@
       <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>1</v>
@@ -1147,23 +1147,23 @@
       <c r="K2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>0</v>
+      <c r="L2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -1237,11 +1237,11 @@
       <c r="AO2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="3" t="n">
-        <v>1</v>
+      <c r="AP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AR2" s="2" t="n">
         <v>0</v>
@@ -1332,20 +1332,20 @@
       <c r="A3" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1374,11 +1374,11 @@
       <c r="O3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>1</v>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
@@ -1407,20 +1407,20 @@
       <c r="Z3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>0</v>
+      <c r="AA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AF3" s="2" t="n">
         <v>0</v>
@@ -1440,17 +1440,17 @@
       <c r="AK3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="3" t="n">
-        <v>1</v>
+      <c r="AL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AP3" s="3" t="n">
         <v>1</v>
@@ -1458,14 +1458,14 @@
       <c r="AQ3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>0</v>
+      <c r="AR3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AU3" s="2" t="n">
         <v>0</v>
@@ -1589,17 +1589,17 @@
       <c r="O4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>0</v>
+      <c r="P4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="T4" s="3" t="n">
         <v>1</v>
@@ -1643,29 +1643,29 @@
       <c r="AG4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="3" t="n">
-        <v>1</v>
+      <c r="AH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AK4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>0</v>
+      <c r="AL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP4" s="2" t="n">
         <v>0</v>
@@ -1691,11 +1691,11 @@
       <c r="AW4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="3" t="n">
-        <v>1</v>
+      <c r="AX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AZ4" s="4" t="n"/>
       <c r="BA4" s="4" t="n"/>
@@ -1792,17 +1792,17 @@
       <c r="K5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>1</v>
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="P5" s="2" t="n">
         <v>0</v>
@@ -1822,11 +1822,11 @@
       <c r="U5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="3" t="n">
-        <v>1</v>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="X5" s="2" t="n">
         <v>0</v>
@@ -1834,23 +1834,23 @@
       <c r="Y5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Z5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>0</v>
+      <c r="Z5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AF5" s="2" t="n">
         <v>0</v>
@@ -1882,20 +1882,20 @@
       <c r="AO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>0</v>
+      <c r="AP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AU5" s="2" t="n">
         <v>0</v>
@@ -1977,11 +1977,11 @@
       <c r="A6" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>1</v>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>1</v>
@@ -2001,14 +2001,14 @@
       <c r="I6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>0</v>
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="M6" s="3" t="n">
         <v>1</v>
@@ -2031,8 +2031,8 @@
       <c r="S6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T6" s="3" t="n">
-        <v>1</v>
+      <c r="T6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="U6" s="2" t="n">
         <v>0</v>
@@ -2076,20 +2076,20 @@
       <c r="AH6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AI6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>0</v>
+      <c r="AI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AN6" s="2" t="n">
         <v>0</v>
@@ -2100,8 +2100,8 @@
       <c r="AP6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AQ6" s="3" t="n">
-        <v>1</v>
+      <c r="AQ6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AR6" s="3" t="n">
         <v>1</v>
@@ -2124,8 +2124,8 @@
       <c r="AX6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AY6" s="2" t="n">
-        <v>0</v>
+      <c r="AY6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AZ6" s="4" t="n"/>
       <c r="BA6" s="4" t="n"/>
@@ -2188,6 +2188,1081 @@
       <c r="DF6" s="4" t="n"/>
       <c r="DG6" s="4" t="n"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="4" t="n"/>
+      <c r="BA7" s="4" t="n"/>
+      <c r="BB7" s="4" t="n"/>
+      <c r="BC7" s="4" t="n"/>
+      <c r="BD7" s="4" t="n"/>
+      <c r="BE7" s="4" t="n"/>
+      <c r="BF7" s="4" t="n"/>
+      <c r="BG7" s="4" t="n"/>
+      <c r="BH7" s="4" t="n"/>
+      <c r="BI7" s="4" t="n"/>
+      <c r="BJ7" s="4" t="n"/>
+      <c r="BK7" s="4" t="n"/>
+      <c r="BL7" s="4" t="n"/>
+      <c r="BM7" s="4" t="n"/>
+      <c r="BN7" s="4" t="n"/>
+      <c r="BO7" s="4" t="n"/>
+      <c r="BP7" s="4" t="n"/>
+      <c r="BQ7" s="4" t="n"/>
+      <c r="BR7" s="4" t="n"/>
+      <c r="BS7" s="4" t="n"/>
+      <c r="BT7" s="4" t="n"/>
+      <c r="BU7" s="4" t="n"/>
+      <c r="BV7" s="4" t="n"/>
+      <c r="BW7" s="4" t="n"/>
+      <c r="BX7" s="4" t="n"/>
+      <c r="BY7" s="4" t="n"/>
+      <c r="BZ7" s="4" t="n"/>
+      <c r="CA7" s="4" t="n"/>
+      <c r="CB7" s="4" t="n"/>
+      <c r="CC7" s="4" t="n"/>
+      <c r="CD7" s="4" t="n"/>
+      <c r="CE7" s="4" t="n"/>
+      <c r="CF7" s="4" t="n"/>
+      <c r="CG7" s="4" t="n"/>
+      <c r="CH7" s="4" t="n"/>
+      <c r="CI7" s="4" t="n"/>
+      <c r="CJ7" s="4" t="n"/>
+      <c r="CK7" s="4" t="n"/>
+      <c r="CL7" s="4" t="n"/>
+      <c r="CM7" s="4" t="n"/>
+      <c r="CN7" s="4" t="n"/>
+      <c r="CO7" s="4" t="n"/>
+      <c r="CP7" s="4" t="n"/>
+      <c r="CQ7" s="4" t="n"/>
+      <c r="CR7" s="4" t="n"/>
+      <c r="CS7" s="4" t="n"/>
+      <c r="CT7" s="4" t="n"/>
+      <c r="CU7" s="4" t="n"/>
+      <c r="CV7" s="4" t="n"/>
+      <c r="CW7" s="4" t="n"/>
+      <c r="CX7" s="4" t="n"/>
+      <c r="CY7" s="4" t="n"/>
+      <c r="CZ7" s="4" t="n"/>
+      <c r="DA7" s="4" t="n"/>
+      <c r="DB7" s="4" t="n"/>
+      <c r="DC7" s="4" t="n"/>
+      <c r="DD7" s="4" t="n"/>
+      <c r="DE7" s="4" t="n"/>
+      <c r="DF7" s="4" t="n"/>
+      <c r="DG7" s="4" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="4" t="n"/>
+      <c r="BA8" s="4" t="n"/>
+      <c r="BB8" s="4" t="n"/>
+      <c r="BC8" s="4" t="n"/>
+      <c r="BD8" s="4" t="n"/>
+      <c r="BE8" s="4" t="n"/>
+      <c r="BF8" s="4" t="n"/>
+      <c r="BG8" s="4" t="n"/>
+      <c r="BH8" s="4" t="n"/>
+      <c r="BI8" s="4" t="n"/>
+      <c r="BJ8" s="4" t="n"/>
+      <c r="BK8" s="4" t="n"/>
+      <c r="BL8" s="4" t="n"/>
+      <c r="BM8" s="4" t="n"/>
+      <c r="BN8" s="4" t="n"/>
+      <c r="BO8" s="4" t="n"/>
+      <c r="BP8" s="4" t="n"/>
+      <c r="BQ8" s="4" t="n"/>
+      <c r="BR8" s="4" t="n"/>
+      <c r="BS8" s="4" t="n"/>
+      <c r="BT8" s="4" t="n"/>
+      <c r="BU8" s="4" t="n"/>
+      <c r="BV8" s="4" t="n"/>
+      <c r="BW8" s="4" t="n"/>
+      <c r="BX8" s="4" t="n"/>
+      <c r="BY8" s="4" t="n"/>
+      <c r="BZ8" s="4" t="n"/>
+      <c r="CA8" s="4" t="n"/>
+      <c r="CB8" s="4" t="n"/>
+      <c r="CC8" s="4" t="n"/>
+      <c r="CD8" s="4" t="n"/>
+      <c r="CE8" s="4" t="n"/>
+      <c r="CF8" s="4" t="n"/>
+      <c r="CG8" s="4" t="n"/>
+      <c r="CH8" s="4" t="n"/>
+      <c r="CI8" s="4" t="n"/>
+      <c r="CJ8" s="4" t="n"/>
+      <c r="CK8" s="4" t="n"/>
+      <c r="CL8" s="4" t="n"/>
+      <c r="CM8" s="4" t="n"/>
+      <c r="CN8" s="4" t="n"/>
+      <c r="CO8" s="4" t="n"/>
+      <c r="CP8" s="4" t="n"/>
+      <c r="CQ8" s="4" t="n"/>
+      <c r="CR8" s="4" t="n"/>
+      <c r="CS8" s="4" t="n"/>
+      <c r="CT8" s="4" t="n"/>
+      <c r="CU8" s="4" t="n"/>
+      <c r="CV8" s="4" t="n"/>
+      <c r="CW8" s="4" t="n"/>
+      <c r="CX8" s="4" t="n"/>
+      <c r="CY8" s="4" t="n"/>
+      <c r="CZ8" s="4" t="n"/>
+      <c r="DA8" s="4" t="n"/>
+      <c r="DB8" s="4" t="n"/>
+      <c r="DC8" s="4" t="n"/>
+      <c r="DD8" s="4" t="n"/>
+      <c r="DE8" s="4" t="n"/>
+      <c r="DF8" s="4" t="n"/>
+      <c r="DG8" s="4" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="4" t="n"/>
+      <c r="BA9" s="4" t="n"/>
+      <c r="BB9" s="4" t="n"/>
+      <c r="BC9" s="4" t="n"/>
+      <c r="BD9" s="4" t="n"/>
+      <c r="BE9" s="4" t="n"/>
+      <c r="BF9" s="4" t="n"/>
+      <c r="BG9" s="4" t="n"/>
+      <c r="BH9" s="4" t="n"/>
+      <c r="BI9" s="4" t="n"/>
+      <c r="BJ9" s="4" t="n"/>
+      <c r="BK9" s="4" t="n"/>
+      <c r="BL9" s="4" t="n"/>
+      <c r="BM9" s="4" t="n"/>
+      <c r="BN9" s="4" t="n"/>
+      <c r="BO9" s="4" t="n"/>
+      <c r="BP9" s="4" t="n"/>
+      <c r="BQ9" s="4" t="n"/>
+      <c r="BR9" s="4" t="n"/>
+      <c r="BS9" s="4" t="n"/>
+      <c r="BT9" s="4" t="n"/>
+      <c r="BU9" s="4" t="n"/>
+      <c r="BV9" s="4" t="n"/>
+      <c r="BW9" s="4" t="n"/>
+      <c r="BX9" s="4" t="n"/>
+      <c r="BY9" s="4" t="n"/>
+      <c r="BZ9" s="4" t="n"/>
+      <c r="CA9" s="4" t="n"/>
+      <c r="CB9" s="4" t="n"/>
+      <c r="CC9" s="4" t="n"/>
+      <c r="CD9" s="4" t="n"/>
+      <c r="CE9" s="4" t="n"/>
+      <c r="CF9" s="4" t="n"/>
+      <c r="CG9" s="4" t="n"/>
+      <c r="CH9" s="4" t="n"/>
+      <c r="CI9" s="4" t="n"/>
+      <c r="CJ9" s="4" t="n"/>
+      <c r="CK9" s="4" t="n"/>
+      <c r="CL9" s="4" t="n"/>
+      <c r="CM9" s="4" t="n"/>
+      <c r="CN9" s="4" t="n"/>
+      <c r="CO9" s="4" t="n"/>
+      <c r="CP9" s="4" t="n"/>
+      <c r="CQ9" s="4" t="n"/>
+      <c r="CR9" s="4" t="n"/>
+      <c r="CS9" s="4" t="n"/>
+      <c r="CT9" s="4" t="n"/>
+      <c r="CU9" s="4" t="n"/>
+      <c r="CV9" s="4" t="n"/>
+      <c r="CW9" s="4" t="n"/>
+      <c r="CX9" s="4" t="n"/>
+      <c r="CY9" s="4" t="n"/>
+      <c r="CZ9" s="4" t="n"/>
+      <c r="DA9" s="4" t="n"/>
+      <c r="DB9" s="4" t="n"/>
+      <c r="DC9" s="4" t="n"/>
+      <c r="DD9" s="4" t="n"/>
+      <c r="DE9" s="4" t="n"/>
+      <c r="DF9" s="4" t="n"/>
+      <c r="DG9" s="4" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="4" t="n"/>
+      <c r="BA10" s="4" t="n"/>
+      <c r="BB10" s="4" t="n"/>
+      <c r="BC10" s="4" t="n"/>
+      <c r="BD10" s="4" t="n"/>
+      <c r="BE10" s="4" t="n"/>
+      <c r="BF10" s="4" t="n"/>
+      <c r="BG10" s="4" t="n"/>
+      <c r="BH10" s="4" t="n"/>
+      <c r="BI10" s="4" t="n"/>
+      <c r="BJ10" s="4" t="n"/>
+      <c r="BK10" s="4" t="n"/>
+      <c r="BL10" s="4" t="n"/>
+      <c r="BM10" s="4" t="n"/>
+      <c r="BN10" s="4" t="n"/>
+      <c r="BO10" s="4" t="n"/>
+      <c r="BP10" s="4" t="n"/>
+      <c r="BQ10" s="4" t="n"/>
+      <c r="BR10" s="4" t="n"/>
+      <c r="BS10" s="4" t="n"/>
+      <c r="BT10" s="4" t="n"/>
+      <c r="BU10" s="4" t="n"/>
+      <c r="BV10" s="4" t="n"/>
+      <c r="BW10" s="4" t="n"/>
+      <c r="BX10" s="4" t="n"/>
+      <c r="BY10" s="4" t="n"/>
+      <c r="BZ10" s="4" t="n"/>
+      <c r="CA10" s="4" t="n"/>
+      <c r="CB10" s="4" t="n"/>
+      <c r="CC10" s="4" t="n"/>
+      <c r="CD10" s="4" t="n"/>
+      <c r="CE10" s="4" t="n"/>
+      <c r="CF10" s="4" t="n"/>
+      <c r="CG10" s="4" t="n"/>
+      <c r="CH10" s="4" t="n"/>
+      <c r="CI10" s="4" t="n"/>
+      <c r="CJ10" s="4" t="n"/>
+      <c r="CK10" s="4" t="n"/>
+      <c r="CL10" s="4" t="n"/>
+      <c r="CM10" s="4" t="n"/>
+      <c r="CN10" s="4" t="n"/>
+      <c r="CO10" s="4" t="n"/>
+      <c r="CP10" s="4" t="n"/>
+      <c r="CQ10" s="4" t="n"/>
+      <c r="CR10" s="4" t="n"/>
+      <c r="CS10" s="4" t="n"/>
+      <c r="CT10" s="4" t="n"/>
+      <c r="CU10" s="4" t="n"/>
+      <c r="CV10" s="4" t="n"/>
+      <c r="CW10" s="4" t="n"/>
+      <c r="CX10" s="4" t="n"/>
+      <c r="CY10" s="4" t="n"/>
+      <c r="CZ10" s="4" t="n"/>
+      <c r="DA10" s="4" t="n"/>
+      <c r="DB10" s="4" t="n"/>
+      <c r="DC10" s="4" t="n"/>
+      <c r="DD10" s="4" t="n"/>
+      <c r="DE10" s="4" t="n"/>
+      <c r="DF10" s="4" t="n"/>
+      <c r="DG10" s="4" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="4" t="n"/>
+      <c r="BA11" s="4" t="n"/>
+      <c r="BB11" s="4" t="n"/>
+      <c r="BC11" s="4" t="n"/>
+      <c r="BD11" s="4" t="n"/>
+      <c r="BE11" s="4" t="n"/>
+      <c r="BF11" s="4" t="n"/>
+      <c r="BG11" s="4" t="n"/>
+      <c r="BH11" s="4" t="n"/>
+      <c r="BI11" s="4" t="n"/>
+      <c r="BJ11" s="4" t="n"/>
+      <c r="BK11" s="4" t="n"/>
+      <c r="BL11" s="4" t="n"/>
+      <c r="BM11" s="4" t="n"/>
+      <c r="BN11" s="4" t="n"/>
+      <c r="BO11" s="4" t="n"/>
+      <c r="BP11" s="4" t="n"/>
+      <c r="BQ11" s="4" t="n"/>
+      <c r="BR11" s="4" t="n"/>
+      <c r="BS11" s="4" t="n"/>
+      <c r="BT11" s="4" t="n"/>
+      <c r="BU11" s="4" t="n"/>
+      <c r="BV11" s="4" t="n"/>
+      <c r="BW11" s="4" t="n"/>
+      <c r="BX11" s="4" t="n"/>
+      <c r="BY11" s="4" t="n"/>
+      <c r="BZ11" s="4" t="n"/>
+      <c r="CA11" s="4" t="n"/>
+      <c r="CB11" s="4" t="n"/>
+      <c r="CC11" s="4" t="n"/>
+      <c r="CD11" s="4" t="n"/>
+      <c r="CE11" s="4" t="n"/>
+      <c r="CF11" s="4" t="n"/>
+      <c r="CG11" s="4" t="n"/>
+      <c r="CH11" s="4" t="n"/>
+      <c r="CI11" s="4" t="n"/>
+      <c r="CJ11" s="4" t="n"/>
+      <c r="CK11" s="4" t="n"/>
+      <c r="CL11" s="4" t="n"/>
+      <c r="CM11" s="4" t="n"/>
+      <c r="CN11" s="4" t="n"/>
+      <c r="CO11" s="4" t="n"/>
+      <c r="CP11" s="4" t="n"/>
+      <c r="CQ11" s="4" t="n"/>
+      <c r="CR11" s="4" t="n"/>
+      <c r="CS11" s="4" t="n"/>
+      <c r="CT11" s="4" t="n"/>
+      <c r="CU11" s="4" t="n"/>
+      <c r="CV11" s="4" t="n"/>
+      <c r="CW11" s="4" t="n"/>
+      <c r="CX11" s="4" t="n"/>
+      <c r="CY11" s="4" t="n"/>
+      <c r="CZ11" s="4" t="n"/>
+      <c r="DA11" s="4" t="n"/>
+      <c r="DB11" s="4" t="n"/>
+      <c r="DC11" s="4" t="n"/>
+      <c r="DD11" s="4" t="n"/>
+      <c r="DE11" s="4" t="n"/>
+      <c r="DF11" s="4" t="n"/>
+      <c r="DG11" s="4" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DG11"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
     <col width="3" customWidth="1" min="9" max="9"/>
     <col width="3" customWidth="1" min="10" max="10"/>
     <col width="3" customWidth="1" min="11" max="11"/>
-    <col width="3" customWidth="1" min="12" max="12"/>
+    <col width="2" customWidth="1" min="12" max="12"/>
     <col width="3" customWidth="1" min="13" max="13"/>
     <col width="3" customWidth="1" min="14" max="14"/>
     <col width="3" customWidth="1" min="15" max="15"/>
@@ -465,7 +465,7 @@
     <col width="3" customWidth="1" min="20" max="20"/>
     <col width="3" customWidth="1" min="21" max="21"/>
     <col width="3" customWidth="1" min="22" max="22"/>
-    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="2" customWidth="1" min="23" max="23"/>
     <col width="3" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="3" customWidth="1" min="26" max="26"/>
@@ -476,7 +476,7 @@
     <col width="3" customWidth="1" min="31" max="31"/>
     <col width="3" customWidth="1" min="32" max="32"/>
     <col width="3" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="2" customWidth="1" min="34" max="34"/>
     <col width="3" customWidth="1" min="35" max="35"/>
     <col width="3" customWidth="1" min="36" max="36"/>
     <col width="3" customWidth="1" min="37" max="37"/>
@@ -487,7 +487,7 @@
     <col width="3" customWidth="1" min="42" max="42"/>
     <col width="3" customWidth="1" min="43" max="43"/>
     <col width="3" customWidth="1" min="44" max="44"/>
-    <col width="3" customWidth="1" min="45" max="45"/>
+    <col width="2" customWidth="1" min="45" max="45"/>
     <col width="3" customWidth="1" min="46" max="46"/>
     <col width="3" customWidth="1" min="47" max="47"/>
     <col width="3" customWidth="1" min="48" max="48"/>
@@ -499,61 +499,6 @@
     <col width="3" customWidth="1" min="54" max="54"/>
     <col width="3" customWidth="1" min="55" max="55"/>
     <col width="3" customWidth="1" min="56" max="56"/>
-    <col width="3" customWidth="1" min="57" max="57"/>
-    <col width="3" customWidth="1" min="58" max="58"/>
-    <col width="3" customWidth="1" min="59" max="59"/>
-    <col width="3" customWidth="1" min="60" max="60"/>
-    <col width="3" customWidth="1" min="61" max="61"/>
-    <col width="3" customWidth="1" min="62" max="62"/>
-    <col width="3" customWidth="1" min="63" max="63"/>
-    <col width="3" customWidth="1" min="64" max="64"/>
-    <col width="3" customWidth="1" min="65" max="65"/>
-    <col width="3" customWidth="1" min="66" max="66"/>
-    <col width="3" customWidth="1" min="67" max="67"/>
-    <col width="3" customWidth="1" min="68" max="68"/>
-    <col width="3" customWidth="1" min="69" max="69"/>
-    <col width="3" customWidth="1" min="70" max="70"/>
-    <col width="3" customWidth="1" min="71" max="71"/>
-    <col width="3" customWidth="1" min="72" max="72"/>
-    <col width="3" customWidth="1" min="73" max="73"/>
-    <col width="3" customWidth="1" min="74" max="74"/>
-    <col width="3" customWidth="1" min="75" max="75"/>
-    <col width="3" customWidth="1" min="76" max="76"/>
-    <col width="3" customWidth="1" min="77" max="77"/>
-    <col width="3" customWidth="1" min="78" max="78"/>
-    <col width="3" customWidth="1" min="79" max="79"/>
-    <col width="3" customWidth="1" min="80" max="80"/>
-    <col width="3" customWidth="1" min="81" max="81"/>
-    <col width="3" customWidth="1" min="82" max="82"/>
-    <col width="3" customWidth="1" min="83" max="83"/>
-    <col width="3" customWidth="1" min="84" max="84"/>
-    <col width="3" customWidth="1" min="85" max="85"/>
-    <col width="3" customWidth="1" min="86" max="86"/>
-    <col width="3" customWidth="1" min="87" max="87"/>
-    <col width="3" customWidth="1" min="88" max="88"/>
-    <col width="3" customWidth="1" min="89" max="89"/>
-    <col width="3" customWidth="1" min="90" max="90"/>
-    <col width="3" customWidth="1" min="91" max="91"/>
-    <col width="3" customWidth="1" min="92" max="92"/>
-    <col width="3" customWidth="1" min="93" max="93"/>
-    <col width="3" customWidth="1" min="94" max="94"/>
-    <col width="3" customWidth="1" min="95" max="95"/>
-    <col width="3" customWidth="1" min="96" max="96"/>
-    <col width="3" customWidth="1" min="97" max="97"/>
-    <col width="3" customWidth="1" min="98" max="98"/>
-    <col width="3" customWidth="1" min="99" max="99"/>
-    <col width="3" customWidth="1" min="100" max="100"/>
-    <col width="3" customWidth="1" min="101" max="101"/>
-    <col width="3" customWidth="1" min="102" max="102"/>
-    <col width="3" customWidth="1" min="103" max="103"/>
-    <col width="3" customWidth="1" min="104" max="104"/>
-    <col width="3" customWidth="1" min="105" max="105"/>
-    <col width="3" customWidth="1" min="106" max="106"/>
-    <col width="3" customWidth="1" min="107" max="107"/>
-    <col width="3" customWidth="1" min="108" max="108"/>
-    <col width="3" customWidth="1" min="109" max="109"/>
-    <col width="3" customWidth="1" min="110" max="110"/>
-    <col width="3" customWidth="1" min="111" max="111"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -612,506 +557,211 @@
           <t>T1,h17</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>T2,h8</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>T2,h9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>T2,h10</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>T2,h11</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>T2,h12</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>T2,h13</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>T2,h14</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>T2,h15</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>T2,h16</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>T2,h17</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>T3,h8</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>T3,h9</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>T3,h10</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>T3,h11</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>T3,h12</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>T3,h13</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>T3,h14</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>T3,h15</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>T3,h16</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>T3,h17</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="n"/>
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>T4,h8</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>T4,h9</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>T4,h10</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>T4,h11</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>T4,h12</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>T4,h13</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>T4,h14</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>T4,h15</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>T4,h16</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>T4,h17</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="n"/>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>T5,h8</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>T5,h9</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>T5,h10</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>T5,h11</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>T5,h12</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>T5,h13</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>T5,h14</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>T5,h15</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>T5,h16</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>T5,h17</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>T6,h8</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>T6,h9</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>T6,h10</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>T6,h11</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>T6,h12</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>T6,h13</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>T6,h14</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>T6,h15</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>T6,h16</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>T6,h17</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>T7,h8</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>T7,h9</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>T7,h10</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>T7,h11</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>T7,h12</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>T7,h13</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>T7,h14</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>T7,h15</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>T7,h16</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>T7,h17</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>T8,h8</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>T8,h9</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>T8,h10</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>T8,h11</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>T8,h12</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>T8,h13</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>T8,h14</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>T8,h15</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>T8,h16</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>T8,h17</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>T9,h8</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>T9,h9</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>T9,h10</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>T9,h11</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>T9,h12</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>T9,h13</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>T9,h14</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>T9,h15</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>T9,h16</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>T9,h17</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>T10,h8</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>T10,h9</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>T10,h10</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>T10,h11</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>T10,h12</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>T10,h13</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>T10,h14</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>T10,h15</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>T10,h16</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>T10,h17</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>T11,h8</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>T11,h9</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>T11,h10</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>T11,h11</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>T11,h12</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>T11,h13</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>T11,h14</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>T11,h15</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>T11,h16</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>T11,h17</t>
-        </is>
-      </c>
+      <c r="BD1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1147,23 +797,21 @@
       <c r="K2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>1</v>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -1174,15 +822,13 @@
       <c r="T2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="U2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="n"/>
       <c r="X2" s="2" t="n">
         <v>0</v>
       </c>
@@ -1213,14 +859,12 @@
       <c r="AG2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
-        <v>0</v>
+      <c r="AH2" s="4" t="n"/>
+      <c r="AI2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AK2" s="2" t="n">
         <v>0</v>
@@ -1246,9 +890,7 @@
       <c r="AR2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS2" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS2" s="4" t="n"/>
       <c r="AT2" s="2" t="n">
         <v>0</v>
       </c>
@@ -1267,85 +909,41 @@
       <c r="AY2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AZ2" s="4" t="n"/>
-      <c r="BA2" s="4" t="n"/>
-      <c r="BB2" s="4" t="n"/>
-      <c r="BC2" s="4" t="n"/>
-      <c r="BD2" s="4" t="n"/>
-      <c r="BE2" s="4" t="n"/>
-      <c r="BF2" s="4" t="n"/>
-      <c r="BG2" s="4" t="n"/>
-      <c r="BH2" s="4" t="n"/>
-      <c r="BI2" s="4" t="n"/>
-      <c r="BJ2" s="4" t="n"/>
-      <c r="BK2" s="4" t="n"/>
-      <c r="BL2" s="4" t="n"/>
-      <c r="BM2" s="4" t="n"/>
-      <c r="BN2" s="4" t="n"/>
-      <c r="BO2" s="4" t="n"/>
-      <c r="BP2" s="4" t="n"/>
-      <c r="BQ2" s="4" t="n"/>
-      <c r="BR2" s="4" t="n"/>
-      <c r="BS2" s="4" t="n"/>
-      <c r="BT2" s="4" t="n"/>
-      <c r="BU2" s="4" t="n"/>
-      <c r="BV2" s="4" t="n"/>
-      <c r="BW2" s="4" t="n"/>
-      <c r="BX2" s="4" t="n"/>
-      <c r="BY2" s="4" t="n"/>
-      <c r="BZ2" s="4" t="n"/>
-      <c r="CA2" s="4" t="n"/>
-      <c r="CB2" s="4" t="n"/>
-      <c r="CC2" s="4" t="n"/>
-      <c r="CD2" s="4" t="n"/>
-      <c r="CE2" s="4" t="n"/>
-      <c r="CF2" s="4" t="n"/>
-      <c r="CG2" s="4" t="n"/>
-      <c r="CH2" s="4" t="n"/>
-      <c r="CI2" s="4" t="n"/>
-      <c r="CJ2" s="4" t="n"/>
-      <c r="CK2" s="4" t="n"/>
-      <c r="CL2" s="4" t="n"/>
-      <c r="CM2" s="4" t="n"/>
-      <c r="CN2" s="4" t="n"/>
-      <c r="CO2" s="4" t="n"/>
-      <c r="CP2" s="4" t="n"/>
-      <c r="CQ2" s="4" t="n"/>
-      <c r="CR2" s="4" t="n"/>
-      <c r="CS2" s="4" t="n"/>
-      <c r="CT2" s="4" t="n"/>
-      <c r="CU2" s="4" t="n"/>
-      <c r="CV2" s="4" t="n"/>
-      <c r="CW2" s="4" t="n"/>
-      <c r="CX2" s="4" t="n"/>
-      <c r="CY2" s="4" t="n"/>
-      <c r="CZ2" s="4" t="n"/>
-      <c r="DA2" s="4" t="n"/>
-      <c r="DB2" s="4" t="n"/>
-      <c r="DC2" s="4" t="n"/>
-      <c r="DD2" s="4" t="n"/>
-      <c r="DE2" s="4" t="n"/>
-      <c r="DF2" s="4" t="n"/>
-      <c r="DG2" s="4" t="n"/>
+      <c r="AZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="4">
+        <f>SUM(B2:BC2)</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1362,9 +960,7 @@
       <c r="K3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="2" t="n">
         <v>0</v>
       </c>
@@ -1386,18 +982,16 @@
       <c r="S3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="T3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="4" t="n"/>
       <c r="X3" s="2" t="n">
         <v>0</v>
       </c>
@@ -1407,30 +1001,28 @@
       <c r="Z3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>1</v>
+      <c r="AA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AE3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="4" t="n"/>
       <c r="AI3" s="2" t="n">
         <v>0</v>
       </c>
@@ -1452,96 +1044,50 @@
       <c r="AO3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="4" t="n"/>
       <c r="AT3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="2" t="n">
-        <v>0</v>
+      <c r="AU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AY3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AZ3" s="4" t="n"/>
-      <c r="BA3" s="4" t="n"/>
-      <c r="BB3" s="4" t="n"/>
-      <c r="BC3" s="4" t="n"/>
-      <c r="BD3" s="4" t="n"/>
-      <c r="BE3" s="4" t="n"/>
-      <c r="BF3" s="4" t="n"/>
-      <c r="BG3" s="4" t="n"/>
-      <c r="BH3" s="4" t="n"/>
-      <c r="BI3" s="4" t="n"/>
-      <c r="BJ3" s="4" t="n"/>
-      <c r="BK3" s="4" t="n"/>
-      <c r="BL3" s="4" t="n"/>
-      <c r="BM3" s="4" t="n"/>
-      <c r="BN3" s="4" t="n"/>
-      <c r="BO3" s="4" t="n"/>
-      <c r="BP3" s="4" t="n"/>
-      <c r="BQ3" s="4" t="n"/>
-      <c r="BR3" s="4" t="n"/>
-      <c r="BS3" s="4" t="n"/>
-      <c r="BT3" s="4" t="n"/>
-      <c r="BU3" s="4" t="n"/>
-      <c r="BV3" s="4" t="n"/>
-      <c r="BW3" s="4" t="n"/>
-      <c r="BX3" s="4" t="n"/>
-      <c r="BY3" s="4" t="n"/>
-      <c r="BZ3" s="4" t="n"/>
-      <c r="CA3" s="4" t="n"/>
-      <c r="CB3" s="4" t="n"/>
-      <c r="CC3" s="4" t="n"/>
-      <c r="CD3" s="4" t="n"/>
-      <c r="CE3" s="4" t="n"/>
-      <c r="CF3" s="4" t="n"/>
-      <c r="CG3" s="4" t="n"/>
-      <c r="CH3" s="4" t="n"/>
-      <c r="CI3" s="4" t="n"/>
-      <c r="CJ3" s="4" t="n"/>
-      <c r="CK3" s="4" t="n"/>
-      <c r="CL3" s="4" t="n"/>
-      <c r="CM3" s="4" t="n"/>
-      <c r="CN3" s="4" t="n"/>
-      <c r="CO3" s="4" t="n"/>
-      <c r="CP3" s="4" t="n"/>
-      <c r="CQ3" s="4" t="n"/>
-      <c r="CR3" s="4" t="n"/>
-      <c r="CS3" s="4" t="n"/>
-      <c r="CT3" s="4" t="n"/>
-      <c r="CU3" s="4" t="n"/>
-      <c r="CV3" s="4" t="n"/>
-      <c r="CW3" s="4" t="n"/>
-      <c r="CX3" s="4" t="n"/>
-      <c r="CY3" s="4" t="n"/>
-      <c r="CZ3" s="4" t="n"/>
-      <c r="DA3" s="4" t="n"/>
-      <c r="DB3" s="4" t="n"/>
-      <c r="DC3" s="4" t="n"/>
-      <c r="DD3" s="4" t="n"/>
-      <c r="DE3" s="4" t="n"/>
-      <c r="DF3" s="4" t="n"/>
-      <c r="DG3" s="4" t="n"/>
+      <c r="AZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="4">
+        <f>SUM(B3:BC3)</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1577,9 +1123,7 @@
       <c r="K4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L4" s="4" t="n"/>
       <c r="M4" s="2" t="n">
         <v>0</v>
       </c>
@@ -1589,30 +1133,28 @@
       <c r="O4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3" t="n">
-        <v>1</v>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="V4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="W4" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="W4" s="4" t="n"/>
       <c r="X4" s="2" t="n">
         <v>0</v>
       </c>
@@ -1631,29 +1173,27 @@
       <c r="AC4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="4" t="n"/>
       <c r="AI4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AK4" s="3" t="n">
-        <v>1</v>
+      <c r="AK4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AL4" s="3" t="n">
         <v>1</v>
@@ -1667,18 +1207,16 @@
       <c r="AO4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="4" t="n"/>
       <c r="AT4" s="2" t="n">
         <v>0</v>
       </c>
@@ -1697,66 +1235,22 @@
       <c r="AY4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AZ4" s="4" t="n"/>
-      <c r="BA4" s="4" t="n"/>
-      <c r="BB4" s="4" t="n"/>
-      <c r="BC4" s="4" t="n"/>
-      <c r="BD4" s="4" t="n"/>
-      <c r="BE4" s="4" t="n"/>
-      <c r="BF4" s="4" t="n"/>
-      <c r="BG4" s="4" t="n"/>
-      <c r="BH4" s="4" t="n"/>
-      <c r="BI4" s="4" t="n"/>
-      <c r="BJ4" s="4" t="n"/>
-      <c r="BK4" s="4" t="n"/>
-      <c r="BL4" s="4" t="n"/>
-      <c r="BM4" s="4" t="n"/>
-      <c r="BN4" s="4" t="n"/>
-      <c r="BO4" s="4" t="n"/>
-      <c r="BP4" s="4" t="n"/>
-      <c r="BQ4" s="4" t="n"/>
-      <c r="BR4" s="4" t="n"/>
-      <c r="BS4" s="4" t="n"/>
-      <c r="BT4" s="4" t="n"/>
-      <c r="BU4" s="4" t="n"/>
-      <c r="BV4" s="4" t="n"/>
-      <c r="BW4" s="4" t="n"/>
-      <c r="BX4" s="4" t="n"/>
-      <c r="BY4" s="4" t="n"/>
-      <c r="BZ4" s="4" t="n"/>
-      <c r="CA4" s="4" t="n"/>
-      <c r="CB4" s="4" t="n"/>
-      <c r="CC4" s="4" t="n"/>
-      <c r="CD4" s="4" t="n"/>
-      <c r="CE4" s="4" t="n"/>
-      <c r="CF4" s="4" t="n"/>
-      <c r="CG4" s="4" t="n"/>
-      <c r="CH4" s="4" t="n"/>
-      <c r="CI4" s="4" t="n"/>
-      <c r="CJ4" s="4" t="n"/>
-      <c r="CK4" s="4" t="n"/>
-      <c r="CL4" s="4" t="n"/>
-      <c r="CM4" s="4" t="n"/>
-      <c r="CN4" s="4" t="n"/>
-      <c r="CO4" s="4" t="n"/>
-      <c r="CP4" s="4" t="n"/>
-      <c r="CQ4" s="4" t="n"/>
-      <c r="CR4" s="4" t="n"/>
-      <c r="CS4" s="4" t="n"/>
-      <c r="CT4" s="4" t="n"/>
-      <c r="CU4" s="4" t="n"/>
-      <c r="CV4" s="4" t="n"/>
-      <c r="CW4" s="4" t="n"/>
-      <c r="CX4" s="4" t="n"/>
-      <c r="CY4" s="4" t="n"/>
-      <c r="CZ4" s="4" t="n"/>
-      <c r="DA4" s="4" t="n"/>
-      <c r="DB4" s="4" t="n"/>
-      <c r="DC4" s="4" t="n"/>
-      <c r="DD4" s="4" t="n"/>
-      <c r="DE4" s="4" t="n"/>
-      <c r="DF4" s="4" t="n"/>
-      <c r="DG4" s="4" t="n"/>
+      <c r="AZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="4">
+        <f>SUM(B4:BC4)</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1792,23 +1286,21 @@
       <c r="K5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>0</v>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="R5" s="2" t="n">
         <v>0</v>
@@ -1825,9 +1317,7 @@
       <c r="V5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="W5" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="W5" s="4" t="n"/>
       <c r="X5" s="2" t="n">
         <v>0</v>
       </c>
@@ -1840,17 +1330,17 @@
       <c r="AA5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="3" t="n">
-        <v>1</v>
+      <c r="AB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AF5" s="2" t="n">
         <v>0</v>
@@ -1858,14 +1348,12 @@
       <c r="AG5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>0</v>
+      <c r="AH5" s="4" t="n"/>
+      <c r="AI5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AK5" s="2" t="n">
         <v>0</v>
@@ -1882,23 +1370,21 @@
       <c r="AO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="4" t="n"/>
       <c r="AT5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AU5" s="2" t="n">
-        <v>0</v>
+      <c r="AU5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AV5" s="2" t="n">
         <v>0</v>
@@ -1912,76 +1398,32 @@
       <c r="AY5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AZ5" s="4" t="n"/>
-      <c r="BA5" s="4" t="n"/>
-      <c r="BB5" s="4" t="n"/>
-      <c r="BC5" s="4" t="n"/>
-      <c r="BD5" s="4" t="n"/>
-      <c r="BE5" s="4" t="n"/>
-      <c r="BF5" s="4" t="n"/>
-      <c r="BG5" s="4" t="n"/>
-      <c r="BH5" s="4" t="n"/>
-      <c r="BI5" s="4" t="n"/>
-      <c r="BJ5" s="4" t="n"/>
-      <c r="BK5" s="4" t="n"/>
-      <c r="BL5" s="4" t="n"/>
-      <c r="BM5" s="4" t="n"/>
-      <c r="BN5" s="4" t="n"/>
-      <c r="BO5" s="4" t="n"/>
-      <c r="BP5" s="4" t="n"/>
-      <c r="BQ5" s="4" t="n"/>
-      <c r="BR5" s="4" t="n"/>
-      <c r="BS5" s="4" t="n"/>
-      <c r="BT5" s="4" t="n"/>
-      <c r="BU5" s="4" t="n"/>
-      <c r="BV5" s="4" t="n"/>
-      <c r="BW5" s="4" t="n"/>
-      <c r="BX5" s="4" t="n"/>
-      <c r="BY5" s="4" t="n"/>
-      <c r="BZ5" s="4" t="n"/>
-      <c r="CA5" s="4" t="n"/>
-      <c r="CB5" s="4" t="n"/>
-      <c r="CC5" s="4" t="n"/>
-      <c r="CD5" s="4" t="n"/>
-      <c r="CE5" s="4" t="n"/>
-      <c r="CF5" s="4" t="n"/>
-      <c r="CG5" s="4" t="n"/>
-      <c r="CH5" s="4" t="n"/>
-      <c r="CI5" s="4" t="n"/>
-      <c r="CJ5" s="4" t="n"/>
-      <c r="CK5" s="4" t="n"/>
-      <c r="CL5" s="4" t="n"/>
-      <c r="CM5" s="4" t="n"/>
-      <c r="CN5" s="4" t="n"/>
-      <c r="CO5" s="4" t="n"/>
-      <c r="CP5" s="4" t="n"/>
-      <c r="CQ5" s="4" t="n"/>
-      <c r="CR5" s="4" t="n"/>
-      <c r="CS5" s="4" t="n"/>
-      <c r="CT5" s="4" t="n"/>
-      <c r="CU5" s="4" t="n"/>
-      <c r="CV5" s="4" t="n"/>
-      <c r="CW5" s="4" t="n"/>
-      <c r="CX5" s="4" t="n"/>
-      <c r="CY5" s="4" t="n"/>
-      <c r="CZ5" s="4" t="n"/>
-      <c r="DA5" s="4" t="n"/>
-      <c r="DB5" s="4" t="n"/>
-      <c r="DC5" s="4" t="n"/>
-      <c r="DD5" s="4" t="n"/>
-      <c r="DE5" s="4" t="n"/>
-      <c r="DF5" s="4" t="n"/>
-      <c r="DG5" s="4" t="n"/>
+      <c r="AZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="4">
+        <f>SUM(B5:BC5)</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>1</v>
@@ -2001,15 +1443,13 @@
       <c r="I6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="3" t="n">
         <v>1</v>
       </c>
@@ -2031,8 +1471,8 @@
       <c r="S6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T6" s="2" t="n">
-        <v>0</v>
+      <c r="T6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U6" s="2" t="n">
         <v>0</v>
@@ -2040,9 +1480,7 @@
       <c r="V6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="W6" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="W6" s="4" t="n"/>
       <c r="X6" s="3" t="n">
         <v>1</v>
       </c>
@@ -2067,15 +1505,13 @@
       <c r="AE6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4" t="n"/>
       <c r="AI6" s="3" t="n">
         <v>1</v>
       </c>
@@ -2091,29 +1527,27 @@
       <c r="AM6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AN6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="2" t="n">
-        <v>0</v>
+      <c r="AN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AQ6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AR6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="3" t="n">
-        <v>1</v>
+      <c r="AR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4" t="n"/>
+      <c r="AT6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AV6" s="3" t="n">
         <v>1</v>
@@ -2127,79 +1561,35 @@
       <c r="AY6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AZ6" s="4" t="n"/>
-      <c r="BA6" s="4" t="n"/>
-      <c r="BB6" s="4" t="n"/>
-      <c r="BC6" s="4" t="n"/>
-      <c r="BD6" s="4" t="n"/>
-      <c r="BE6" s="4" t="n"/>
-      <c r="BF6" s="4" t="n"/>
-      <c r="BG6" s="4" t="n"/>
-      <c r="BH6" s="4" t="n"/>
-      <c r="BI6" s="4" t="n"/>
-      <c r="BJ6" s="4" t="n"/>
-      <c r="BK6" s="4" t="n"/>
-      <c r="BL6" s="4" t="n"/>
-      <c r="BM6" s="4" t="n"/>
-      <c r="BN6" s="4" t="n"/>
-      <c r="BO6" s="4" t="n"/>
-      <c r="BP6" s="4" t="n"/>
-      <c r="BQ6" s="4" t="n"/>
-      <c r="BR6" s="4" t="n"/>
-      <c r="BS6" s="4" t="n"/>
-      <c r="BT6" s="4" t="n"/>
-      <c r="BU6" s="4" t="n"/>
-      <c r="BV6" s="4" t="n"/>
-      <c r="BW6" s="4" t="n"/>
-      <c r="BX6" s="4" t="n"/>
-      <c r="BY6" s="4" t="n"/>
-      <c r="BZ6" s="4" t="n"/>
-      <c r="CA6" s="4" t="n"/>
-      <c r="CB6" s="4" t="n"/>
-      <c r="CC6" s="4" t="n"/>
-      <c r="CD6" s="4" t="n"/>
-      <c r="CE6" s="4" t="n"/>
-      <c r="CF6" s="4" t="n"/>
-      <c r="CG6" s="4" t="n"/>
-      <c r="CH6" s="4" t="n"/>
-      <c r="CI6" s="4" t="n"/>
-      <c r="CJ6" s="4" t="n"/>
-      <c r="CK6" s="4" t="n"/>
-      <c r="CL6" s="4" t="n"/>
-      <c r="CM6" s="4" t="n"/>
-      <c r="CN6" s="4" t="n"/>
-      <c r="CO6" s="4" t="n"/>
-      <c r="CP6" s="4" t="n"/>
-      <c r="CQ6" s="4" t="n"/>
-      <c r="CR6" s="4" t="n"/>
-      <c r="CS6" s="4" t="n"/>
-      <c r="CT6" s="4" t="n"/>
-      <c r="CU6" s="4" t="n"/>
-      <c r="CV6" s="4" t="n"/>
-      <c r="CW6" s="4" t="n"/>
-      <c r="CX6" s="4" t="n"/>
-      <c r="CY6" s="4" t="n"/>
-      <c r="CZ6" s="4" t="n"/>
-      <c r="DA6" s="4" t="n"/>
-      <c r="DB6" s="4" t="n"/>
-      <c r="DC6" s="4" t="n"/>
-      <c r="DD6" s="4" t="n"/>
-      <c r="DE6" s="4" t="n"/>
-      <c r="DF6" s="4" t="n"/>
-      <c r="DG6" s="4" t="n"/>
+      <c r="AZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="4">
+        <f>SUM(B6:BC6)</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
+      <c r="B7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
@@ -2222,9 +1612,7 @@
       <c r="K7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="4" t="n"/>
       <c r="M7" s="2" t="n">
         <v>0</v>
       </c>
@@ -2237,47 +1625,45 @@
       <c r="P7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="3" t="n">
-        <v>1</v>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4" t="n"/>
+      <c r="X7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AA7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2" t="n">
-        <v>0</v>
+      <c r="AB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AE7" s="2" t="n">
         <v>0</v>
@@ -2288,29 +1674,27 @@
       <c r="AG7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2" t="n">
-        <v>0</v>
+      <c r="AH7" s="4" t="n"/>
+      <c r="AI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AK7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AL7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="3" t="n">
-        <v>1</v>
+      <c r="AL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AP7" s="2" t="n">
         <v>0</v>
@@ -2321,9 +1705,7 @@
       <c r="AR7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS7" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS7" s="4" t="n"/>
       <c r="AT7" s="2" t="n">
         <v>0</v>
       </c>
@@ -2339,69 +1721,25 @@
       <c r="AX7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="4" t="n"/>
-      <c r="BA7" s="4" t="n"/>
-      <c r="BB7" s="4" t="n"/>
-      <c r="BC7" s="4" t="n"/>
-      <c r="BD7" s="4" t="n"/>
-      <c r="BE7" s="4" t="n"/>
-      <c r="BF7" s="4" t="n"/>
-      <c r="BG7" s="4" t="n"/>
-      <c r="BH7" s="4" t="n"/>
-      <c r="BI7" s="4" t="n"/>
-      <c r="BJ7" s="4" t="n"/>
-      <c r="BK7" s="4" t="n"/>
-      <c r="BL7" s="4" t="n"/>
-      <c r="BM7" s="4" t="n"/>
-      <c r="BN7" s="4" t="n"/>
-      <c r="BO7" s="4" t="n"/>
-      <c r="BP7" s="4" t="n"/>
-      <c r="BQ7" s="4" t="n"/>
-      <c r="BR7" s="4" t="n"/>
-      <c r="BS7" s="4" t="n"/>
-      <c r="BT7" s="4" t="n"/>
-      <c r="BU7" s="4" t="n"/>
-      <c r="BV7" s="4" t="n"/>
-      <c r="BW7" s="4" t="n"/>
-      <c r="BX7" s="4" t="n"/>
-      <c r="BY7" s="4" t="n"/>
-      <c r="BZ7" s="4" t="n"/>
-      <c r="CA7" s="4" t="n"/>
-      <c r="CB7" s="4" t="n"/>
-      <c r="CC7" s="4" t="n"/>
-      <c r="CD7" s="4" t="n"/>
-      <c r="CE7" s="4" t="n"/>
-      <c r="CF7" s="4" t="n"/>
-      <c r="CG7" s="4" t="n"/>
-      <c r="CH7" s="4" t="n"/>
-      <c r="CI7" s="4" t="n"/>
-      <c r="CJ7" s="4" t="n"/>
-      <c r="CK7" s="4" t="n"/>
-      <c r="CL7" s="4" t="n"/>
-      <c r="CM7" s="4" t="n"/>
-      <c r="CN7" s="4" t="n"/>
-      <c r="CO7" s="4" t="n"/>
-      <c r="CP7" s="4" t="n"/>
-      <c r="CQ7" s="4" t="n"/>
-      <c r="CR7" s="4" t="n"/>
-      <c r="CS7" s="4" t="n"/>
-      <c r="CT7" s="4" t="n"/>
-      <c r="CU7" s="4" t="n"/>
-      <c r="CV7" s="4" t="n"/>
-      <c r="CW7" s="4" t="n"/>
-      <c r="CX7" s="4" t="n"/>
-      <c r="CY7" s="4" t="n"/>
-      <c r="CZ7" s="4" t="n"/>
-      <c r="DA7" s="4" t="n"/>
-      <c r="DB7" s="4" t="n"/>
-      <c r="DC7" s="4" t="n"/>
-      <c r="DD7" s="4" t="n"/>
-      <c r="DE7" s="4" t="n"/>
-      <c r="DF7" s="4" t="n"/>
-      <c r="DG7" s="4" t="n"/>
+      <c r="AY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="4">
+        <f>SUM(B7:BC7)</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2422,11 +1760,11 @@
       <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>1</v>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>1</v>
@@ -2437,9 +1775,7 @@
       <c r="K8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L8" s="4" t="n"/>
       <c r="M8" s="2" t="n">
         <v>0</v>
       </c>
@@ -2470,9 +1806,7 @@
       <c r="V8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="W8" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="W8" s="4" t="n"/>
       <c r="X8" s="2" t="n">
         <v>0</v>
       </c>
@@ -2503,23 +1837,21 @@
       <c r="AG8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AH8" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AH8" s="4" t="n"/>
       <c r="AI8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AK8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="3" t="n">
-        <v>1</v>
+      <c r="AK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AN8" s="3" t="n">
         <v>1</v>
@@ -2527,109 +1859,63 @@
       <c r="AO8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="4" t="n"/>
       <c r="AT8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="4" t="n"/>
-      <c r="BA8" s="4" t="n"/>
-      <c r="BB8" s="4" t="n"/>
-      <c r="BC8" s="4" t="n"/>
-      <c r="BD8" s="4" t="n"/>
-      <c r="BE8" s="4" t="n"/>
-      <c r="BF8" s="4" t="n"/>
-      <c r="BG8" s="4" t="n"/>
-      <c r="BH8" s="4" t="n"/>
-      <c r="BI8" s="4" t="n"/>
-      <c r="BJ8" s="4" t="n"/>
-      <c r="BK8" s="4" t="n"/>
-      <c r="BL8" s="4" t="n"/>
-      <c r="BM8" s="4" t="n"/>
-      <c r="BN8" s="4" t="n"/>
-      <c r="BO8" s="4" t="n"/>
-      <c r="BP8" s="4" t="n"/>
-      <c r="BQ8" s="4" t="n"/>
-      <c r="BR8" s="4" t="n"/>
-      <c r="BS8" s="4" t="n"/>
-      <c r="BT8" s="4" t="n"/>
-      <c r="BU8" s="4" t="n"/>
-      <c r="BV8" s="4" t="n"/>
-      <c r="BW8" s="4" t="n"/>
-      <c r="BX8" s="4" t="n"/>
-      <c r="BY8" s="4" t="n"/>
-      <c r="BZ8" s="4" t="n"/>
-      <c r="CA8" s="4" t="n"/>
-      <c r="CB8" s="4" t="n"/>
-      <c r="CC8" s="4" t="n"/>
-      <c r="CD8" s="4" t="n"/>
-      <c r="CE8" s="4" t="n"/>
-      <c r="CF8" s="4" t="n"/>
-      <c r="CG8" s="4" t="n"/>
-      <c r="CH8" s="4" t="n"/>
-      <c r="CI8" s="4" t="n"/>
-      <c r="CJ8" s="4" t="n"/>
-      <c r="CK8" s="4" t="n"/>
-      <c r="CL8" s="4" t="n"/>
-      <c r="CM8" s="4" t="n"/>
-      <c r="CN8" s="4" t="n"/>
-      <c r="CO8" s="4" t="n"/>
-      <c r="CP8" s="4" t="n"/>
-      <c r="CQ8" s="4" t="n"/>
-      <c r="CR8" s="4" t="n"/>
-      <c r="CS8" s="4" t="n"/>
-      <c r="CT8" s="4" t="n"/>
-      <c r="CU8" s="4" t="n"/>
-      <c r="CV8" s="4" t="n"/>
-      <c r="CW8" s="4" t="n"/>
-      <c r="CX8" s="4" t="n"/>
-      <c r="CY8" s="4" t="n"/>
-      <c r="CZ8" s="4" t="n"/>
-      <c r="DA8" s="4" t="n"/>
-      <c r="DB8" s="4" t="n"/>
-      <c r="DC8" s="4" t="n"/>
-      <c r="DD8" s="4" t="n"/>
-      <c r="DE8" s="4" t="n"/>
-      <c r="DF8" s="4" t="n"/>
-      <c r="DG8" s="4" t="n"/>
+      <c r="AU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="4">
+        <f>SUM(B8:BC8)</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>1</v>
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>1</v>
@@ -2637,24 +1923,22 @@
       <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="n"/>
       <c r="M9" s="2" t="n">
         <v>0</v>
       </c>
@@ -2667,35 +1951,33 @@
       <c r="P9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="3" t="n">
-        <v>1</v>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="V9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="V9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4" t="n"/>
       <c r="X9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2" t="n">
-        <v>0</v>
+      <c r="Y9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AA9" s="2" t="n">
         <v>0</v>
@@ -2712,20 +1994,18 @@
       <c r="AE9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AF9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="3" t="n">
-        <v>1</v>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4" t="n"/>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AK9" s="2" t="n">
         <v>0</v>
@@ -2751,9 +2031,7 @@
       <c r="AR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS9" s="4" t="n"/>
       <c r="AT9" s="2" t="n">
         <v>0</v>
       </c>
@@ -2772,66 +2050,22 @@
       <c r="AY9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="4" t="n"/>
-      <c r="BA9" s="4" t="n"/>
-      <c r="BB9" s="4" t="n"/>
-      <c r="BC9" s="4" t="n"/>
-      <c r="BD9" s="4" t="n"/>
-      <c r="BE9" s="4" t="n"/>
-      <c r="BF9" s="4" t="n"/>
-      <c r="BG9" s="4" t="n"/>
-      <c r="BH9" s="4" t="n"/>
-      <c r="BI9" s="4" t="n"/>
-      <c r="BJ9" s="4" t="n"/>
-      <c r="BK9" s="4" t="n"/>
-      <c r="BL9" s="4" t="n"/>
-      <c r="BM9" s="4" t="n"/>
-      <c r="BN9" s="4" t="n"/>
-      <c r="BO9" s="4" t="n"/>
-      <c r="BP9" s="4" t="n"/>
-      <c r="BQ9" s="4" t="n"/>
-      <c r="BR9" s="4" t="n"/>
-      <c r="BS9" s="4" t="n"/>
-      <c r="BT9" s="4" t="n"/>
-      <c r="BU9" s="4" t="n"/>
-      <c r="BV9" s="4" t="n"/>
-      <c r="BW9" s="4" t="n"/>
-      <c r="BX9" s="4" t="n"/>
-      <c r="BY9" s="4" t="n"/>
-      <c r="BZ9" s="4" t="n"/>
-      <c r="CA9" s="4" t="n"/>
-      <c r="CB9" s="4" t="n"/>
-      <c r="CC9" s="4" t="n"/>
-      <c r="CD9" s="4" t="n"/>
-      <c r="CE9" s="4" t="n"/>
-      <c r="CF9" s="4" t="n"/>
-      <c r="CG9" s="4" t="n"/>
-      <c r="CH9" s="4" t="n"/>
-      <c r="CI9" s="4" t="n"/>
-      <c r="CJ9" s="4" t="n"/>
-      <c r="CK9" s="4" t="n"/>
-      <c r="CL9" s="4" t="n"/>
-      <c r="CM9" s="4" t="n"/>
-      <c r="CN9" s="4" t="n"/>
-      <c r="CO9" s="4" t="n"/>
-      <c r="CP9" s="4" t="n"/>
-      <c r="CQ9" s="4" t="n"/>
-      <c r="CR9" s="4" t="n"/>
-      <c r="CS9" s="4" t="n"/>
-      <c r="CT9" s="4" t="n"/>
-      <c r="CU9" s="4" t="n"/>
-      <c r="CV9" s="4" t="n"/>
-      <c r="CW9" s="4" t="n"/>
-      <c r="CX9" s="4" t="n"/>
-      <c r="CY9" s="4" t="n"/>
-      <c r="CZ9" s="4" t="n"/>
-      <c r="DA9" s="4" t="n"/>
-      <c r="DB9" s="4" t="n"/>
-      <c r="DC9" s="4" t="n"/>
-      <c r="DD9" s="4" t="n"/>
-      <c r="DE9" s="4" t="n"/>
-      <c r="DF9" s="4" t="n"/>
-      <c r="DG9" s="4" t="n"/>
+      <c r="AZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="4">
+        <f>SUM(B9:BC9)</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2843,14 +2077,14 @@
       <c r="C10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
@@ -2867,29 +2101,27 @@
       <c r="K10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L10" s="4" t="n"/>
       <c r="M10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2" t="n">
-        <v>0</v>
+      <c r="O10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
@@ -2897,14 +2129,12 @@
       <c r="U10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" s="3" t="n">
-        <v>1</v>
+      <c r="V10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4" t="n"/>
+      <c r="X10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="Y10" s="3" t="n">
         <v>1</v>
@@ -2933,9 +2163,7 @@
       <c r="AG10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AH10" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AH10" s="4" t="n"/>
       <c r="AI10" s="2" t="n">
         <v>0</v>
       </c>
@@ -2960,93 +2188,47 @@
       <c r="AP10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AQ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AQ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="4" t="n"/>
       <c r="AT10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ10" s="4" t="n"/>
-      <c r="BA10" s="4" t="n"/>
-      <c r="BB10" s="4" t="n"/>
-      <c r="BC10" s="4" t="n"/>
-      <c r="BD10" s="4" t="n"/>
-      <c r="BE10" s="4" t="n"/>
-      <c r="BF10" s="4" t="n"/>
-      <c r="BG10" s="4" t="n"/>
-      <c r="BH10" s="4" t="n"/>
-      <c r="BI10" s="4" t="n"/>
-      <c r="BJ10" s="4" t="n"/>
-      <c r="BK10" s="4" t="n"/>
-      <c r="BL10" s="4" t="n"/>
-      <c r="BM10" s="4" t="n"/>
-      <c r="BN10" s="4" t="n"/>
-      <c r="BO10" s="4" t="n"/>
-      <c r="BP10" s="4" t="n"/>
-      <c r="BQ10" s="4" t="n"/>
-      <c r="BR10" s="4" t="n"/>
-      <c r="BS10" s="4" t="n"/>
-      <c r="BT10" s="4" t="n"/>
-      <c r="BU10" s="4" t="n"/>
-      <c r="BV10" s="4" t="n"/>
-      <c r="BW10" s="4" t="n"/>
-      <c r="BX10" s="4" t="n"/>
-      <c r="BY10" s="4" t="n"/>
-      <c r="BZ10" s="4" t="n"/>
-      <c r="CA10" s="4" t="n"/>
-      <c r="CB10" s="4" t="n"/>
-      <c r="CC10" s="4" t="n"/>
-      <c r="CD10" s="4" t="n"/>
-      <c r="CE10" s="4" t="n"/>
-      <c r="CF10" s="4" t="n"/>
-      <c r="CG10" s="4" t="n"/>
-      <c r="CH10" s="4" t="n"/>
-      <c r="CI10" s="4" t="n"/>
-      <c r="CJ10" s="4" t="n"/>
-      <c r="CK10" s="4" t="n"/>
-      <c r="CL10" s="4" t="n"/>
-      <c r="CM10" s="4" t="n"/>
-      <c r="CN10" s="4" t="n"/>
-      <c r="CO10" s="4" t="n"/>
-      <c r="CP10" s="4" t="n"/>
-      <c r="CQ10" s="4" t="n"/>
-      <c r="CR10" s="4" t="n"/>
-      <c r="CS10" s="4" t="n"/>
-      <c r="CT10" s="4" t="n"/>
-      <c r="CU10" s="4" t="n"/>
-      <c r="CV10" s="4" t="n"/>
-      <c r="CW10" s="4" t="n"/>
-      <c r="CX10" s="4" t="n"/>
-      <c r="CY10" s="4" t="n"/>
-      <c r="CZ10" s="4" t="n"/>
-      <c r="DA10" s="4" t="n"/>
-      <c r="DB10" s="4" t="n"/>
-      <c r="DC10" s="4" t="n"/>
-      <c r="DD10" s="4" t="n"/>
-      <c r="DE10" s="4" t="n"/>
-      <c r="DF10" s="4" t="n"/>
-      <c r="DG10" s="4" t="n"/>
+      <c r="AU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="4">
+        <f>SUM(B10:BC10)</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3082,9 +2264,7 @@
       <c r="K11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="L11" s="4" t="n"/>
       <c r="M11" s="3" t="n">
         <v>1</v>
       </c>
@@ -3106,8 +2286,8 @@
       <c r="S11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T11" s="2" t="n">
-        <v>0</v>
+      <c r="T11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U11" s="2" t="n">
         <v>0</v>
@@ -3115,14 +2295,12 @@
       <c r="V11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="W11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="3" t="n">
-        <v>1</v>
+      <c r="W11" s="4" t="n"/>
+      <c r="X11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="Z11" s="3" t="n">
         <v>1</v>
@@ -3139,8 +2317,8 @@
       <c r="AD11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" s="2" t="n">
-        <v>0</v>
+      <c r="AE11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AF11" s="3" t="n">
         <v>1</v>
@@ -3148,9 +2326,7 @@
       <c r="AG11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AH11" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH11" s="4" t="n"/>
       <c r="AI11" s="3" t="n">
         <v>1</v>
       </c>
@@ -3166,24 +2342,22 @@
       <c r="AM11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="2" t="n">
-        <v>0</v>
+      <c r="AN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="4" t="n"/>
       <c r="AT11" s="3" t="n">
         <v>1</v>
       </c>
@@ -3196,72 +2370,28 @@
       <c r="AW11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="4" t="n"/>
-      <c r="BA11" s="4" t="n"/>
-      <c r="BB11" s="4" t="n"/>
-      <c r="BC11" s="4" t="n"/>
-      <c r="BD11" s="4" t="n"/>
-      <c r="BE11" s="4" t="n"/>
-      <c r="BF11" s="4" t="n"/>
-      <c r="BG11" s="4" t="n"/>
-      <c r="BH11" s="4" t="n"/>
-      <c r="BI11" s="4" t="n"/>
-      <c r="BJ11" s="4" t="n"/>
-      <c r="BK11" s="4" t="n"/>
-      <c r="BL11" s="4" t="n"/>
-      <c r="BM11" s="4" t="n"/>
-      <c r="BN11" s="4" t="n"/>
-      <c r="BO11" s="4" t="n"/>
-      <c r="BP11" s="4" t="n"/>
-      <c r="BQ11" s="4" t="n"/>
-      <c r="BR11" s="4" t="n"/>
-      <c r="BS11" s="4" t="n"/>
-      <c r="BT11" s="4" t="n"/>
-      <c r="BU11" s="4" t="n"/>
-      <c r="BV11" s="4" t="n"/>
-      <c r="BW11" s="4" t="n"/>
-      <c r="BX11" s="4" t="n"/>
-      <c r="BY11" s="4" t="n"/>
-      <c r="BZ11" s="4" t="n"/>
-      <c r="CA11" s="4" t="n"/>
-      <c r="CB11" s="4" t="n"/>
-      <c r="CC11" s="4" t="n"/>
-      <c r="CD11" s="4" t="n"/>
-      <c r="CE11" s="4" t="n"/>
-      <c r="CF11" s="4" t="n"/>
-      <c r="CG11" s="4" t="n"/>
-      <c r="CH11" s="4" t="n"/>
-      <c r="CI11" s="4" t="n"/>
-      <c r="CJ11" s="4" t="n"/>
-      <c r="CK11" s="4" t="n"/>
-      <c r="CL11" s="4" t="n"/>
-      <c r="CM11" s="4" t="n"/>
-      <c r="CN11" s="4" t="n"/>
-      <c r="CO11" s="4" t="n"/>
-      <c r="CP11" s="4" t="n"/>
-      <c r="CQ11" s="4" t="n"/>
-      <c r="CR11" s="4" t="n"/>
-      <c r="CS11" s="4" t="n"/>
-      <c r="CT11" s="4" t="n"/>
-      <c r="CU11" s="4" t="n"/>
-      <c r="CV11" s="4" t="n"/>
-      <c r="CW11" s="4" t="n"/>
-      <c r="CX11" s="4" t="n"/>
-      <c r="CY11" s="4" t="n"/>
-      <c r="CZ11" s="4" t="n"/>
-      <c r="DA11" s="4" t="n"/>
-      <c r="DB11" s="4" t="n"/>
-      <c r="DC11" s="4" t="n"/>
-      <c r="DD11" s="4" t="n"/>
-      <c r="DE11" s="4" t="n"/>
-      <c r="DF11" s="4" t="n"/>
-      <c r="DG11" s="4" t="n"/>
+      <c r="AX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="4">
+        <f>SUM(B11:BC11)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -782,11 +782,11 @@
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>1</v>
@@ -822,11 +822,11 @@
       <c r="T2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>1</v>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="2" t="n">
@@ -866,23 +866,23 @@
       <c r="AJ2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="2" t="n">
-        <v>0</v>
+      <c r="AK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AQ2" s="2" t="n">
         <v>0</v>
@@ -915,11 +915,11 @@
       <c r="BA2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" s="3" t="n">
-        <v>1</v>
+      <c r="BB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BD2" s="4">
         <f>SUM(B2:BC2)</f>
@@ -930,20 +930,20 @@
       <c r="A3" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1013,14 +1013,14 @@
       <c r="AD3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>1</v>
+      <c r="AE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n"/>
       <c r="AI3" s="2" t="n">
@@ -1054,20 +1054,20 @@
         <v>0</v>
       </c>
       <c r="AS3" s="4" t="n"/>
-      <c r="AT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="3" t="n">
-        <v>1</v>
+      <c r="AT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AY3" s="2" t="n">
         <v>0</v>
@@ -1075,14 +1075,14 @@
       <c r="AZ3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="2" t="n">
-        <v>0</v>
+      <c r="BA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BD3" s="4">
         <f>SUM(B3:BC3)</f>
@@ -1145,14 +1145,14 @@
       <c r="S4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>0</v>
+      <c r="T4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="2" t="n">
@@ -1161,29 +1161,29 @@
       <c r="Y4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Z4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2" t="n">
-        <v>0</v>
+      <c r="Z4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AC4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="3" t="n">
-        <v>1</v>
+      <c r="AD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n"/>
       <c r="AI4" s="2" t="n">
@@ -1195,26 +1195,26 @@
       <c r="AK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="3" t="n">
-        <v>1</v>
+      <c r="AL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AS4" s="4" t="n"/>
       <c r="AT4" s="2" t="n">
@@ -1232,20 +1232,20 @@
       <c r="AX4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="2" t="n">
-        <v>0</v>
+      <c r="AY4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BD4" s="4">
         <f>SUM(B4:BC4)</f>
@@ -1287,35 +1287,35 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n"/>
-      <c r="M5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>1</v>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="Q5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>0</v>
+      <c r="R5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="2" t="n">
@@ -1324,36 +1324,36 @@
       <c r="Y5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Z5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="3" t="n">
-        <v>1</v>
+      <c r="Z5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AB5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>0</v>
+      <c r="AC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AH5" s="4" t="n"/>
-      <c r="AI5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="3" t="n">
-        <v>1</v>
+      <c r="AI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AK5" s="2" t="n">
         <v>0</v>
@@ -1380,11 +1380,11 @@
         <v>0</v>
       </c>
       <c r="AS5" s="4" t="n"/>
-      <c r="AT5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="3" t="n">
-        <v>1</v>
+      <c r="AT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AV5" s="2" t="n">
         <v>0</v>
@@ -1419,11 +1419,11 @@
       <c r="A6" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>1</v>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>1</v>
@@ -1443,11 +1443,11 @@
       <c r="I6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="3" t="n">
@@ -1543,11 +1543,11 @@
         <v>0</v>
       </c>
       <c r="AS6" s="4" t="n"/>
-      <c r="AT6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="2" t="n">
-        <v>0</v>
+      <c r="AT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AV6" s="3" t="n">
         <v>1</v>
@@ -1567,11 +1567,11 @@
       <c r="BA6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BB6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="3" t="n">
-        <v>1</v>
+      <c r="BB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BD6" s="4">
         <f>SUM(B6:BC6)</f>
@@ -1582,14 +1582,14 @@
       <c r="A7" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>1</v>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
@@ -1603,30 +1603,30 @@
       <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="L7" s="4" t="n"/>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>0</v>
+      <c r="M7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="R7" s="2" t="n">
         <v>0</v>
@@ -1656,14 +1656,14 @@
       <c r="AA7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="3" t="n">
-        <v>1</v>
+      <c r="AB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AE7" s="2" t="n">
         <v>0</v>
@@ -1675,14 +1675,14 @@
         <v>0</v>
       </c>
       <c r="AH7" s="4" t="n"/>
-      <c r="AI7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="3" t="n">
-        <v>1</v>
+      <c r="AI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AL7" s="2" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
         <v>0</v>
       </c>
       <c r="AS7" s="4" t="n"/>
-      <c r="AT7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="2" t="n">
-        <v>0</v>
+      <c r="AT7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AW7" s="2" t="n">
         <v>0</v>
@@ -1721,11 +1721,11 @@
       <c r="AX7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AY7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="3" t="n">
-        <v>1</v>
+      <c r="AY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BA7" s="2" t="n">
         <v>0</v>
@@ -1745,17 +1745,17 @@
       <c r="A8" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
+      <c r="B8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0</v>
@@ -1766,14 +1766,14 @@
       <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>1</v>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="L8" s="4" t="n"/>
       <c r="M8" s="2" t="n">
@@ -1807,14 +1807,14 @@
         <v>0</v>
       </c>
       <c r="W8" s="4" t="n"/>
-      <c r="X8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2" t="n">
-        <v>0</v>
+      <c r="X8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AA8" s="2" t="n">
         <v>0</v>
@@ -1853,8 +1853,8 @@
       <c r="AM8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" s="3" t="n">
-        <v>1</v>
+      <c r="AN8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AO8" s="3" t="n">
         <v>1</v>
@@ -1890,14 +1890,14 @@
       <c r="AZ8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BA8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC8" s="3" t="n">
-        <v>1</v>
+      <c r="BA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BD8" s="4">
         <f>SUM(B8:BC8)</f>
@@ -1917,11 +1917,11 @@
       <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>1</v>
@@ -1963,21 +1963,21 @@
       <c r="T9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" s="3" t="n">
-        <v>1</v>
+      <c r="U9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="W9" s="4" t="n"/>
       <c r="X9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="3" t="n">
-        <v>1</v>
+      <c r="Y9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AA9" s="2" t="n">
         <v>0</v>
@@ -1991,14 +1991,14 @@
       <c r="AD9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2" t="n">
-        <v>0</v>
+      <c r="AE9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AH9" s="4" t="n"/>
       <c r="AI9" s="2" t="n">
@@ -2022,14 +2022,14 @@
       <c r="AO9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="2" t="n">
-        <v>0</v>
+      <c r="AP9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AS9" s="4" t="n"/>
       <c r="AT9" s="2" t="n">
@@ -2071,11 +2071,11 @@
       <c r="A10" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>1</v>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -2108,20 +2108,20 @@
       <c r="N10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="3" t="n">
-        <v>1</v>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
@@ -2136,11 +2136,11 @@
       <c r="X10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Y10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="3" t="n">
-        <v>1</v>
+      <c r="Y10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AA10" s="2" t="n">
         <v>0</v>
@@ -2154,24 +2154,24 @@
       <c r="AD10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AE10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="2" t="n">
-        <v>0</v>
+      <c r="AE10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AH10" s="4" t="n"/>
-      <c r="AI10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="2" t="n">
-        <v>0</v>
+      <c r="AI10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AL10" s="2" t="n">
         <v>0</v>
@@ -2188,27 +2188,27 @@
       <c r="AP10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AQ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR10" s="3" t="n">
-        <v>1</v>
+      <c r="AQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AS10" s="4" t="n"/>
-      <c r="AT10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="2" t="n">
-        <v>0</v>
+      <c r="AT10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AY10" s="2" t="n">
         <v>0</v>
@@ -2234,11 +2234,11 @@
       <c r="A11" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
+      <c r="B11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>1</v>
@@ -2258,11 +2258,11 @@
       <c r="I11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>1</v>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="L11" s="4" t="n"/>
       <c r="M11" s="3" t="n">
@@ -2299,8 +2299,8 @@
       <c r="X11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Y11" s="2" t="n">
-        <v>0</v>
+      <c r="Y11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="Z11" s="3" t="n">
         <v>1</v>
@@ -2323,15 +2323,15 @@
       <c r="AF11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AG11" s="3" t="n">
-        <v>1</v>
+      <c r="AG11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AH11" s="4" t="n"/>
-      <c r="AI11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="3" t="n">
-        <v>1</v>
+      <c r="AI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AK11" s="3" t="n">
         <v>1</v>
@@ -2351,18 +2351,18 @@
       <c r="AP11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="2" t="n">
-        <v>0</v>
+      <c r="AQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AS11" s="4" t="n"/>
-      <c r="AT11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="3" t="n">
-        <v>1</v>
+      <c r="AT11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AV11" s="3" t="n">
         <v>1</v>
@@ -2382,11 +2382,11 @@
       <c r="BA11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="2" t="n">
-        <v>0</v>
+      <c r="BB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BD11" s="4">
         <f>SUM(B11:BC11)</f>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -41,14 +41,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -768,158 +768,158 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n"/>
-      <c r="M2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="n">
+      <c r="M2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AH2" s="4" t="n"/>
       <c r="AI2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS2" s="4" t="n"/>
-      <c r="AT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="2" t="n">
+      <c r="AT2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AY2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="4">
         <f>SUM(B2:BC2)</f>
@@ -931,158 +931,158 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n"/>
-      <c r="X3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2" t="n">
+      <c r="X3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" s="4" t="n"/>
       <c r="AI3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS3" s="4" t="n"/>
-      <c r="AT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="2" t="n">
+      <c r="AT3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BA3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="4">
         <f>SUM(B3:BC3)</f>
@@ -1093,158 +1093,158 @@
       <c r="A4" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="n">
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n"/>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="n">
+      <c r="M4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W4" s="4" t="n"/>
-      <c r="X4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2" t="n">
+      <c r="X4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Z4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AH4" s="4" t="n"/>
-      <c r="AI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2" t="n">
+      <c r="AI4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AN4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4" s="4" t="n"/>
-      <c r="AT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="3" t="n">
+      <c r="AT4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="BD4" s="4">
@@ -1256,158 +1256,158 @@
       <c r="A5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="n">
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n"/>
-      <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="n">
+      <c r="M5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="W5" s="4" t="n"/>
-      <c r="X5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="3" t="n">
+      <c r="X5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH5" s="4" t="n"/>
-      <c r="AI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="2" t="n">
+      <c r="AI5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS5" s="4" t="n"/>
       <c r="AT5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BD5" s="4">
@@ -1419,159 +1419,159 @@
       <c r="A6" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="n">
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="4" t="n"/>
-      <c r="X6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="2" t="n">
+      <c r="X6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AH6" s="4" t="n"/>
       <c r="AI6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AQ6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6" s="4" t="n"/>
       <c r="AT6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="BB6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="4">
         <f>SUM(B6:BC6)</f>
@@ -1583,157 +1583,157 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4" t="n"/>
-      <c r="M7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2" t="n">
+      <c r="M7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="4" t="n"/>
-      <c r="X7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2" t="n">
+      <c r="X7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="4" t="n"/>
-      <c r="AI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="2" t="n">
+      <c r="AI7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS7" s="4" t="n"/>
       <c r="AT7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BD7" s="4">
@@ -1746,157 +1746,157 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="4" t="n"/>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2" t="n">
+      <c r="M8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="W8" s="4" t="n"/>
-      <c r="X8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="3" t="n">
+      <c r="X8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AH8" s="4" t="n"/>
-      <c r="AI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="2" t="n">
+      <c r="AI8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AS8" s="4" t="n"/>
-      <c r="AT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="2" t="n">
+      <c r="AT8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BD8" s="4">
@@ -1908,158 +1908,158 @@
       <c r="A9" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3" t="n">
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="4" t="n"/>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2" t="n">
+      <c r="M9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="4" t="n"/>
-      <c r="X9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2" t="n">
+      <c r="X9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AE9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="4" t="n"/>
-      <c r="AI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="2" t="n">
+      <c r="AI9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AP9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="4" t="n"/>
       <c r="AT9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BD9" s="4">
@@ -2071,158 +2071,158 @@
       <c r="A10" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="4" t="n"/>
-      <c r="M10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2" t="n">
+      <c r="M10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="W10" s="4" t="n"/>
-      <c r="X10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2" t="n">
+      <c r="X10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AE10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="4" t="n"/>
-      <c r="AI10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="3" t="n">
+      <c r="AI10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS10" s="4" t="n"/>
       <c r="AT10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BD10" s="4">
@@ -2234,159 +2234,159 @@
       <c r="A11" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="n">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n"/>
-      <c r="M11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2" t="n">
+      <c r="M11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="W11" s="4" t="n"/>
-      <c r="X11" s="2" t="n">
+      <c r="X11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Y11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AG11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="4" t="n"/>
       <c r="AI11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AQ11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="4" t="n"/>
       <c r="AT11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="BB11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="4">
         <f>SUM(B11:BC11)</f>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -41,14 +41,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GY3"/>
+  <dimension ref="A1:GY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1694,124 +1694,124 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2" s="4" t="inlineStr">
         <is>
@@ -1819,123 +1819,123 @@
         </is>
       </c>
       <c r="AQ2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" s="4" t="inlineStr">
@@ -1944,249 +1944,249 @@
         </is>
       </c>
       <c r="CF2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN2" s="3" t="n">
+      <c r="DU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="EO2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI2" s="4" t="inlineStr">
         <is>
@@ -2194,124 +2194,124 @@
         </is>
       </c>
       <c r="FJ2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GD2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GN2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GT2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GV2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GW2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2328,374 +2328,374 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="AB3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="3" t="n">
+      <c r="AQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="BK3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE3" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY3" s="3" t="n">
+      <c r="CF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="CZ3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT3" s="4" t="inlineStr">
         <is>
@@ -2703,123 +2703,123 @@
         </is>
       </c>
       <c r="DU3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="FI3" s="4" t="inlineStr">
@@ -2828,124 +2828,124 @@
         </is>
       </c>
       <c r="FJ3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GF3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GH3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GJ3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GL3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GN3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GO3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GP3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GQ3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GS3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GT3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GU3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GV3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX3" s="4" t="inlineStr">
         <is>
@@ -2954,6 +2954,5078 @@
       </c>
       <c r="GY3" s="4">
         <f>SUM(B3:GX3)/4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE4" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT4" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI4" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX4" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY4" s="4">
+        <f>SUM(B4:GX4)/4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT5" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI5" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX5" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY5" s="4">
+        <f>SUM(B5:GX5)/4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY6" s="4">
+        <f>SUM(B6:GX6)/4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY7" s="4">
+        <f>SUM(B7:GX7)/4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY8" s="4">
+        <f>SUM(B8:GX8)/4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY9" s="4">
+        <f>SUM(B9:GX9)/4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY10" s="4">
+        <f>SUM(B10:GX10)/4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY11" s="4">
+        <f>SUM(B11:GX11)/4</f>
         <v/>
       </c>
     </row>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1717,35 +1717,35 @@
       <c r="I2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>0</v>
+      <c r="J2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="T2" s="3" t="n">
         <v>0</v>
@@ -1818,29 +1818,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="2" t="n">
-        <v>1</v>
+      <c r="AQ2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="AY2" s="3" t="n">
         <v>0</v>
@@ -1943,59 +1943,59 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW2" s="3" t="n">
-        <v>0</v>
+      <c r="CF2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="CX2" s="3" t="n">
         <v>0</v>
@@ -2039,29 +2039,29 @@
       <c r="DK2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="DL2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" s="2" t="n">
-        <v>1</v>
+      <c r="DL2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS2" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="DT2" s="4" t="inlineStr">
         <is>
@@ -2128,41 +2128,41 @@
       <c r="EN2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="EO2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" s="2" t="n">
-        <v>1</v>
+      <c r="EO2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ2" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="FA2" s="2" t="n">
         <v>1</v>
@@ -2193,29 +2193,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ2" s="2" t="n">
-        <v>1</v>
+      <c r="FJ2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="FR2" s="3" t="n">
         <v>0</v>
@@ -2289,29 +2289,29 @@
       <c r="GO2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="GP2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW2" s="3" t="n">
-        <v>0</v>
+      <c r="GP2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2327,29 +2327,29 @@
       <c r="A3" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0</v>
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>0</v>
@@ -2375,41 +2375,41 @@
       <c r="Q3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>1</v>
+      <c r="R3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="AD3" s="3" t="n">
         <v>0</v>
@@ -2452,89 +2452,89 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="3" t="n">
-        <v>0</v>
+      <c r="AQ3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="BG3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BH3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR3" s="2" t="n">
-        <v>1</v>
+      <c r="BH3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="BS3" s="3" t="n">
         <v>0</v>
@@ -2577,35 +2577,35 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO3" s="2" t="n">
-        <v>1</v>
+      <c r="CF3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="CP3" s="3" t="n">
         <v>0</v>
@@ -2726,14 +2726,14 @@
       <c r="EB3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="EC3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE3" s="2" t="n">
-        <v>1</v>
+      <c r="EC3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="EF3" s="3" t="n">
         <v>0</v>
@@ -2863,35 +2863,35 @@
       <c r="FU3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="FV3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" s="3" t="n">
-        <v>0</v>
+      <c r="FV3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE3" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="GF3" s="3" t="n">
         <v>0</v>
@@ -3042,20 +3042,20 @@
       <c r="AB4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AC4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="3" t="n">
-        <v>0</v>
+      <c r="AC4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AH4" s="2" t="n">
         <v>1</v>
@@ -3432,29 +3432,29 @@
       <c r="EZ4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="FA4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH4" s="2" t="n">
-        <v>1</v>
+      <c r="FA4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH4" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="FI4" s="4" t="inlineStr">
         <is>
@@ -3557,29 +3557,29 @@
       <c r="GO4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="GP4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW4" s="2" t="n">
-        <v>1</v>
+      <c r="GP4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW4" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="GX4" s="4" t="inlineStr">
         <is>
@@ -3720,29 +3720,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="2" t="n">
-        <v>1</v>
+      <c r="AQ5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="AY5" s="3" t="n">
         <v>0</v>
@@ -3970,29 +3970,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB5" s="2" t="n">
-        <v>1</v>
+      <c r="DU5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB5" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="EC5" s="3" t="n">
         <v>0</v>
@@ -4045,79 +4045,79 @@
       <c r="ES5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="ET5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" s="3" t="n">
-        <v>0</v>
+      <c r="ET5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH5" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="FI5" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ5" s="2" t="n">
-        <v>1</v>
+      <c r="FJ5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="FR5" s="3" t="n">
         <v>0</v>
@@ -4161,59 +4161,59 @@
       <c r="GE5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="GF5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW5" s="3" t="n">
-        <v>0</v>
+      <c r="GF5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW5" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="GX5" s="4" t="inlineStr">
         <is>
@@ -4450,17 +4450,17 @@
       <c r="BV6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BW6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ6" s="2" t="n">
-        <v>1</v>
+      <c r="BW6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="CA6" s="3" t="n">
         <v>0</v>
@@ -4825,17 +4825,17 @@
       <c r="GO6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="GP6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS6" s="2" t="n">
-        <v>1</v>
+      <c r="GP6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="GT6" s="3" t="n">
         <v>0</v>
@@ -4863,29 +4863,29 @@
       <c r="A7" t="n">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1</v>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>1</v>
@@ -4962,26 +4962,26 @@
       <c r="AH7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AI7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="3" t="n">
-        <v>0</v>
+      <c r="AI7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AP7" s="4" t="inlineStr">
         <is>
@@ -5003,14 +5003,14 @@
       <c r="AU7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="2" t="n">
-        <v>1</v>
+      <c r="AV7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="AY7" s="2" t="n">
         <v>1</v>
@@ -5253,14 +5253,14 @@
       <c r="DY7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="DZ7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB7" s="2" t="n">
-        <v>1</v>
+      <c r="DZ7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB7" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="EC7" s="2" t="n">
         <v>1</v>
@@ -5363,26 +5363,26 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP7" s="3" t="n">
-        <v>0</v>
+      <c r="FJ7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="FQ7" s="2" t="n">
         <v>1</v>
@@ -5459,29 +5459,29 @@
       <c r="GO7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="GP7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW7" s="2" t="n">
-        <v>1</v>
+      <c r="GP7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW7" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="GX7" s="4" t="inlineStr">
         <is>
@@ -5581,41 +5581,41 @@
       <c r="AC8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AD8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="2" t="n">
-        <v>1</v>
+      <c r="AD8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="AP8" s="4" t="inlineStr">
         <is>
@@ -5706,41 +5706,41 @@
       <c r="BR8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="BS8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="3" t="n">
-        <v>0</v>
+      <c r="BS8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="CE8" s="4" t="inlineStr">
         <is>
@@ -6155,29 +6155,29 @@
       <c r="I9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>1</v>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="n">
         <v>0</v>
@@ -6280,29 +6280,29 @@
       <c r="AX9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AY9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF9" s="2" t="n">
-        <v>1</v>
+      <c r="AY9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="BG9" s="3" t="n">
         <v>0</v>
@@ -6506,29 +6506,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB9" s="3" t="n">
-        <v>0</v>
+      <c r="DU9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB9" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="EC9" s="3" t="n">
         <v>0</v>
@@ -6631,41 +6631,41 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU9" s="3" t="n">
-        <v>0</v>
+      <c r="FJ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU9" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="FV9" s="3" t="n">
         <v>0</v>
@@ -6890,29 +6890,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="3" t="n">
-        <v>0</v>
+      <c r="AQ10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AY10" s="3" t="n">
         <v>0</v>
@@ -6974,41 +6974,41 @@
       <c r="BR10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="BS10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD10" s="2" t="n">
-        <v>1</v>
+      <c r="BS10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="CE10" s="4" t="inlineStr">
         <is>
@@ -7069,71 +7069,71 @@
       <c r="CW10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="CX10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS10" s="3" t="n">
-        <v>0</v>
+      <c r="CX10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="DT10" s="4" t="inlineStr">
         <is>
@@ -7289,77 +7289,77 @@
       <c r="FQ10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="FR10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO10" s="2" t="n">
-        <v>1</v>
+      <c r="FR10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO10" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="GP10" s="2" t="n">
         <v>1</v>
@@ -7453,32 +7453,32 @@
       <c r="S11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="3" t="n">
-        <v>0</v>
+      <c r="T11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
         <v>0</v>
@@ -7575,38 +7575,38 @@
       <c r="BG11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="BH11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR11" s="3" t="n">
-        <v>0</v>
+      <c r="BH11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="BS11" s="3" t="n">
         <v>0</v>
@@ -7679,71 +7679,71 @@
       <c r="CO11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="CP11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK11" s="2" t="n">
-        <v>1</v>
+      <c r="CP11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK11" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="DL11" s="3" t="n">
         <v>0</v>
@@ -7798,14 +7798,14 @@
       <c r="EB11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="EC11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE11" s="3" t="n">
-        <v>0</v>
+      <c r="EC11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE11" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="EF11" s="2" t="n">
         <v>1</v>
@@ -7834,20 +7834,20 @@
       <c r="EN11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="EO11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES11" s="3" t="n">
-        <v>0</v>
+      <c r="EO11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES11" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="ET11" s="3" t="n">
         <v>0</v>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1726,68 +1726,68 @@
       <c r="L2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>1</v>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AH2" s="3" t="n">
         <v>1</v>
@@ -1842,8 +1842,8 @@
       <c r="AX2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AY2" s="3" t="n">
-        <v>1</v>
+      <c r="AY2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AZ2" s="2" t="n">
         <v>0</v>
@@ -1943,29 +1943,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="2" t="n">
-        <v>0</v>
+      <c r="CF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CN2" s="2" t="n">
         <v>0</v>
@@ -2164,29 +2164,29 @@
       <c r="EZ2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH2" s="2" t="n">
-        <v>0</v>
+      <c r="FA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI2" s="4" t="inlineStr">
         <is>
@@ -2289,29 +2289,29 @@
       <c r="GO2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" s="3" t="n">
-        <v>1</v>
+      <c r="GP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2351,14 +2351,14 @@
       <c r="I3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>1</v>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
@@ -2476,35 +2476,35 @@
       <c r="AX3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AY3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="2" t="n">
-        <v>0</v>
+      <c r="AY3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BI3" s="2" t="n">
         <v>0</v>
@@ -2577,29 +2577,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM3" s="3" t="n">
-        <v>1</v>
+      <c r="CF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CN3" s="2" t="n">
         <v>0</v>
@@ -2702,41 +2702,41 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" s="2" t="n">
-        <v>0</v>
+      <c r="DU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EG3" s="3" t="n">
         <v>1</v>
@@ -2759,32 +2759,32 @@
       <c r="EM3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV3" s="3" t="n">
-        <v>1</v>
+      <c r="EN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EW3" s="2" t="n">
         <v>0</v>
@@ -2827,62 +2827,62 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" s="2" t="n">
-        <v>0</v>
+      <c r="FJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GC3" s="2" t="n">
         <v>0</v>
@@ -3030,32 +3030,32 @@
       <c r="X4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Y4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>0</v>
+      <c r="Y4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AH4" s="3" t="n">
         <v>1</v>
@@ -3393,38 +3393,38 @@
       <c r="EM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX4" s="2" t="n">
-        <v>0</v>
+      <c r="EN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EY4" s="2" t="n">
         <v>0</v>
@@ -3432,29 +3432,29 @@
       <c r="EZ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH4" s="3" t="n">
-        <v>1</v>
+      <c r="FA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI4" s="4" t="inlineStr">
         <is>
@@ -3994,17 +3994,17 @@
       <c r="EB5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF5" s="3" t="n">
-        <v>1</v>
+      <c r="EC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EG5" s="2" t="n">
         <v>0</v>
@@ -4935,29 +4935,29 @@
       <c r="Y7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Z7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="2" t="n">
-        <v>0</v>
+      <c r="Z7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AH7" s="2" t="n">
         <v>0</v>
@@ -5956,41 +5956,41 @@
       <c r="EV8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EW8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH8" s="3" t="n">
-        <v>1</v>
+      <c r="EW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI8" s="4" t="inlineStr">
         <is>
@@ -6081,41 +6081,41 @@
       <c r="GK8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW8" s="2" t="n">
-        <v>0</v>
+      <c r="GL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX8" s="4" t="inlineStr">
         <is>
@@ -6256,29 +6256,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="2" t="n">
-        <v>0</v>
+      <c r="AQ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AY9" s="2" t="n">
         <v>0</v>
@@ -6631,53 +6631,53 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY9" s="3" t="n">
-        <v>1</v>
+      <c r="FJ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FZ9" s="2" t="n">
         <v>0</v>
@@ -6837,29 +6837,29 @@
       <c r="Y10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Z10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="3" t="n">
-        <v>1</v>
+      <c r="Z10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AH10" s="3" t="n">
         <v>1</v>
@@ -6890,29 +6890,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="3" t="n">
-        <v>1</v>
+      <c r="AQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AY10" s="2" t="n">
         <v>0</v>
@@ -7140,29 +7140,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB10" s="3" t="n">
-        <v>1</v>
+      <c r="DU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EC10" s="2" t="n">
         <v>0</v>
@@ -7230,35 +7230,35 @@
       <c r="EX10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EY10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH10" s="2" t="n">
-        <v>0</v>
+      <c r="EY10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI10" s="4" t="inlineStr">
         <is>
@@ -7423,50 +7423,50 @@
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>0</v>
+      <c r="J11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="Y11" s="2" t="n">
         <v>0</v>
@@ -7551,32 +7551,32 @@
       <c r="AY11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="3" t="n">
-        <v>1</v>
+      <c r="AZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BI11" s="3" t="n">
         <v>1</v>
@@ -7947,14 +7947,14 @@
       <c r="FY11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB11" s="3" t="n">
-        <v>1</v>
+      <c r="FZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GC11" s="3" t="n">
         <v>1</v>
@@ -7983,17 +7983,17 @@
       <c r="GK11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO11" s="3" t="n">
-        <v>1</v>
+      <c r="GL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GP11" s="2" t="n">
         <v>0</v>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1735,59 +1735,59 @@
       <c r="O2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>0</v>
+      <c r="P2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AH2" s="3" t="n">
         <v>1</v>
@@ -1818,29 +1818,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="3" t="n">
-        <v>1</v>
+      <c r="AQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AY2" s="2" t="n">
         <v>0</v>
@@ -1914,58 +1914,58 @@
       <c r="BV2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="2" t="n">
-        <v>0</v>
+      <c r="BW2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" s="3" t="n">
-        <v>1</v>
+      <c r="CF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CN2" s="2" t="n">
         <v>0</v>
@@ -2039,29 +2039,29 @@
       <c r="DK2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS2" s="2" t="n">
-        <v>0</v>
+      <c r="DL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT2" s="4" t="inlineStr">
         <is>
@@ -2164,29 +2164,29 @@
       <c r="EZ2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH2" s="3" t="n">
-        <v>1</v>
+      <c r="FA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI2" s="4" t="inlineStr">
         <is>
@@ -2289,29 +2289,29 @@
       <c r="GO2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW2" s="2" t="n">
-        <v>0</v>
+      <c r="GP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2351,23 +2351,23 @@
       <c r="I3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>0</v>
+      <c r="J3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P3" s="2" t="n">
         <v>0</v>
@@ -2476,35 +2476,35 @@
       <c r="AX3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="3" t="n">
-        <v>1</v>
+      <c r="AY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BI3" s="2" t="n">
         <v>0</v>
@@ -2601,29 +2601,29 @@
       <c r="CM3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="2" t="n">
-        <v>0</v>
+      <c r="CN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CV3" s="2" t="n">
         <v>0</v>
@@ -2729,35 +2729,35 @@
       <c r="EC3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="ED3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM3" s="3" t="n">
-        <v>1</v>
+      <c r="ED3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EN3" s="2" t="n">
         <v>0</v>
@@ -2851,38 +2851,38 @@
       <c r="FQ3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB3" s="3" t="n">
-        <v>1</v>
+      <c r="FR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GC3" s="2" t="n">
         <v>0</v>
@@ -3030,32 +3030,32 @@
       <c r="X4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Y4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="3" t="n">
-        <v>1</v>
+      <c r="Y4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AH4" s="3" t="n">
         <v>1</v>
@@ -3116,41 +3116,41 @@
       <c r="AZ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="2" t="n">
-        <v>0</v>
+      <c r="BA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BM4" s="2" t="n">
         <v>0</v>
@@ -3176,35 +3176,35 @@
       <c r="BT4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="3" t="n">
-        <v>1</v>
+      <c r="BU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE4" s="4" t="inlineStr">
         <is>
@@ -3259,47 +3259,47 @@
       <c r="CU4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI4" s="2" t="n">
-        <v>0</v>
+      <c r="CV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DJ4" s="2" t="n">
         <v>0</v>
@@ -3307,29 +3307,29 @@
       <c r="DK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS4" s="3" t="n">
-        <v>1</v>
+      <c r="DL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT4" s="4" t="inlineStr">
         <is>
@@ -3393,38 +3393,38 @@
       <c r="EM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX4" s="3" t="n">
-        <v>1</v>
+      <c r="EN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EY4" s="2" t="n">
         <v>0</v>
@@ -3432,29 +3432,29 @@
       <c r="EZ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH4" s="2" t="n">
-        <v>0</v>
+      <c r="FA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI4" s="4" t="inlineStr">
         <is>
@@ -3557,29 +3557,29 @@
       <c r="GO4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW4" s="2" t="n">
-        <v>0</v>
+      <c r="GP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX4" s="4" t="inlineStr">
         <is>
@@ -3786,35 +3786,35 @@
       <c r="BL5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="2" t="n">
-        <v>0</v>
+      <c r="BM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BW5" s="3" t="n">
         <v>1</v>
@@ -3893,47 +3893,47 @@
       <c r="CU5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CV5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI5" s="3" t="n">
-        <v>1</v>
+      <c r="CV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DJ5" s="3" t="n">
         <v>1</v>
@@ -3970,29 +3970,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB5" s="3" t="n">
-        <v>1</v>
+      <c r="DU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EC5" s="2" t="n">
         <v>0</v>
@@ -4066,58 +4066,58 @@
       <c r="EZ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" s="2" t="n">
-        <v>0</v>
+      <c r="FA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI5" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ5" s="3" t="n">
-        <v>1</v>
+      <c r="FJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FR5" s="2" t="n">
         <v>0</v>
@@ -4188,32 +4188,32 @@
       <c r="GN5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW5" s="2" t="n">
-        <v>0</v>
+      <c r="GO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX5" s="4" t="inlineStr">
         <is>
@@ -4863,29 +4863,29 @@
       <c r="A7" t="n">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>1</v>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>1</v>
@@ -4959,29 +4959,29 @@
       <c r="AG7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="2" t="n">
-        <v>0</v>
+      <c r="AH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP7" s="4" t="inlineStr">
         <is>
@@ -5238,29 +5238,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB7" s="2" t="n">
-        <v>0</v>
+      <c r="DU7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EC7" s="3" t="n">
         <v>1</v>
@@ -5334,58 +5334,58 @@
       <c r="EZ7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH7" s="3" t="n">
-        <v>1</v>
+      <c r="FA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI7" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ7" s="2" t="n">
-        <v>0</v>
+      <c r="FJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FR7" s="3" t="n">
         <v>1</v>
@@ -5459,29 +5459,29 @@
       <c r="GO7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GP7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW7" s="3" t="n">
-        <v>1</v>
+      <c r="GP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX7" s="4" t="inlineStr">
         <is>
@@ -5843,29 +5843,29 @@
       <c r="DK8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS8" s="2" t="n">
-        <v>0</v>
+      <c r="DL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT8" s="4" t="inlineStr">
         <is>
@@ -6081,41 +6081,41 @@
       <c r="GK8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GL8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW8" s="3" t="n">
-        <v>1</v>
+      <c r="GL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX8" s="4" t="inlineStr">
         <is>
@@ -6131,29 +6131,29 @@
       <c r="A9" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="n">
         <v>0</v>
@@ -6280,11 +6280,11 @@
       <c r="AX9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="2" t="n">
-        <v>0</v>
+      <c r="AY9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BA9" s="2" t="n">
         <v>0</v>
@@ -6405,29 +6405,29 @@
       <c r="CM9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CN9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU9" s="3" t="n">
-        <v>1</v>
+      <c r="CN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CV9" s="2" t="n">
         <v>0</v>
@@ -6631,29 +6631,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ9" s="3" t="n">
-        <v>1</v>
+      <c r="FJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FR9" s="2" t="n">
         <v>0</v>
@@ -6861,58 +6861,58 @@
       <c r="AG10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AH10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO10" s="3" t="n">
-        <v>1</v>
+      <c r="AH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AP10" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="2" t="n">
-        <v>0</v>
+      <c r="AQ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AY10" s="2" t="n">
         <v>0</v>
@@ -7015,29 +7015,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM10" s="2" t="n">
-        <v>0</v>
+      <c r="CF10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CN10" s="2" t="n">
         <v>0</v>
@@ -7111,29 +7111,29 @@
       <c r="DK10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DL10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS10" s="3" t="n">
-        <v>1</v>
+      <c r="DL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT10" s="4" t="inlineStr">
         <is>
@@ -7215,20 +7215,20 @@
       <c r="ES10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="ET10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX10" s="2" t="n">
-        <v>0</v>
+      <c r="ET10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EY10" s="3" t="n">
         <v>1</v>
@@ -7265,62 +7265,62 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB10" s="2" t="n">
-        <v>0</v>
+      <c r="FJ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GC10" s="2" t="n">
         <v>0</v>
@@ -7361,29 +7361,29 @@
       <c r="GO10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW10" s="3" t="n">
-        <v>1</v>
+      <c r="GP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX10" s="4" t="inlineStr">
         <is>
@@ -7423,50 +7423,50 @@
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="3" t="n">
-        <v>1</v>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="Y11" s="2" t="n">
         <v>0</v>
@@ -7578,41 +7578,41 @@
       <c r="BH11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BI11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT11" s="3" t="n">
-        <v>1</v>
+      <c r="BI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BU11" s="2" t="n">
         <v>0</v>
@@ -7801,53 +7801,53 @@
       <c r="EC11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="ED11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES11" s="2" t="n">
-        <v>0</v>
+      <c r="ED11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="ET11" s="2" t="n">
         <v>0</v>
@@ -7983,14 +7983,14 @@
       <c r="GK11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN11" s="2" t="n">
-        <v>0</v>
+      <c r="GL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GO11" s="2" t="n">
         <v>0</v>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1717,35 +1717,35 @@
       <c r="I2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>1</v>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="T2" s="2" t="n">
         <v>0</v>
@@ -1771,103 +1771,103 @@
       <c r="AA2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>0</v>
+      <c r="AB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="2" t="n">
-        <v>0</v>
+      <c r="AQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BH2" s="2" t="n">
         <v>0</v>
@@ -1905,94 +1905,94 @@
       <c r="BS2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" s="3" t="n">
-        <v>1</v>
+      <c r="BT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" s="3" t="n">
-        <v>1</v>
+      <c r="CF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CW2" s="2" t="n">
         <v>0</v>
@@ -2164,58 +2164,58 @@
       <c r="EZ2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH2" s="2" t="n">
-        <v>0</v>
+      <c r="FA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ2" s="3" t="n">
-        <v>1</v>
+      <c r="FJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FR2" s="2" t="n">
         <v>0</v>
@@ -2289,29 +2289,29 @@
       <c r="GO2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW2" s="2" t="n">
-        <v>0</v>
+      <c r="GP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2351,29 +2351,29 @@
       <c r="I3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>0</v>
+      <c r="J3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
@@ -2452,29 +2452,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="2" t="n">
-        <v>0</v>
+      <c r="AQ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AY3" s="2" t="n">
         <v>0</v>
@@ -2726,11 +2726,11 @@
       <c r="EB3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED3" s="3" t="n">
-        <v>1</v>
+      <c r="EC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EE3" s="2" t="n">
         <v>0</v>
@@ -2827,32 +2827,32 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" s="2" t="n">
-        <v>0</v>
+      <c r="FJ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FS3" s="3" t="n">
         <v>1</v>
@@ -2869,32 +2869,32 @@
       <c r="FW3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF3" s="3" t="n">
-        <v>1</v>
+      <c r="FX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GG3" s="2" t="n">
         <v>0</v>
@@ -3161,26 +3161,26 @@
       <c r="BO4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="2" t="n">
-        <v>0</v>
+      <c r="BP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BW4" s="3" t="n">
         <v>1</v>
@@ -3432,29 +3432,29 @@
       <c r="EZ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH4" s="3" t="n">
-        <v>1</v>
+      <c r="FA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI4" s="4" t="inlineStr">
         <is>
@@ -3557,29 +3557,29 @@
       <c r="GO4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW4" s="3" t="n">
-        <v>1</v>
+      <c r="GP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX4" s="4" t="inlineStr">
         <is>
@@ -3720,65 +3720,65 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ5" s="3" t="n">
-        <v>1</v>
+      <c r="AQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BK5" s="2" t="n">
         <v>0</v>
@@ -3896,50 +3896,50 @@
       <c r="CV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK5" s="2" t="n">
-        <v>0</v>
+      <c r="CW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DL5" s="3" t="n">
         <v>1</v>
@@ -4060,11 +4060,11 @@
       <c r="EX5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ5" s="3" t="n">
-        <v>1</v>
+      <c r="EY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FA5" s="3" t="n">
         <v>1</v>
@@ -4137,32 +4137,32 @@
       <c r="FW5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF5" s="2" t="n">
-        <v>0</v>
+      <c r="FX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GG5" s="3" t="n">
         <v>1</v>
@@ -4863,29 +4863,29 @@
       <c r="A7" t="n">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
+      <c r="B7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>1</v>
@@ -4959,58 +4959,58 @@
       <c r="AG7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AH7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="3" t="n">
-        <v>1</v>
+      <c r="AH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AP7" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="3" t="n">
-        <v>1</v>
+      <c r="AQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AY7" s="3" t="n">
         <v>1</v>
@@ -5084,29 +5084,29 @@
       <c r="BV7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="2" t="n">
-        <v>0</v>
+      <c r="BW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE7" s="4" t="inlineStr">
         <is>
@@ -5718,29 +5718,29 @@
       <c r="BV8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="2" t="n">
-        <v>0</v>
+      <c r="BW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE8" s="4" t="inlineStr">
         <is>
@@ -6093,29 +6093,29 @@
       <c r="GO8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW8" s="3" t="n">
-        <v>1</v>
+      <c r="GP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX8" s="4" t="inlineStr">
         <is>
@@ -6131,29 +6131,29 @@
       <c r="A9" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>1</v>
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
         <v>0</v>
@@ -6381,32 +6381,32 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="2" t="n">
-        <v>0</v>
+      <c r="CF9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CO9" s="2" t="n">
         <v>0</v>
@@ -6506,29 +6506,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB9" s="3" t="n">
-        <v>1</v>
+      <c r="DU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EC9" s="2" t="n">
         <v>0</v>
@@ -6631,29 +6631,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ9" s="2" t="n">
-        <v>0</v>
+      <c r="FJ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FR9" s="2" t="n">
         <v>0</v>
@@ -6849,17 +6849,17 @@
       <c r="AC10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AD10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="3" t="n">
-        <v>1</v>
+      <c r="AD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AH10" s="3" t="n">
         <v>1</v>
@@ -6986,29 +6986,29 @@
       <c r="BV10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD10" s="3" t="n">
-        <v>1</v>
+      <c r="BW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE10" s="4" t="inlineStr">
         <is>
@@ -7066,50 +7066,50 @@
       <c r="CV10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CW10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK10" s="3" t="n">
-        <v>1</v>
+      <c r="CW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DL10" s="3" t="n">
         <v>1</v>
@@ -7140,50 +7140,50 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI10" s="2" t="n">
-        <v>0</v>
+      <c r="DU10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EJ10" s="2" t="n">
         <v>0</v>
@@ -7265,32 +7265,32 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR10" s="3" t="n">
-        <v>1</v>
+      <c r="FJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FS10" s="2" t="n">
         <v>0</v>
@@ -7361,29 +7361,29 @@
       <c r="GO10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW10" s="2" t="n">
-        <v>0</v>
+      <c r="GP10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX10" s="4" t="inlineStr">
         <is>
@@ -7447,11 +7447,11 @@
       <c r="Q11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>0</v>
+      <c r="R11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="T11" s="3" t="n">
         <v>1</v>
@@ -7477,11 +7477,11 @@
       <c r="AA11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="3" t="n">
-        <v>1</v>
+      <c r="AB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AD11" s="2" t="n">
         <v>0</v>
@@ -7575,14 +7575,14 @@
       <c r="BG11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="2" t="n">
-        <v>0</v>
+      <c r="BH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BK11" s="3" t="n">
         <v>1</v>
@@ -7599,17 +7599,17 @@
       <c r="BO11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS11" s="3" t="n">
-        <v>1</v>
+      <c r="BP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BT11" s="2" t="n">
         <v>0</v>
@@ -7676,29 +7676,29 @@
       <c r="CN11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV11" s="2" t="n">
-        <v>0</v>
+      <c r="CO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CW11" s="2" t="n">
         <v>0</v>
@@ -7804,20 +7804,20 @@
       <c r="ED11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI11" s="3" t="n">
-        <v>1</v>
+      <c r="EE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EJ11" s="3" t="n">
         <v>1</v>
@@ -7864,11 +7864,11 @@
       <c r="EX11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ11" s="2" t="n">
-        <v>0</v>
+      <c r="EY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FA11" s="2" t="n">
         <v>0</v>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1717,59 +1717,59 @@
       <c r="I2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2" t="n">
-        <v>0</v>
+      <c r="J2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AB2" s="3" t="n">
         <v>1</v>
@@ -1818,56 +1818,56 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" s="3" t="n">
-        <v>1</v>
+      <c r="AQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BH2" s="2" t="n">
         <v>0</v>
@@ -1914,29 +1914,29 @@
       <c r="BV2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="2" t="n">
-        <v>0</v>
+      <c r="BW2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE2" s="4" t="inlineStr">
         <is>
@@ -2164,29 +2164,29 @@
       <c r="EZ2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH2" s="3" t="n">
-        <v>1</v>
+      <c r="FA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI2" s="4" t="inlineStr">
         <is>
@@ -2351,29 +2351,29 @@
       <c r="I3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>1</v>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
@@ -2476,32 +2476,32 @@
       <c r="AX3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AY3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="2" t="n">
-        <v>0</v>
+      <c r="AY3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BH3" s="2" t="n">
         <v>0</v>
@@ -2577,29 +2577,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="2" t="n">
-        <v>0</v>
+      <c r="CF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CN3" s="2" t="n">
         <v>0</v>
@@ -2827,47 +2827,47 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW3" s="3" t="n">
-        <v>1</v>
+      <c r="FJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FX3" s="2" t="n">
         <v>0</v>
@@ -3161,50 +3161,50 @@
       <c r="BO4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="3" t="n">
-        <v>1</v>
+      <c r="BP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE4" s="4" t="inlineStr">
         <is>
@@ -3286,26 +3286,26 @@
       <c r="DD4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK4" s="2" t="n">
-        <v>0</v>
+      <c r="DE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DL4" s="3" t="n">
         <v>1</v>
@@ -3432,29 +3432,29 @@
       <c r="EZ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH4" s="2" t="n">
-        <v>0</v>
+      <c r="FA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI4" s="4" t="inlineStr">
         <is>
@@ -3551,35 +3551,35 @@
       <c r="GM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW4" s="2" t="n">
-        <v>0</v>
+      <c r="GN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX4" s="4" t="inlineStr">
         <is>
@@ -3816,29 +3816,29 @@
       <c r="BV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="2" t="n">
-        <v>0</v>
+      <c r="BW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE5" s="4" t="inlineStr">
         <is>
@@ -3896,74 +3896,74 @@
       <c r="CV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS5" s="3" t="n">
-        <v>1</v>
+      <c r="CW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT5" s="4" t="inlineStr">
         <is>
@@ -4063,8 +4063,8 @@
       <c r="EY5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EZ5" s="2" t="n">
-        <v>0</v>
+      <c r="EZ5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FA5" s="3" t="n">
         <v>1</v>
@@ -4095,47 +4095,47 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW5" s="2" t="n">
-        <v>0</v>
+      <c r="FJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FX5" s="3" t="n">
         <v>1</v>
@@ -4185,11 +4185,11 @@
       <c r="GM5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO5" s="3" t="n">
-        <v>1</v>
+      <c r="GN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GP5" s="2" t="n">
         <v>0</v>
@@ -4988,29 +4988,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="2" t="n">
-        <v>0</v>
+      <c r="AQ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AY7" s="3" t="n">
         <v>1</v>
@@ -5084,58 +5084,58 @@
       <c r="BV7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BW7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD7" s="3" t="n">
-        <v>1</v>
+      <c r="BW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE7" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM7" s="3" t="n">
-        <v>1</v>
+      <c r="CF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CN7" s="3" t="n">
         <v>1</v>
@@ -5209,29 +5209,29 @@
       <c r="DK7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS7" s="2" t="n">
-        <v>0</v>
+      <c r="DL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT7" s="4" t="inlineStr">
         <is>
@@ -5712,11 +5712,11 @@
       <c r="BT8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="2" t="n">
-        <v>0</v>
+      <c r="BU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BW8" s="3" t="n">
         <v>1</v>
@@ -6408,23 +6408,23 @@
       <c r="CN9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT9" s="2" t="n">
-        <v>0</v>
+      <c r="CO9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CU9" s="2" t="n">
         <v>0</v>
@@ -7185,29 +7185,29 @@
       <c r="EI10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EJ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ10" s="2" t="n">
-        <v>0</v>
+      <c r="EJ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="ER10" s="2" t="n">
         <v>0</v>
@@ -7361,29 +7361,29 @@
       <c r="GO10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW10" s="3" t="n">
-        <v>1</v>
+      <c r="GP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX10" s="4" t="inlineStr">
         <is>
@@ -7447,35 +7447,35 @@
       <c r="Q11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="3" t="n">
-        <v>1</v>
+      <c r="R11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AB11" s="2" t="n">
         <v>0</v>
@@ -7599,20 +7599,20 @@
       <c r="BO11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT11" s="2" t="n">
-        <v>0</v>
+      <c r="BP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BU11" s="2" t="n">
         <v>0</v>
@@ -7676,23 +7676,23 @@
       <c r="CN11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT11" s="3" t="n">
-        <v>1</v>
+      <c r="CO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CU11" s="3" t="n">
         <v>1</v>
@@ -7700,29 +7700,29 @@
       <c r="CV11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD11" s="2" t="n">
-        <v>0</v>
+      <c r="CW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DE11" s="2" t="n">
         <v>0</v>
@@ -7819,29 +7819,29 @@
       <c r="EI11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ11" s="3" t="n">
-        <v>1</v>
+      <c r="EJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="ER11" s="3" t="n">
         <v>1</v>
@@ -7867,8 +7867,8 @@
       <c r="EY11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EZ11" s="3" t="n">
-        <v>1</v>
+      <c r="EZ11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FA11" s="2" t="n">
         <v>0</v>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1717,59 +1717,59 @@
       <c r="I2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>1</v>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AB2" s="3" t="n">
         <v>1</v>
@@ -1818,56 +1818,56 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="2" t="n">
-        <v>0</v>
+      <c r="AQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BH2" s="2" t="n">
         <v>0</v>
@@ -1914,29 +1914,29 @@
       <c r="BV2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" s="3" t="n">
-        <v>1</v>
+      <c r="BW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE2" s="4" t="inlineStr">
         <is>
@@ -2164,29 +2164,29 @@
       <c r="EZ2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH2" s="2" t="n">
-        <v>0</v>
+      <c r="FA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI2" s="4" t="inlineStr">
         <is>
@@ -2351,29 +2351,29 @@
       <c r="I3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>0</v>
+      <c r="J3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
@@ -2476,32 +2476,32 @@
       <c r="AX3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG3" s="3" t="n">
-        <v>1</v>
+      <c r="AY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BH3" s="2" t="n">
         <v>0</v>
@@ -2577,29 +2577,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM3" s="3" t="n">
-        <v>1</v>
+      <c r="CF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CN3" s="2" t="n">
         <v>0</v>
@@ -2827,47 +2827,47 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" s="2" t="n">
-        <v>0</v>
+      <c r="FJ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FX3" s="2" t="n">
         <v>0</v>
@@ -3161,50 +3161,50 @@
       <c r="BO4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="2" t="n">
-        <v>0</v>
+      <c r="BP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE4" s="4" t="inlineStr">
         <is>
@@ -3286,26 +3286,26 @@
       <c r="DD4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK4" s="3" t="n">
-        <v>1</v>
+      <c r="DE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DL4" s="3" t="n">
         <v>1</v>
@@ -3432,29 +3432,29 @@
       <c r="EZ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH4" s="3" t="n">
-        <v>1</v>
+      <c r="FA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI4" s="4" t="inlineStr">
         <is>
@@ -3551,35 +3551,35 @@
       <c r="GM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW4" s="3" t="n">
-        <v>1</v>
+      <c r="GN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX4" s="4" t="inlineStr">
         <is>
@@ -3816,29 +3816,29 @@
       <c r="BV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD5" s="3" t="n">
-        <v>1</v>
+      <c r="BW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE5" s="4" t="inlineStr">
         <is>
@@ -3896,74 +3896,74 @@
       <c r="CV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS5" s="2" t="n">
-        <v>0</v>
+      <c r="CW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT5" s="4" t="inlineStr">
         <is>
@@ -4063,8 +4063,8 @@
       <c r="EY5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EZ5" s="3" t="n">
-        <v>1</v>
+      <c r="EZ5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FA5" s="3" t="n">
         <v>1</v>
@@ -4095,47 +4095,47 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW5" s="3" t="n">
-        <v>1</v>
+      <c r="FJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FX5" s="3" t="n">
         <v>1</v>
@@ -4185,11 +4185,11 @@
       <c r="GM5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO5" s="2" t="n">
-        <v>0</v>
+      <c r="GN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GP5" s="2" t="n">
         <v>0</v>
@@ -4988,29 +4988,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="3" t="n">
-        <v>1</v>
+      <c r="AQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AY7" s="3" t="n">
         <v>1</v>
@@ -5084,58 +5084,58 @@
       <c r="BV7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="2" t="n">
-        <v>0</v>
+      <c r="BW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE7" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="2" t="n">
-        <v>0</v>
+      <c r="CF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CN7" s="3" t="n">
         <v>1</v>
@@ -5209,29 +5209,29 @@
       <c r="DK7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DL7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS7" s="3" t="n">
-        <v>1</v>
+      <c r="DL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT7" s="4" t="inlineStr">
         <is>
@@ -5712,11 +5712,11 @@
       <c r="BT8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV8" s="3" t="n">
-        <v>1</v>
+      <c r="BU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BW8" s="3" t="n">
         <v>1</v>
@@ -6408,23 +6408,23 @@
       <c r="CN9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CO9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT9" s="3" t="n">
-        <v>1</v>
+      <c r="CO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CU9" s="2" t="n">
         <v>0</v>
@@ -7185,29 +7185,29 @@
       <c r="EI10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EJ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ10" s="3" t="n">
-        <v>1</v>
+      <c r="EJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="ER10" s="2" t="n">
         <v>0</v>
@@ -7361,29 +7361,29 @@
       <c r="GO10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW10" s="2" t="n">
-        <v>0</v>
+      <c r="GP10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX10" s="4" t="inlineStr">
         <is>
@@ -7447,35 +7447,35 @@
       <c r="Q11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2" t="n">
-        <v>0</v>
+      <c r="R11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AB11" s="2" t="n">
         <v>0</v>
@@ -7599,20 +7599,20 @@
       <c r="BO11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT11" s="3" t="n">
-        <v>1</v>
+      <c r="BP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BU11" s="2" t="n">
         <v>0</v>
@@ -7676,23 +7676,23 @@
       <c r="CN11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT11" s="2" t="n">
-        <v>0</v>
+      <c r="CO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CU11" s="3" t="n">
         <v>1</v>
@@ -7700,29 +7700,29 @@
       <c r="CV11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD11" s="3" t="n">
-        <v>1</v>
+      <c r="CW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DE11" s="2" t="n">
         <v>0</v>
@@ -7819,29 +7819,29 @@
       <c r="EI11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ11" s="2" t="n">
-        <v>0</v>
+      <c r="EJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="ER11" s="3" t="n">
         <v>1</v>
@@ -7867,8 +7867,8 @@
       <c r="EY11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EZ11" s="2" t="n">
-        <v>0</v>
+      <c r="EZ11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FA11" s="2" t="n">
         <v>0</v>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1759,59 +1759,59 @@
       <c r="W2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="X2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2" t="n">
-        <v>0</v>
+      <c r="X2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AA2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="3" t="n">
-        <v>1</v>
+      <c r="AB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AP2" s="4" t="inlineStr">
         <is>
@@ -1869,11 +1869,11 @@
       <c r="BG2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="2" t="n">
-        <v>0</v>
+      <c r="BH2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BJ2" s="2" t="n">
         <v>0</v>
@@ -2054,14 +2054,14 @@
       <c r="DP2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS2" s="2" t="n">
-        <v>0</v>
+      <c r="DQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT2" s="4" t="inlineStr">
         <is>
@@ -2164,46 +2164,46 @@
       <c r="EZ2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH2" s="3" t="n">
-        <v>1</v>
+      <c r="FA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" s="2" t="n">
-        <v>0</v>
+      <c r="FJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FN2" s="2" t="n">
         <v>0</v>
@@ -2289,29 +2289,29 @@
       <c r="GO2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" s="3" t="n">
-        <v>1</v>
+      <c r="GP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2375,23 +2375,23 @@
       <c r="Q3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>0</v>
+      <c r="R3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="X3" s="2" t="n">
         <v>0</v>
@@ -2458,23 +2458,23 @@
       <c r="AR3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="3" t="n">
-        <v>1</v>
+      <c r="AS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AY3" s="2" t="n">
         <v>0</v>
@@ -2726,44 +2726,44 @@
       <c r="EB3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO3" s="2" t="n">
-        <v>0</v>
+      <c r="EC3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EP3" s="2" t="n">
         <v>0</v>
@@ -2827,47 +2827,47 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW3" s="3" t="n">
-        <v>1</v>
+      <c r="FJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FX3" s="2" t="n">
         <v>0</v>
@@ -3036,26 +3036,26 @@
       <c r="Z4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>0</v>
+      <c r="AA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AH4" s="3" t="n">
         <v>1</v>
@@ -3078,8 +3078,8 @@
       <c r="AN4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AO4" s="3" t="n">
-        <v>1</v>
+      <c r="AO4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AP4" s="4" t="inlineStr">
         <is>
@@ -3161,26 +3161,26 @@
       <c r="BO4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV4" s="3" t="n">
-        <v>1</v>
+      <c r="BP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BW4" s="3" t="n">
         <v>1</v>
@@ -3188,23 +3188,23 @@
       <c r="BX4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="3" t="n">
-        <v>1</v>
+      <c r="BY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE4" s="4" t="inlineStr">
         <is>
@@ -3277,35 +3277,35 @@
       <c r="DA4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK4" s="2" t="n">
-        <v>0</v>
+      <c r="DB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DL4" s="3" t="n">
         <v>1</v>
@@ -3473,23 +3473,23 @@
       <c r="FM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS4" s="2" t="n">
-        <v>0</v>
+      <c r="FN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FT4" s="2" t="n">
         <v>0</v>
@@ -3822,23 +3822,23 @@
       <c r="BX5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="2" t="n">
-        <v>0</v>
+      <c r="BY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE5" s="4" t="inlineStr">
         <is>
@@ -3896,44 +3896,44 @@
       <c r="CV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI5" s="3" t="n">
-        <v>1</v>
+      <c r="CW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DJ5" s="3" t="n">
         <v>1</v>
@@ -3956,14 +3956,14 @@
       <c r="DP5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS5" s="3" t="n">
-        <v>1</v>
+      <c r="DQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT5" s="4" t="inlineStr">
         <is>
@@ -4066,20 +4066,20 @@
       <c r="EZ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE5" s="3" t="n">
-        <v>1</v>
+      <c r="FA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FF5" s="3" t="n">
         <v>1</v>
@@ -4137,14 +4137,14 @@
       <c r="FW5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ5" s="3" t="n">
-        <v>1</v>
+      <c r="FX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GA5" s="3" t="n">
         <v>1</v>
@@ -4191,29 +4191,29 @@
       <c r="GO5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW5" s="2" t="n">
-        <v>0</v>
+      <c r="GP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX5" s="4" t="inlineStr">
         <is>
@@ -4325,17 +4325,17 @@
       <c r="AG6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AH6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>0</v>
+      <c r="AH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AL6" s="2" t="n">
         <v>0</v>
@@ -4450,17 +4450,17 @@
       <c r="BV6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BW6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="2" t="n">
-        <v>0</v>
+      <c r="BW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CA6" s="2" t="n">
         <v>0</v>
@@ -4551,29 +4551,29 @@
       <c r="DC6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DD6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK6" s="3" t="n">
-        <v>1</v>
+      <c r="DD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DL6" s="2" t="n">
         <v>0</v>
@@ -4700,17 +4700,17 @@
       <c r="EZ6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FA6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD6" s="2" t="n">
-        <v>0</v>
+      <c r="FA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FE6" s="2" t="n">
         <v>0</v>
@@ -4825,17 +4825,17 @@
       <c r="GO6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GP6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS6" s="2" t="n">
-        <v>0</v>
+      <c r="GP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GT6" s="2" t="n">
         <v>0</v>
@@ -4959,29 +4959,29 @@
       <c r="AG7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="2" t="n">
-        <v>0</v>
+      <c r="AH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP7" s="4" t="inlineStr">
         <is>
@@ -5012,32 +5012,32 @@
       <c r="AX7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AY7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="3" t="n">
-        <v>1</v>
+      <c r="AY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BH7" s="3" t="n">
         <v>1</v>
@@ -5179,35 +5179,35 @@
       <c r="DA7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK7" s="3" t="n">
-        <v>1</v>
+      <c r="DB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DL7" s="2" t="n">
         <v>0</v>
@@ -5238,29 +5238,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB7" s="2" t="n">
-        <v>0</v>
+      <c r="DU7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EC7" s="3" t="n">
         <v>1</v>
@@ -5363,29 +5363,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ7" s="2" t="n">
-        <v>0</v>
+      <c r="FJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FR7" s="3" t="n">
         <v>1</v>
@@ -5614,8 +5614,8 @@
       <c r="AN8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" s="2" t="n">
-        <v>0</v>
+      <c r="AO8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP8" s="4" t="inlineStr">
         <is>
@@ -5718,17 +5718,17 @@
       <c r="BV8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ8" s="3" t="n">
-        <v>1</v>
+      <c r="BW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CA8" s="3" t="n">
         <v>1</v>
@@ -5980,8 +5980,8 @@
       <c r="FD8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FE8" s="2" t="n">
-        <v>0</v>
+      <c r="FE8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FF8" s="2" t="n">
         <v>0</v>
@@ -6105,17 +6105,17 @@
       <c r="GS8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW8" s="2" t="n">
-        <v>0</v>
+      <c r="GT8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX8" s="4" t="inlineStr">
         <is>
@@ -6262,29 +6262,29 @@
       <c r="AR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="2" t="n">
-        <v>0</v>
+      <c r="AS9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BA9" s="2" t="n">
         <v>0</v>
@@ -6405,8 +6405,8 @@
       <c r="CM9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CN9" s="3" t="n">
-        <v>1</v>
+      <c r="CN9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CO9" s="2" t="n">
         <v>0</v>
@@ -6631,29 +6631,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ9" s="3" t="n">
-        <v>1</v>
+      <c r="FJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FR9" s="2" t="n">
         <v>0</v>
@@ -6861,17 +6861,17 @@
       <c r="AG10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AH10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="3" t="n">
-        <v>1</v>
+      <c r="AH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AL10" s="3" t="n">
         <v>1</v>
@@ -6920,8 +6920,8 @@
       <c r="AZ10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BA10" s="2" t="n">
-        <v>0</v>
+      <c r="BA10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BB10" s="2" t="n">
         <v>0</v>
@@ -7087,29 +7087,29 @@
       <c r="DC10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DD10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK10" s="2" t="n">
-        <v>0</v>
+      <c r="DD10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DL10" s="3" t="n">
         <v>1</v>
@@ -7140,50 +7140,50 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI10" s="3" t="n">
-        <v>1</v>
+      <c r="DU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EJ10" s="2" t="n">
         <v>0</v>
@@ -7203,62 +7203,62 @@
       <c r="EO10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EP10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH10" s="2" t="n">
-        <v>0</v>
+      <c r="EP10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI10" s="4" t="inlineStr">
         <is>
@@ -7295,26 +7295,26 @@
       <c r="FS10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FT10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ10" s="2" t="n">
-        <v>0</v>
+      <c r="FT10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GA10" s="2" t="n">
         <v>0</v>
@@ -7361,29 +7361,29 @@
       <c r="GO10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW10" s="3" t="n">
-        <v>1</v>
+      <c r="GP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX10" s="4" t="inlineStr">
         <is>
@@ -7447,35 +7447,35 @@
       <c r="Q11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="3" t="n">
-        <v>1</v>
+      <c r="R11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AB11" s="2" t="n">
         <v>0</v>
@@ -7557,23 +7557,23 @@
       <c r="BA11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG11" s="2" t="n">
-        <v>0</v>
+      <c r="BB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BH11" s="3" t="n">
         <v>1</v>
@@ -7599,26 +7599,26 @@
       <c r="BO11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV11" s="2" t="n">
-        <v>0</v>
+      <c r="BP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BW11" s="2" t="n">
         <v>0</v>
@@ -7673,8 +7673,8 @@
       <c r="CM11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CN11" s="2" t="n">
-        <v>0</v>
+      <c r="CN11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CO11" s="3" t="n">
         <v>1</v>
@@ -7700,44 +7700,44 @@
       <c r="CV11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI11" s="2" t="n">
-        <v>0</v>
+      <c r="CW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DJ11" s="2" t="n">
         <v>0</v>
@@ -7819,56 +7819,56 @@
       <c r="EI11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ11" s="3" t="n">
-        <v>1</v>
+      <c r="EJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FA11" s="2" t="n">
         <v>0</v>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1691,7 +1691,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
@@ -1741,23 +1741,23 @@
       <c r="Q2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>0</v>
+      <c r="R2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="X2" s="3" t="n">
         <v>1</v>
@@ -1768,112 +1768,112 @@
       <c r="Z2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>0</v>
+      <c r="AA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="3" t="n">
-        <v>1</v>
+      <c r="AQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BJ2" s="2" t="n">
         <v>0</v>
@@ -1920,23 +1920,23 @@
       <c r="BX2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="2" t="n">
-        <v>0</v>
+      <c r="BY2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE2" s="4" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
       <c r="DP2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" s="3" t="n">
-        <v>1</v>
+      <c r="DQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT2" s="4" t="inlineStr">
         <is>
@@ -2193,17 +2193,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" s="3" t="n">
-        <v>1</v>
+      <c r="FJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FN2" s="2" t="n">
         <v>0</v>
@@ -2289,29 +2289,29 @@
       <c r="GO2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW2" s="2" t="n">
-        <v>0</v>
+      <c r="GP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2319,13 +2319,13 @@
         </is>
       </c>
       <c r="GY2" s="4">
-        <f>SUM(B2:GX2)/4</f>
+        <f>SUM(B2:GX2)</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
@@ -2351,47 +2351,47 @@
       <c r="I3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>1</v>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="X3" s="2" t="n">
         <v>0</v>
@@ -2458,38 +2458,38 @@
       <c r="AR3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="2" t="n">
-        <v>0</v>
+      <c r="AS3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BD3" s="2" t="n">
         <v>0</v>
@@ -2577,47 +2577,47 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" s="2" t="n">
-        <v>0</v>
+      <c r="CF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CT3" s="2" t="n">
         <v>0</v>
@@ -2702,68 +2702,68 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO3" s="3" t="n">
-        <v>1</v>
+      <c r="DU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EP3" s="2" t="n">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         </is>
       </c>
       <c r="GY3" s="4">
-        <f>SUM(B3:GX3)/4</f>
+        <f>SUM(B3:GX3)</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0</v>
@@ -3036,38 +3036,38 @@
       <c r="Z4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="3" t="n">
-        <v>1</v>
+      <c r="AA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AL4" s="3" t="n">
         <v>1</v>
@@ -3182,11 +3182,11 @@
       <c r="BV4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="3" t="n">
-        <v>1</v>
+      <c r="BW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BY4" s="2" t="n">
         <v>0</v>
@@ -3277,20 +3277,20 @@
       <c r="DA4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF4" s="3" t="n">
-        <v>1</v>
+      <c r="DB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DG4" s="3" t="n">
         <v>1</v>
@@ -3438,23 +3438,23 @@
       <c r="FB4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH4" s="2" t="n">
-        <v>0</v>
+      <c r="FC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI4" s="4" t="inlineStr">
         <is>
@@ -3473,23 +3473,23 @@
       <c r="FM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS4" s="3" t="n">
-        <v>1</v>
+      <c r="FN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FT4" s="2" t="n">
         <v>0</v>
@@ -3554,32 +3554,32 @@
       <c r="GN4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW4" s="2" t="n">
-        <v>0</v>
+      <c r="GO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX4" s="4" t="inlineStr">
         <is>
@@ -3587,13 +3587,13 @@
         </is>
       </c>
       <c r="GY4" s="4">
-        <f>SUM(B4:GX4)/4</f>
+        <f>SUM(B4:GX4)</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0</v>
@@ -3759,59 +3759,59 @@
       <c r="BC5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="2" t="n">
-        <v>0</v>
+      <c r="BD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BV5" s="2" t="n">
         <v>0</v>
@@ -3822,109 +3822,109 @@
       <c r="BX5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD5" s="3" t="n">
-        <v>1</v>
+      <c r="BY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE5" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF5" s="2" t="n">
-        <v>0</v>
+      <c r="CF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DG5" s="2" t="n">
         <v>0</v>
@@ -3935,26 +3935,26 @@
       <c r="DI5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP5" s="3" t="n">
-        <v>1</v>
+      <c r="DJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DQ5" s="2" t="n">
         <v>0</v>
@@ -4078,8 +4078,8 @@
       <c r="FD5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FE5" s="2" t="n">
-        <v>0</v>
+      <c r="FE5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FF5" s="3" t="n">
         <v>1</v>
@@ -4095,8 +4095,8 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ5" s="2" t="n">
-        <v>0</v>
+      <c r="FJ5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FK5" s="2" t="n">
         <v>0</v>
@@ -4146,74 +4146,74 @@
       <c r="FZ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW5" s="3" t="n">
-        <v>1</v>
+      <c r="GA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX5" s="4" t="inlineStr">
         <is>
@@ -4221,13 +4221,13 @@
         </is>
       </c>
       <c r="GY5" s="4">
-        <f>SUM(B5:GX5)/4</f>
+        <f>SUM(B5:GX5)</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>1</v>
@@ -4456,11 +4456,11 @@
       <c r="BX6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BY6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ6" s="3" t="n">
-        <v>1</v>
+      <c r="BY6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CA6" s="2" t="n">
         <v>0</v>
@@ -4551,26 +4551,26 @@
       <c r="DC6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DD6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ6" s="2" t="n">
-        <v>0</v>
+      <c r="DD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DK6" s="2" t="n">
         <v>0</v>
@@ -4822,20 +4822,20 @@
       <c r="GN6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GO6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS6" s="3" t="n">
-        <v>1</v>
+      <c r="GO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GT6" s="2" t="n">
         <v>0</v>
@@ -4855,37 +4855,37 @@
         </is>
       </c>
       <c r="GY6" s="4">
-        <f>SUM(B6:GX6)/4</f>
+        <f>SUM(B6:GX6)</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>1</v>
@@ -4911,77 +4911,77 @@
       <c r="Q7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="3" t="n">
-        <v>1</v>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AP7" s="4" t="inlineStr">
         <is>
@@ -5039,145 +5039,145 @@
       <c r="BG7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BH7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD7" s="3" t="n">
-        <v>1</v>
+      <c r="BH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE7" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA7" s="3" t="n">
-        <v>1</v>
+      <c r="CF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DB7" s="2" t="n">
         <v>0</v>
@@ -5238,32 +5238,32 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC7" s="3" t="n">
-        <v>1</v>
+      <c r="DU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="ED7" s="3" t="n">
         <v>1</v>
@@ -5334,154 +5334,154 @@
       <c r="EZ7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH7" s="3" t="n">
-        <v>1</v>
+      <c r="FA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI7" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW7" s="3" t="n">
-        <v>1</v>
+      <c r="FJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX7" s="4" t="inlineStr">
         <is>
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="GY7" s="4">
-        <f>SUM(B7:GX7)/4</f>
+        <f>SUM(B7:GX7)</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0</v>
@@ -5614,25 +5614,25 @@
       <c r="AN8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" s="3" t="n">
-        <v>1</v>
+      <c r="AO8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AP8" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="2" t="n">
-        <v>0</v>
+      <c r="AQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AU8" s="2" t="n">
         <v>0</v>
@@ -5730,17 +5730,17 @@
       <c r="BZ8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CA8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="3" t="n">
-        <v>1</v>
+      <c r="CA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE8" s="4" t="inlineStr">
         <is>
@@ -5840,32 +5840,32 @@
       <c r="DJ8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS8" s="2" t="n">
-        <v>0</v>
+      <c r="DK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT8" s="4" t="inlineStr">
         <is>
@@ -5968,29 +5968,29 @@
       <c r="EZ8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD8" s="2" t="n">
-        <v>0</v>
+      <c r="FA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FE8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH8" s="2" t="n">
-        <v>0</v>
+      <c r="FF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI8" s="4" t="inlineStr">
         <is>
@@ -6000,98 +6000,98 @@
       <c r="FJ8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO8" s="2" t="n">
-        <v>0</v>
+      <c r="FK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GP8" s="2" t="n">
         <v>0</v>
@@ -6105,17 +6105,17 @@
       <c r="GS8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GT8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW8" s="3" t="n">
-        <v>1</v>
+      <c r="GT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX8" s="4" t="inlineStr">
         <is>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="GY8" s="4">
-        <f>SUM(B8:GX8)/4</f>
+        <f>SUM(B8:GX8)</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0</v>
@@ -6262,29 +6262,29 @@
       <c r="AR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ9" s="3" t="n">
-        <v>1</v>
+      <c r="AS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BA9" s="2" t="n">
         <v>0</v>
@@ -6381,29 +6381,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM9" s="3" t="n">
-        <v>1</v>
+      <c r="CF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CN9" s="2" t="n">
         <v>0</v>
@@ -6506,32 +6506,32 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC9" s="2" t="n">
-        <v>0</v>
+      <c r="DU9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="ED9" s="2" t="n">
         <v>0</v>
@@ -6631,26 +6631,26 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP9" s="2" t="n">
-        <v>0</v>
+      <c r="FJ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FQ9" s="2" t="n">
         <v>0</v>
@@ -6757,13 +6757,13 @@
         </is>
       </c>
       <c r="GY9" s="4">
-        <f>SUM(B9:GX9)/4</f>
+        <f>SUM(B9:GX9)</f>
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0</v>
@@ -6873,14 +6873,14 @@
       <c r="AK10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AL10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="3" t="n">
-        <v>1</v>
+      <c r="AL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AO10" s="3" t="n">
         <v>1</v>
@@ -6920,8 +6920,8 @@
       <c r="AZ10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BA10" s="3" t="n">
-        <v>1</v>
+      <c r="BA10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BB10" s="2" t="n">
         <v>0</v>
@@ -6983,32 +6983,32 @@
       <c r="BU10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BV10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD10" s="2" t="n">
-        <v>0</v>
+      <c r="BV10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE10" s="4" t="inlineStr">
         <is>
@@ -7087,53 +7087,53 @@
       <c r="DC10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DD10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS10" s="3" t="n">
-        <v>1</v>
+      <c r="DD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT10" s="4" t="inlineStr">
         <is>
@@ -7203,62 +7203,62 @@
       <c r="EO10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EP10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH10" s="3" t="n">
-        <v>1</v>
+      <c r="EP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI10" s="4" t="inlineStr">
         <is>
@@ -7295,26 +7295,26 @@
       <c r="FS10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FT10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ10" s="3" t="n">
-        <v>1</v>
+      <c r="FT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GA10" s="2" t="n">
         <v>0</v>
@@ -7391,133 +7391,133 @@
         </is>
       </c>
       <c r="GY10" s="4">
-        <f>SUM(B10:GX10)/4</f>
+        <f>SUM(B10:GX10)</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="2" t="n">
-        <v>0</v>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP11" s="4" t="inlineStr">
         <is>
@@ -7536,26 +7536,26 @@
       <c r="AT11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="2" t="n">
-        <v>0</v>
+      <c r="AU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BB11" s="3" t="n">
         <v>1</v>
@@ -7620,29 +7620,29 @@
       <c r="BV11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD11" s="2" t="n">
-        <v>0</v>
+      <c r="BW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE11" s="4" t="inlineStr">
         <is>
@@ -7673,23 +7673,23 @@
       <c r="CM11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS11" s="3" t="n">
-        <v>1</v>
+      <c r="CN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CT11" s="3" t="n">
         <v>1</v>
@@ -7739,142 +7739,142 @@
       <c r="DI11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS11" s="2" t="n">
-        <v>0</v>
+      <c r="DJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT11" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB11" s="2" t="n">
-        <v>0</v>
+      <c r="DU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FC11" s="2" t="n">
         <v>0</v>
@@ -7920,104 +7920,104 @@
       <c r="FP11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW11" s="2" t="n">
-        <v>0</v>
+      <c r="FQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX11" s="4" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         </is>
       </c>
       <c r="GY11" s="4">
-        <f>SUM(B11:GX11)/4</f>
+        <f>SUM(B11:GX11)</f>
         <v/>
       </c>
     </row>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GY5"/>
+  <dimension ref="A1:GY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
@@ -1741,41 +1741,41 @@
       <c r="Q2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>1</v>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AD2" s="2" t="n">
         <v>0</v>
@@ -1795,23 +1795,23 @@
       <c r="AI2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>0</v>
+      <c r="AJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP2" s="4" t="inlineStr">
         <is>
@@ -1866,77 +1866,77 @@
       <c r="BF2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" s="3" t="n">
-        <v>1</v>
+      <c r="BG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE2" s="4" t="inlineStr">
         <is>
@@ -1991,41 +1991,41 @@
       <c r="CU2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" s="3" t="n">
-        <v>1</v>
+      <c r="CV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DH2" s="2" t="n">
         <v>0</v>
@@ -2039,29 +2039,29 @@
       <c r="DK2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS2" s="2" t="n">
-        <v>0</v>
+      <c r="DL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT2" s="4" t="inlineStr">
         <is>
@@ -2116,20 +2116,20 @@
       <c r="EJ2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" s="3" t="n">
-        <v>1</v>
+      <c r="EK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EP2" s="3" t="n">
         <v>1</v>
@@ -2229,65 +2229,65 @@
       <c r="FU2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" s="3" t="n">
-        <v>1</v>
+      <c r="FV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GP2" s="3" t="n">
         <v>1</v>
@@ -2325,19 +2325,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>1</v>
@@ -2351,89 +2351,89 @@
       <c r="I3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="3" t="n">
-        <v>1</v>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AL3" s="2" t="n">
         <v>0</v>
@@ -2452,113 +2452,113 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ3" s="3" t="n">
-        <v>1</v>
+      <c r="AQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CA3" s="2" t="n">
         <v>0</v>
@@ -2577,17 +2577,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="2" t="n">
-        <v>0</v>
+      <c r="CF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CJ3" s="3" t="n">
         <v>1</v>
@@ -2601,89 +2601,89 @@
       <c r="CM3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" s="3" t="n">
-        <v>1</v>
+      <c r="CN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DP3" s="2" t="n">
         <v>0</v>
@@ -2702,113 +2702,113 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" s="3" t="n">
-        <v>1</v>
+      <c r="DU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FE3" s="2" t="n">
         <v>0</v>
@@ -2839,41 +2839,41 @@
       <c r="FM3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY3" s="3" t="n">
-        <v>1</v>
+      <c r="FN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FZ3" s="3" t="n">
         <v>1</v>
@@ -2911,29 +2911,29 @@
       <c r="GK3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS3" s="3" t="n">
-        <v>1</v>
+      <c r="GL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GT3" s="2" t="n">
         <v>0</v>
@@ -2959,55 +2959,55 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -3054,32 +3054,32 @@
       <c r="AF4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>0</v>
+      <c r="AG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP4" s="4" t="inlineStr">
         <is>
@@ -3098,41 +3098,41 @@
       <c r="AT4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="3" t="n">
-        <v>1</v>
+      <c r="AU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BG4" s="2" t="n">
         <v>0</v>
@@ -3182,82 +3182,82 @@
       <c r="BV4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="2" t="n">
-        <v>0</v>
+      <c r="BW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE4" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU4" s="3" t="n">
-        <v>1</v>
+      <c r="CF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CV4" s="2" t="n">
         <v>0</v>
@@ -3348,23 +3348,23 @@
       <c r="DX4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED4" s="3" t="n">
-        <v>1</v>
+      <c r="DY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EE4" s="3" t="n">
         <v>1</v>
@@ -3384,20 +3384,20 @@
       <c r="EJ4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO4" s="2" t="n">
-        <v>0</v>
+      <c r="EK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EP4" s="2" t="n">
         <v>0</v>
@@ -3461,41 +3461,41 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU4" s="3" t="n">
-        <v>1</v>
+      <c r="FJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FV4" s="2" t="n">
         <v>0</v>
@@ -3545,41 +3545,41 @@
       <c r="GK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW4" s="2" t="n">
-        <v>0</v>
+      <c r="GL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX4" s="4" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0</v>
@@ -3679,142 +3679,142 @@
       <c r="AC5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="3" t="n">
-        <v>1</v>
+      <c r="AD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AP5" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="2" t="n">
-        <v>0</v>
+      <c r="AQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BW5" s="2" t="n">
         <v>0</v>
@@ -3929,76 +3929,76 @@
       <c r="DG5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS5" s="3" t="n">
-        <v>1</v>
+      <c r="DH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT5" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED5" s="2" t="n">
-        <v>0</v>
+      <c r="DU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EE5" s="2" t="n">
         <v>0</v>
@@ -4095,29 +4095,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ5" s="2" t="n">
-        <v>0</v>
+      <c r="FJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FR5" s="2" t="n">
         <v>0</v>
@@ -4222,6 +4222,3810 @@
       </c>
       <c r="GY5" s="4">
         <f>SUM(B5:GX5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY6" s="4">
+        <f>SUM(B6:GX6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY7" s="4">
+        <f>SUM(B7:GX7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY8" s="4">
+        <f>SUM(B8:GX8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY9" s="4">
+        <f>SUM(B9:GX9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY10" s="4">
+        <f>SUM(B10:GX10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY11" s="4">
+        <f>SUM(B11:GX11)</f>
         <v/>
       </c>
     </row>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -68,8 +68,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1795,25 +1795,25 @@
       <c r="AI2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="4" t="inlineStr">
+      <c r="AJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1938,37 +1938,37 @@
       <c r="CD2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE2" s="4" t="inlineStr">
+      <c r="CE2" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="2" t="n">
-        <v>0</v>
+      <c r="CF2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="CO2" s="2" t="n">
         <v>0</v>
@@ -2039,156 +2039,156 @@
       <c r="DK2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" s="4" t="inlineStr">
+      <c r="DL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT2" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FI2" s="4" t="inlineStr">
+      <c r="DU2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI2" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2289,36 +2289,36 @@
       <c r="GO2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" s="4" t="inlineStr">
+      <c r="GP2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY2" s="4">
+      <c r="GY2" s="3">
         <f>SUM(B2:GX2)</f>
         <v/>
       </c>
@@ -2327,28 +2327,28 @@
       <c r="A3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="n">
+      <c r="B3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="n">
@@ -2447,34 +2447,34 @@
       <c r="AO3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP3" s="4" t="inlineStr">
+      <c r="AP3" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="2" t="n">
-        <v>0</v>
+      <c r="AQ3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AY3" s="2" t="n">
         <v>0</v>
@@ -2572,34 +2572,34 @@
       <c r="CD3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE3" s="4" t="inlineStr">
+      <c r="CE3" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM3" s="3" t="n">
-        <v>1</v>
+      <c r="CF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CN3" s="2" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
       <c r="DS3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT3" s="4" t="inlineStr">
+      <c r="DT3" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2822,52 +2822,52 @@
       <c r="FH3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI3" s="4" t="inlineStr">
+      <c r="FI3" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" s="2" t="n">
-        <v>0</v>
+      <c r="FJ3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW3" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="FX3" s="2" t="n">
         <v>0</v>
@@ -2875,41 +2875,41 @@
       <c r="FY3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK3" s="3" t="n">
-        <v>1</v>
+      <c r="FZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GL3" s="2" t="n">
         <v>0</v>
@@ -2947,12 +2947,12 @@
       <c r="GW3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX3" s="4" t="inlineStr">
+      <c r="GX3" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY3" s="4">
+      <c r="GY3" s="3">
         <f>SUM(B3:GX3)</f>
         <v/>
       </c>
@@ -3054,34 +3054,34 @@
       <c r="AF4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="4" t="inlineStr">
+      <c r="AG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3182,31 +3182,31 @@
       <c r="BV4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE4" s="4" t="inlineStr">
+      <c r="BW4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE4" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3331,7 +3331,7 @@
       <c r="DS4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT4" s="4" t="inlineStr">
+      <c r="DT4" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3366,38 +3366,38 @@
       <c r="ED4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO4" s="3" t="n">
-        <v>1</v>
+      <c r="EE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EP4" s="2" t="n">
         <v>0</v>
@@ -3432,31 +3432,31 @@
       <c r="EZ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI4" s="4" t="inlineStr">
+      <c r="FA4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI4" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3503,90 +3503,90 @@
       <c r="FW4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX4" s="4" t="inlineStr">
+      <c r="FX4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX4" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY4" s="4">
+      <c r="GY4" s="3">
         <f>SUM(B4:GX4)</f>
         <v/>
       </c>
@@ -3715,106 +3715,106 @@
       <c r="AO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP5" s="4" t="inlineStr">
+      <c r="AP5" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV5" s="3" t="n">
-        <v>1</v>
+      <c r="AQ5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BW5" s="2" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
       <c r="CD5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE5" s="4" t="inlineStr">
+      <c r="CE5" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3926,79 +3926,79 @@
       <c r="DF5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT5" s="4" t="inlineStr">
+      <c r="DG5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT5" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED5" s="3" t="n">
-        <v>1</v>
+      <c r="DU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EE5" s="2" t="n">
         <v>0</v>
@@ -4066,58 +4066,58 @@
       <c r="EZ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI5" s="4" t="inlineStr">
+      <c r="FA5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI5" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ5" s="3" t="n">
-        <v>1</v>
+      <c r="FJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FR5" s="2" t="n">
         <v>0</v>
@@ -4215,12 +4215,12 @@
       <c r="GW5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX5" s="4" t="inlineStr">
+      <c r="GX5" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY5" s="4">
+      <c r="GY5" s="3">
         <f>SUM(B5:GX5)</f>
         <v/>
       </c>
@@ -4229,107 +4229,107 @@
       <c r="A6" t="n">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="3" t="n">
-        <v>1</v>
+      <c r="B6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AJ6" s="2" t="n">
         <v>0</v>
@@ -4349,118 +4349,118 @@
       <c r="AO6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP6" s="4" t="inlineStr">
+      <c r="AP6" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ6" s="2" t="n">
-        <v>0</v>
+      <c r="AQ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="CA6" s="2" t="n">
         <v>0</v>
@@ -4474,115 +4474,115 @@
       <c r="CD6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE6" s="4" t="inlineStr">
+      <c r="CE6" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN6" s="2" t="n">
-        <v>0</v>
+      <c r="CF6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN6" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="DO6" s="2" t="n">
         <v>0</v>
@@ -4599,115 +4599,115 @@
       <c r="DS6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT6" s="4" t="inlineStr">
+      <c r="DT6" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC6" s="3" t="n">
-        <v>1</v>
+      <c r="DU6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FD6" s="2" t="n">
         <v>0</v>
@@ -4724,105 +4724,105 @@
       <c r="FH6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI6" s="4" t="inlineStr">
+      <c r="FI6" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO6" s="3" t="n">
+      <c r="FJ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="GP6" s="2" t="n">
@@ -4849,12 +4849,12 @@
       <c r="GW6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX6" s="4" t="inlineStr">
+      <c r="GX6" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY6" s="4">
+      <c r="GY6" s="3">
         <f>SUM(B6:GX6)</f>
         <v/>
       </c>
@@ -4911,50 +4911,50 @@
       <c r="Q7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="3" t="n">
-        <v>1</v>
+      <c r="R7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AG7" s="2" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
       <c r="AO7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP7" s="4" t="inlineStr">
+      <c r="AP7" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5012,38 +5012,38 @@
       <c r="AX7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="2" t="n">
-        <v>0</v>
+      <c r="AY7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BJ7" s="2" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
       <c r="CD7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE7" s="4" t="inlineStr">
+      <c r="CE7" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5140,65 +5140,65 @@
       <c r="CN7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH7" s="3" t="n">
-        <v>1</v>
+      <c r="CO7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DI7" s="2" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
       <c r="DS7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT7" s="4" t="inlineStr">
+      <c r="DT7" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5358,7 +5358,7 @@
       <c r="FH7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI7" s="4" t="inlineStr">
+      <c r="FI7" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5483,12 +5483,12 @@
       <c r="GW7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX7" s="4" t="inlineStr">
+      <c r="GX7" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY7" s="4">
+      <c r="GY7" s="3">
         <f>SUM(B7:GX7)</f>
         <v/>
       </c>
@@ -5497,53 +5497,53 @@
       <c r="A8" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>1</v>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -5578,46 +5578,46 @@
       <c r="AB8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="4" t="inlineStr">
+      <c r="AC8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5679,70 +5679,70 @@
       <c r="BI8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE8" s="4" t="inlineStr">
+      <c r="BJ8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5834,40 +5834,40 @@
       <c r="DH8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DI8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT8" s="4" t="inlineStr">
+      <c r="DI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT8" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5962,88 +5962,88 @@
       <c r="EX8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI8" s="4" t="inlineStr">
+      <c r="EY8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI8" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY8" s="3" t="n">
-        <v>1</v>
+      <c r="FJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FZ8" s="2" t="n">
         <v>0</v>
@@ -6117,12 +6117,12 @@
       <c r="GW8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX8" s="4" t="inlineStr">
+      <c r="GX8" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY8" s="4">
+      <c r="GY8" s="3">
         <f>SUM(B8:GX8)</f>
         <v/>
       </c>
@@ -6155,29 +6155,29 @@
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>0</v>
+      <c r="J9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="R9" s="2" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
       <c r="AO9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP9" s="4" t="inlineStr">
+      <c r="AP9" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6376,58 +6376,58 @@
       <c r="CD9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE9" s="4" t="inlineStr">
+      <c r="CE9" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU9" s="3" t="n">
-        <v>1</v>
+      <c r="CF9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CV9" s="2" t="n">
         <v>0</v>
@@ -6501,34 +6501,34 @@
       <c r="DS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT9" s="4" t="inlineStr">
+      <c r="DT9" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB9" s="3" t="n">
-        <v>1</v>
+      <c r="DU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EC9" s="2" t="n">
         <v>0</v>
@@ -6626,34 +6626,34 @@
       <c r="FH9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI9" s="4" t="inlineStr">
+      <c r="FI9" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ9" s="2" t="n">
-        <v>0</v>
+      <c r="FJ9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ9" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="FR9" s="2" t="n">
         <v>0</v>
@@ -6751,12 +6751,12 @@
       <c r="GW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX9" s="4" t="inlineStr">
+      <c r="GX9" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY9" s="4">
+      <c r="GY9" s="3">
         <f>SUM(B9:GX9)</f>
         <v/>
       </c>
@@ -6861,31 +6861,31 @@
       <c r="AG10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AH10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="4" t="inlineStr">
+      <c r="AH10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6995,22 +6995,22 @@
       <c r="BY10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BZ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE10" s="4" t="inlineStr">
+      <c r="BZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7135,7 +7135,7 @@
       <c r="DS10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT10" s="4" t="inlineStr">
+      <c r="DT10" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7245,22 +7245,22 @@
       <c r="FC10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FD10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FI10" s="4" t="inlineStr">
+      <c r="FD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7385,12 +7385,12 @@
       <c r="GW10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX10" s="4" t="inlineStr">
+      <c r="GX10" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY10" s="4">
+      <c r="GY10" s="3">
         <f>SUM(B10:GX10)</f>
         <v/>
       </c>
@@ -7399,502 +7399,502 @@
       <c r="A11" t="n">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="4" t="inlineStr">
+      <c r="B11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE11" s="4" t="inlineStr">
+      <c r="AQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE11" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT11" s="4" t="inlineStr">
+      <c r="CF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT11" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FI11" s="4" t="inlineStr">
+      <c r="DU11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI11" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7923,108 +7923,108 @@
       <c r="FQ11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX11" s="4" t="inlineStr">
+      <c r="FR11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX11" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY11" s="4">
+      <c r="GY11" s="3">
         <f>SUM(B11:GX11)</f>
         <v/>
       </c>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1795,11 +1795,11 @@
       <c r="AI2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>0</v>
+      <c r="AJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AL2" s="3" t="n">
         <v>1</v>
@@ -1818,35 +1818,35 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="3" t="n">
-        <v>1</v>
+      <c r="AQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BA2" s="2" t="n">
         <v>0</v>
@@ -1914,61 +1914,61 @@
       <c r="BV2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="2" t="n">
-        <v>0</v>
+      <c r="BW2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="2" t="n">
-        <v>0</v>
+      <c r="CF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CO2" s="2" t="n">
         <v>0</v>
@@ -2042,70 +2042,70 @@
       <c r="DL2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" s="3" t="n">
-        <v>1</v>
+      <c r="DM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" s="3" t="n">
-        <v>1</v>
+      <c r="DU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EH2" s="2" t="n">
         <v>0</v>
@@ -2193,35 +2193,35 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS2" s="2" t="n">
-        <v>0</v>
+      <c r="FJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FT2" s="2" t="n">
         <v>0</v>
@@ -2265,53 +2265,53 @@
       <c r="GG2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" s="3" t="n">
-        <v>1</v>
+      <c r="GH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2327,29 +2327,29 @@
       <c r="A3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>1</v>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>0</v>
@@ -2601,41 +2601,41 @@
       <c r="CM3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY3" s="2" t="n">
-        <v>0</v>
+      <c r="CN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CZ3" s="2" t="n">
         <v>0</v>
@@ -2726,11 +2726,11 @@
       <c r="EB3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" s="2" t="n">
-        <v>0</v>
+      <c r="EC3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EE3" s="2" t="n">
         <v>0</v>
@@ -2827,29 +2827,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ3" s="3" t="n">
-        <v>1</v>
+      <c r="FJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FR3" s="2" t="n">
         <v>0</v>
@@ -3048,14 +3048,14 @@
       <c r="AD4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>0</v>
+      <c r="AE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AH4" s="3" t="n">
         <v>1</v>
@@ -3191,20 +3191,20 @@
       <c r="BY4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="3" t="n">
-        <v>1</v>
+      <c r="BZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE4" s="4" t="inlineStr">
         <is>
@@ -3375,62 +3375,62 @@
       <c r="EG4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ4" s="3" t="n">
-        <v>1</v>
+      <c r="EH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FA4" s="3" t="n">
         <v>1</v>
@@ -3491,95 +3491,95 @@
       <c r="FS4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW4" s="2" t="n">
-        <v>0</v>
+      <c r="FT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX4" s="4" t="inlineStr">
         <is>
@@ -3750,14 +3750,14 @@
       <c r="AZ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="3" t="n">
-        <v>1</v>
+      <c r="BA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BD5" s="3" t="n">
         <v>1</v>
@@ -3783,62 +3783,62 @@
       <c r="BK5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD5" s="3" t="n">
-        <v>1</v>
+      <c r="BL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE5" s="4" t="inlineStr">
         <is>
@@ -3947,23 +3947,23 @@
       <c r="DM5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS5" s="2" t="n">
-        <v>0</v>
+      <c r="DN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT5" s="4" t="inlineStr">
         <is>
@@ -4045,50 +4045,50 @@
       <c r="ES5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="ET5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" s="2" t="n">
-        <v>0</v>
+      <c r="ET5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI5" s="4" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       <c r="GO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ5" s="3" t="n">
-        <v>1</v>
+      <c r="GP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GR5" s="3" t="n">
         <v>1</v>
@@ -4331,11 +4331,11 @@
       <c r="AI6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="3" t="n">
-        <v>1</v>
+      <c r="AJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
         <v>0</v>
@@ -4456,8 +4456,8 @@
       <c r="BX6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BY6" s="3" t="n">
-        <v>1</v>
+      <c r="BY6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BZ6" s="2" t="n">
         <v>0</v>
@@ -4578,8 +4578,8 @@
       <c r="DL6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DM6" s="2" t="n">
-        <v>0</v>
+      <c r="DM6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DN6" s="2" t="n">
         <v>0</v>
@@ -4825,11 +4825,11 @@
       <c r="GO6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GP6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ6" s="2" t="n">
-        <v>0</v>
+      <c r="GP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GR6" s="2" t="n">
         <v>0</v>
@@ -4938,26 +4938,26 @@
       <c r="Z7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="3" t="n">
-        <v>1</v>
+      <c r="AA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AH7" s="2" t="n">
         <v>0</v>
@@ -5051,38 +5051,38 @@
       <c r="BK7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="2" t="n">
-        <v>0</v>
+      <c r="BL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BW7" s="2" t="n">
         <v>0</v>
@@ -5173,35 +5173,35 @@
       <c r="CY7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI7" s="2" t="n">
-        <v>0</v>
+      <c r="CZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DJ7" s="2" t="n">
         <v>0</v>
@@ -5268,50 +5268,50 @@
       <c r="ED7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES7" s="2" t="n">
-        <v>0</v>
+      <c r="EE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="ET7" s="2" t="n">
         <v>0</v>
@@ -5387,53 +5387,53 @@
       <c r="FQ7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FR7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG7" s="3" t="n">
-        <v>1</v>
+      <c r="FR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GH7" s="2" t="n">
         <v>0</v>
@@ -5572,94 +5572,94 @@
       <c r="Z8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="2" t="n">
-        <v>0</v>
+      <c r="AA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP8" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="2" t="n">
-        <v>0</v>
+      <c r="AQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BD8" s="2" t="n">
         <v>0</v>
@@ -5771,71 +5771,71 @@
       <c r="CM8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CN8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI8" s="3" t="n">
-        <v>1</v>
+      <c r="CN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DJ8" s="3" t="n">
         <v>1</v>
@@ -6099,23 +6099,23 @@
       <c r="GQ8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW8" s="2" t="n">
-        <v>0</v>
+      <c r="GR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX8" s="4" t="inlineStr">
         <is>
@@ -6381,29 +6381,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM9" s="3" t="n">
-        <v>1</v>
+      <c r="CF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CN9" s="2" t="n">
         <v>0</v>
@@ -6506,23 +6506,23 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ9" s="2" t="n">
-        <v>0</v>
+      <c r="DU9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EA9" s="2" t="n">
         <v>0</v>
@@ -6631,29 +6631,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ9" s="3" t="n">
-        <v>1</v>
+      <c r="FJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FR9" s="2" t="n">
         <v>0</v>
@@ -6992,23 +6992,23 @@
       <c r="BX10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BY10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD10" s="2" t="n">
-        <v>0</v>
+      <c r="BY10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE10" s="4" t="inlineStr">
         <is>
@@ -7236,29 +7236,29 @@
       <c r="EZ10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH10" s="3" t="n">
-        <v>1</v>
+      <c r="FA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI10" s="4" t="inlineStr">
         <is>
@@ -7399,29 +7399,29 @@
       <c r="A11" t="n">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0</v>
+      <c r="B11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>1</v>
@@ -7486,38 +7486,38 @@
       <c r="AD11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" s="3" t="n">
-        <v>1</v>
+      <c r="AE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AP11" s="4" t="inlineStr">
         <is>
@@ -7673,8 +7673,8 @@
       <c r="CM11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CN11" s="3" t="n">
-        <v>1</v>
+      <c r="CN11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CO11" s="3" t="n">
         <v>1</v>
@@ -7792,11 +7792,11 @@
       <c r="DZ11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB11" s="2" t="n">
-        <v>0</v>
+      <c r="EA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EC11" s="3" t="n">
         <v>1</v>
@@ -7899,29 +7899,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ11" s="2" t="n">
-        <v>0</v>
+      <c r="FJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FR11" s="3" t="n">
         <v>1</v>
@@ -8001,23 +8001,23 @@
       <c r="GQ11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW11" s="3" t="n">
-        <v>1</v>
+      <c r="GR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX11" s="4" t="inlineStr">
         <is>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1789,11 +1789,11 @@
       <c r="AG2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="2" t="n">
-        <v>0</v>
+      <c r="AH2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AJ2" s="3" t="n">
         <v>1</v>
@@ -1914,61 +1914,61 @@
       <c r="BV2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" s="3" t="n">
-        <v>1</v>
+      <c r="BW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" s="3" t="n">
-        <v>1</v>
+      <c r="CF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CO2" s="2" t="n">
         <v>0</v>
@@ -2039,58 +2039,58 @@
       <c r="DK2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS2" s="2" t="n">
-        <v>0</v>
+      <c r="DL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB2" s="2" t="n">
-        <v>0</v>
+      <c r="DU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EC2" s="2" t="n">
         <v>0</v>
@@ -2193,35 +2193,35 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" s="3" t="n">
-        <v>1</v>
+      <c r="FJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FT2" s="2" t="n">
         <v>0</v>
@@ -2253,41 +2253,41 @@
       <c r="GC2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO2" s="2" t="n">
-        <v>0</v>
+      <c r="GD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GP2" s="2" t="n">
         <v>0</v>
@@ -2327,53 +2327,53 @@
       <c r="A3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>0</v>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
@@ -2577,65 +2577,65 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY3" s="3" t="n">
-        <v>1</v>
+      <c r="CF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CZ3" s="2" t="n">
         <v>0</v>
@@ -2723,14 +2723,14 @@
       <c r="EA3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED3" s="3" t="n">
-        <v>1</v>
+      <c r="EB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EE3" s="2" t="n">
         <v>0</v>
@@ -2827,65 +2827,65 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC3" s="2" t="n">
-        <v>0</v>
+      <c r="FJ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GD3" s="2" t="n">
         <v>0</v>
@@ -3009,44 +3009,44 @@
       <c r="Q4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>0</v>
+      <c r="R4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AE4" s="3" t="n">
         <v>1</v>
@@ -3194,17 +3194,17 @@
       <c r="BZ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="2" t="n">
-        <v>0</v>
+      <c r="CA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE4" s="4" t="inlineStr">
         <is>
@@ -3414,23 +3414,23 @@
       <c r="ET4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ4" s="2" t="n">
-        <v>0</v>
+      <c r="EU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FA4" s="3" t="n">
         <v>1</v>
@@ -3491,83 +3491,83 @@
       <c r="FS4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS4" s="3" t="n">
-        <v>1</v>
+      <c r="FT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GT4" s="3" t="n">
         <v>1</v>
@@ -3759,29 +3759,29 @@
       <c r="BC5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK5" s="3" t="n">
-        <v>1</v>
+      <c r="BD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BL5" s="2" t="n">
         <v>0</v>
@@ -3813,32 +3813,32 @@
       <c r="BU5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="2" t="n">
-        <v>0</v>
+      <c r="BV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE5" s="4" t="inlineStr">
         <is>
@@ -3935,17 +3935,17 @@
       <c r="DI5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM5" s="2" t="n">
-        <v>0</v>
+      <c r="DJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DN5" s="3" t="n">
         <v>1</v>
@@ -4045,38 +4045,38 @@
       <c r="ES5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="ET5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD5" s="3" t="n">
-        <v>1</v>
+      <c r="ET5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FE5" s="3" t="n">
         <v>1</v>
@@ -4191,11 +4191,11 @@
       <c r="GO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ5" s="2" t="n">
-        <v>0</v>
+      <c r="GP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GR5" s="3" t="n">
         <v>1</v>
@@ -4313,23 +4313,23 @@
       <c r="AC6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AD6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="3" t="n">
-        <v>1</v>
+      <c r="AD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AJ6" s="2" t="n">
         <v>0</v>
@@ -4456,11 +4456,11 @@
       <c r="BX6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BY6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="2" t="n">
-        <v>0</v>
+      <c r="BY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CA6" s="2" t="n">
         <v>0</v>
@@ -4575,11 +4575,11 @@
       <c r="DK6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DL6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM6" s="3" t="n">
-        <v>1</v>
+      <c r="DL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DN6" s="2" t="n">
         <v>0</v>
@@ -4700,17 +4700,17 @@
       <c r="EZ6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FA6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD6" s="2" t="n">
-        <v>0</v>
+      <c r="FA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FE6" s="2" t="n">
         <v>0</v>
@@ -4831,11 +4831,11 @@
       <c r="GQ6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GR6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS6" s="2" t="n">
-        <v>0</v>
+      <c r="GR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GT6" s="2" t="n">
         <v>0</v>
@@ -4890,53 +4890,53 @@
       <c r="J7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="3" t="n">
-        <v>1</v>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AA7" s="2" t="n">
         <v>0</v>
@@ -5036,20 +5036,20 @@
       <c r="BF7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="2" t="n">
-        <v>0</v>
+      <c r="BG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BL7" s="3" t="n">
         <v>1</v>
@@ -5081,8 +5081,8 @@
       <c r="BU7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BV7" s="3" t="n">
-        <v>1</v>
+      <c r="BV7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BW7" s="2" t="n">
         <v>0</v>
@@ -5173,35 +5173,35 @@
       <c r="CY7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CZ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI7" s="3" t="n">
-        <v>1</v>
+      <c r="CZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DJ7" s="2" t="n">
         <v>0</v>
@@ -5262,11 +5262,11 @@
       <c r="EB7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED7" s="2" t="n">
-        <v>0</v>
+      <c r="EC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EE7" s="3" t="n">
         <v>1</v>
@@ -5313,8 +5313,8 @@
       <c r="ES7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="ET7" s="2" t="n">
-        <v>0</v>
+      <c r="ET7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EU7" s="2" t="n">
         <v>0</v>
@@ -5572,14 +5572,14 @@
       <c r="Z8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AA8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="3" t="n">
-        <v>1</v>
+      <c r="AA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AD8" s="3" t="n">
         <v>1</v>
@@ -5622,44 +5622,44 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC8" s="3" t="n">
-        <v>1</v>
+      <c r="AQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BD8" s="2" t="n">
         <v>0</v>
@@ -5718,154 +5718,154 @@
       <c r="BV8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="2" t="n">
-        <v>0</v>
+      <c r="BW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE8" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS8" s="3" t="n">
-        <v>1</v>
+      <c r="CF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT8" s="4" t="inlineStr">
         <is>
@@ -6099,23 +6099,23 @@
       <c r="GQ8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GR8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW8" s="3" t="n">
-        <v>1</v>
+      <c r="GR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX8" s="4" t="inlineStr">
         <is>
@@ -6131,32 +6131,32 @@
       <c r="A9" t="n">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>1</v>
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>0</v>
@@ -6256,53 +6256,53 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="2" t="n">
-        <v>0</v>
+      <c r="AQ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BG9" s="2" t="n">
         <v>0</v>
@@ -6506,23 +6506,23 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ9" s="3" t="n">
-        <v>1</v>
+      <c r="DU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EA9" s="2" t="n">
         <v>0</v>
@@ -6992,23 +6992,23 @@
       <c r="BX10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BY10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD10" s="3" t="n">
-        <v>1</v>
+      <c r="BY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE10" s="4" t="inlineStr">
         <is>
@@ -7108,32 +7108,32 @@
       <c r="DJ10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DK10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS10" s="2" t="n">
-        <v>0</v>
+      <c r="DK10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT10" s="4" t="inlineStr">
         <is>
@@ -7486,14 +7486,14 @@
       <c r="AD11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <v>0</v>
+      <c r="AE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AH11" s="2" t="n">
         <v>0</v>
@@ -7620,61 +7620,61 @@
       <c r="BV11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD11" s="3" t="n">
-        <v>1</v>
+      <c r="BW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE11" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN11" s="2" t="n">
-        <v>0</v>
+      <c r="CF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CO11" s="3" t="n">
         <v>1</v>
@@ -7742,32 +7742,32 @@
       <c r="DJ11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS11" s="3" t="n">
-        <v>1</v>
+      <c r="DK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT11" s="4" t="inlineStr">
         <is>
@@ -7792,8 +7792,8 @@
       <c r="DZ11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EA11" s="3" t="n">
-        <v>1</v>
+      <c r="EA11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EB11" s="3" t="n">
         <v>1</v>
@@ -8001,23 +8001,23 @@
       <c r="GQ11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW11" s="2" t="n">
-        <v>0</v>
+      <c r="GR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX11" s="4" t="inlineStr">
         <is>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GY5"/>
+  <dimension ref="A1:GY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
@@ -1759,29 +1759,29 @@
       <c r="W2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="X2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>1</v>
+      <c r="X2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AF2" s="3" t="n">
         <v>1</v>
@@ -1842,65 +1842,65 @@
       <c r="AX2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" s="3" t="n">
-        <v>1</v>
+      <c r="AY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BS2" s="2" t="n">
         <v>0</v>
@@ -1914,29 +1914,29 @@
       <c r="BV2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="2" t="n">
-        <v>0</v>
+      <c r="BW2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE2" s="4" t="inlineStr">
         <is>
@@ -1967,68 +1967,68 @@
       <c r="CM2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" s="3" t="n">
-        <v>1</v>
+      <c r="CN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DI2" s="2" t="n">
         <v>0</v>
@@ -2042,26 +2042,26 @@
       <c r="DL2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS2" s="2" t="n">
-        <v>0</v>
+      <c r="DM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT2" s="4" t="inlineStr">
         <is>
@@ -2110,59 +2110,59 @@
       <c r="EH2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" s="3" t="n">
-        <v>1</v>
+      <c r="EI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FA2" s="3" t="n">
         <v>1</v>
@@ -2244,74 +2244,74 @@
       <c r="FZ2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" s="3" t="n">
-        <v>1</v>
+      <c r="GA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2325,115 +2325,115 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AL3" s="2" t="n">
         <v>0</v>
@@ -2452,17 +2452,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>0</v>
+      <c r="AQ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AU3" s="3" t="n">
         <v>1</v>
@@ -2500,65 +2500,65 @@
       <c r="BF3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ3" s="3" t="n">
-        <v>1</v>
+      <c r="BG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CA3" s="2" t="n">
         <v>0</v>
@@ -2577,17 +2577,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="2" t="n">
-        <v>0</v>
+      <c r="CF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CJ3" s="3" t="n">
         <v>1</v>
@@ -2631,59 +2631,59 @@
       <c r="CW3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" s="3" t="n">
-        <v>1</v>
+      <c r="CX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DP3" s="2" t="n">
         <v>0</v>
@@ -2714,101 +2714,101 @@
       <c r="DX3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" s="3" t="n">
-        <v>1</v>
+      <c r="DY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FE3" s="2" t="n">
         <v>0</v>
@@ -2857,83 +2857,83 @@
       <c r="FS3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS3" s="3" t="n">
-        <v>1</v>
+      <c r="FT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GT3" s="2" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0</v>
@@ -2973,59 +2973,59 @@
       <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="3" t="n">
-        <v>1</v>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="X4" s="2" t="n">
         <v>0</v>
@@ -3045,70 +3045,70 @@
       <c r="AC4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>0</v>
+      <c r="AD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP4" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="3" t="n">
-        <v>1</v>
+      <c r="AQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AY4" s="2" t="n">
         <v>0</v>
@@ -3211,29 +3211,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="3" t="n">
-        <v>1</v>
+      <c r="CF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CN4" s="2" t="n">
         <v>0</v>
@@ -3295,88 +3295,88 @@
       <c r="DG4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS4" s="2" t="n">
-        <v>0</v>
+      <c r="DH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT4" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH4" s="3" t="n">
-        <v>1</v>
+      <c r="DU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EI4" s="2" t="n">
         <v>0</v>
@@ -3473,44 +3473,44 @@
       <c r="FM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ4" s="3" t="n">
-        <v>1</v>
+      <c r="FN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GA4" s="2" t="n">
         <v>0</v>
@@ -3554,32 +3554,32 @@
       <c r="GN4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW4" s="2" t="n">
-        <v>0</v>
+      <c r="GO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX4" s="4" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0</v>
@@ -3804,41 +3804,41 @@
       <c r="BR5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BS5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD5" s="3" t="n">
-        <v>1</v>
+      <c r="BS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE5" s="4" t="inlineStr">
         <is>
@@ -3899,38 +3899,38 @@
       <c r="CW5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH5" s="2" t="n">
-        <v>0</v>
+      <c r="CX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DI5" s="3" t="n">
         <v>1</v>
@@ -4072,23 +4072,23 @@
       <c r="FB5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" s="2" t="n">
-        <v>0</v>
+      <c r="FC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI5" s="4" t="inlineStr">
         <is>
@@ -4182,38 +4182,38 @@
       <c r="GL5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW5" s="2" t="n">
-        <v>0</v>
+      <c r="GM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX5" s="4" t="inlineStr">
         <is>
@@ -4222,6 +4222,3810 @@
       </c>
       <c r="GY5" s="4">
         <f>SUM(B5:GX5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY6" s="4">
+        <f>SUM(B6:GX6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY7" s="4">
+        <f>SUM(B7:GX7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY8" s="4">
+        <f>SUM(B8:GX8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY9" s="4">
+        <f>SUM(B9:GX9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY10" s="4">
+        <f>SUM(B10:GX10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY11" s="4">
+        <f>SUM(B11:GX11)</f>
         <v/>
       </c>
     </row>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1747,41 +1747,41 @@
       <c r="S2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>0</v>
+      <c r="T2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AF2" s="3" t="n">
         <v>1</v>
@@ -1818,50 +1818,50 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="2" t="n">
-        <v>0</v>
+      <c r="AQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BF2" s="2" t="n">
         <v>0</v>
@@ -1914,29 +1914,29 @@
       <c r="BV2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" s="3" t="n">
-        <v>1</v>
+      <c r="BW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE2" s="4" t="inlineStr">
         <is>
@@ -2039,8 +2039,8 @@
       <c r="DK2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DL2" s="2" t="n">
-        <v>0</v>
+      <c r="DL2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DM2" s="3" t="n">
         <v>1</v>
@@ -2048,20 +2048,20 @@
       <c r="DN2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" s="3" t="n">
-        <v>1</v>
+      <c r="DO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT2" s="4" t="inlineStr">
         <is>
@@ -2164,29 +2164,29 @@
       <c r="EZ2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH2" s="3" t="n">
-        <v>1</v>
+      <c r="FA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI2" s="4" t="inlineStr">
         <is>
@@ -2295,23 +2295,23 @@
       <c r="GQ2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW2" s="2" t="n">
-        <v>0</v>
+      <c r="GR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2327,59 +2327,59 @@
       <c r="A3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>0</v>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="T3" s="2" t="n">
         <v>0</v>
@@ -2452,53 +2452,53 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="3" t="n">
-        <v>1</v>
+      <c r="AQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BG3" s="2" t="n">
         <v>0</v>
@@ -2589,47 +2589,47 @@
       <c r="CI3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW3" s="3" t="n">
-        <v>1</v>
+      <c r="CJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CX3" s="2" t="n">
         <v>0</v>
@@ -2717,74 +2717,74 @@
       <c r="DY3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DZ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV3" s="2" t="n">
-        <v>0</v>
+      <c r="DZ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EW3" s="2" t="n">
         <v>0</v>
@@ -2827,35 +2827,35 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS3" s="3" t="n">
-        <v>1</v>
+      <c r="FJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FT3" s="2" t="n">
         <v>0</v>
@@ -3045,29 +3045,29 @@
       <c r="AC4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="3" t="n">
-        <v>1</v>
+      <c r="AD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AL4" s="3" t="n">
         <v>1</v>
@@ -3194,17 +3194,17 @@
       <c r="BZ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="2" t="n">
-        <v>0</v>
+      <c r="CA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE4" s="4" t="inlineStr">
         <is>
@@ -3295,26 +3295,26 @@
       <c r="DG4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN4" s="3" t="n">
-        <v>1</v>
+      <c r="DH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DO4" s="3" t="n">
         <v>1</v>
@@ -3322,14 +3322,14 @@
       <c r="DP4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS4" s="3" t="n">
-        <v>1</v>
+      <c r="DQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT4" s="4" t="inlineStr">
         <is>
@@ -3420,41 +3420,41 @@
       <c r="EV4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH4" s="2" t="n">
-        <v>0</v>
+      <c r="EW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI4" s="4" t="inlineStr">
         <is>
@@ -3473,56 +3473,56 @@
       <c r="FM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD4" s="2" t="n">
-        <v>0</v>
+      <c r="FN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GE4" s="2" t="n">
         <v>0</v>
@@ -3554,32 +3554,32 @@
       <c r="GN4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW4" s="3" t="n">
-        <v>1</v>
+      <c r="GO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX4" s="4" t="inlineStr">
         <is>
@@ -3845,59 +3845,59 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW5" s="2" t="n">
-        <v>0</v>
+      <c r="CF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CX5" s="3" t="n">
         <v>1</v>
@@ -3941,29 +3941,29 @@
       <c r="DK5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS5" s="3" t="n">
-        <v>1</v>
+      <c r="DL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT5" s="4" t="inlineStr">
         <is>
@@ -4072,11 +4072,11 @@
       <c r="FB5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD5" s="3" t="n">
-        <v>1</v>
+      <c r="FC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FE5" s="3" t="n">
         <v>1</v>
@@ -4095,38 +4095,38 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT5" s="2" t="n">
-        <v>0</v>
+      <c r="FJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FU5" s="2" t="n">
         <v>0</v>
@@ -4182,38 +4182,38 @@
       <c r="GL5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW5" s="3" t="n">
-        <v>1</v>
+      <c r="GM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX5" s="4" t="inlineStr">
         <is>
@@ -4334,8 +4334,8 @@
       <c r="AJ6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AK6" s="2" t="n">
-        <v>0</v>
+      <c r="AK6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AL6" s="2" t="n">
         <v>0</v>
@@ -4450,17 +4450,17 @@
       <c r="BV6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BW6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="2" t="n">
-        <v>0</v>
+      <c r="BW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CA6" s="2" t="n">
         <v>0</v>
@@ -4557,32 +4557,32 @@
       <c r="DE6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN6" s="3" t="n">
-        <v>1</v>
+      <c r="DF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DO6" s="2" t="n">
         <v>0</v>
@@ -4706,11 +4706,11 @@
       <c r="FB6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FC6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD6" s="2" t="n">
-        <v>0</v>
+      <c r="FC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FE6" s="2" t="n">
         <v>0</v>
@@ -4825,17 +4825,17 @@
       <c r="GO6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GP6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS6" s="2" t="n">
-        <v>0</v>
+      <c r="GP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GT6" s="2" t="n">
         <v>0</v>
@@ -4902,50 +4902,50 @@
       <c r="N7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="3" t="n">
-        <v>1</v>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AD7" s="2" t="n">
         <v>0</v>
@@ -5033,8 +5033,8 @@
       <c r="BE7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BF7" s="2" t="n">
-        <v>0</v>
+      <c r="BF7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BG7" s="3" t="n">
         <v>1</v>
@@ -5075,14 +5075,14 @@
       <c r="BS7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BT7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV7" s="3" t="n">
-        <v>1</v>
+      <c r="BT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BW7" s="2" t="n">
         <v>0</v>
@@ -5173,17 +5173,17 @@
       <c r="CY7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC7" s="2" t="n">
-        <v>0</v>
+      <c r="CZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DD7" s="2" t="n">
         <v>0</v>
@@ -5399,32 +5399,32 @@
       <c r="FU7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FV7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD7" s="3" t="n">
-        <v>1</v>
+      <c r="FV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GE7" s="3" t="n">
         <v>1</v>
@@ -5450,11 +5450,11 @@
       <c r="GL7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN7" s="2" t="n">
-        <v>0</v>
+      <c r="GM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GO7" s="2" t="n">
         <v>0</v>
@@ -5578,44 +5578,44 @@
       <c r="AB8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="2" t="n">
-        <v>0</v>
+      <c r="AC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP8" s="4" t="inlineStr">
         <is>
@@ -5709,38 +5709,38 @@
       <c r="BS8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="2" t="n">
-        <v>0</v>
+      <c r="BT8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE8" s="4" t="inlineStr">
         <is>
@@ -5825,47 +5825,47 @@
       <c r="DE8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS8" s="2" t="n">
-        <v>0</v>
+      <c r="DF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT8" s="4" t="inlineStr">
         <is>
@@ -5887,86 +5887,86 @@
       <c r="DY8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DZ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ8" s="3" t="n">
-        <v>1</v>
+      <c r="DZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FA8" s="2" t="n">
         <v>0</v>
@@ -5997,41 +5997,41 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU8" s="3" t="n">
-        <v>1</v>
+      <c r="FJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FV8" s="2" t="n">
         <v>0</v>
@@ -6105,17 +6105,17 @@
       <c r="GS8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW8" s="2" t="n">
-        <v>0</v>
+      <c r="GT8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX8" s="4" t="inlineStr">
         <is>
@@ -6143,32 +6143,32 @@
       <c r="E9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>1</v>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="O9" s="2" t="n">
         <v>0</v>
@@ -6381,44 +6381,44 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR9" s="3" t="n">
-        <v>1</v>
+      <c r="CF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CS9" s="2" t="n">
         <v>0</v>
@@ -6506,35 +6506,35 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED9" s="2" t="n">
-        <v>0</v>
+      <c r="DU9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EE9" s="2" t="n">
         <v>0</v>
@@ -6986,29 +6986,29 @@
       <c r="BV10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD10" s="3" t="n">
-        <v>1</v>
+      <c r="BW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE10" s="4" t="inlineStr">
         <is>
@@ -7126,14 +7126,14 @@
       <c r="DP10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DQ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS10" s="2" t="n">
-        <v>0</v>
+      <c r="DQ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT10" s="4" t="inlineStr">
         <is>
@@ -7355,17 +7355,17 @@
       <c r="GM10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GN10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ10" s="2" t="n">
-        <v>0</v>
+      <c r="GN10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GR10" s="2" t="n">
         <v>0</v>
@@ -7399,17 +7399,17 @@
       <c r="A11" t="n">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>1</v>
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>1</v>
@@ -7480,44 +7480,44 @@
       <c r="AB11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" s="3" t="n">
-        <v>1</v>
+      <c r="AC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AP11" s="4" t="inlineStr">
         <is>
@@ -7661,32 +7661,32 @@
       <c r="CI11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR11" s="2" t="n">
-        <v>0</v>
+      <c r="CJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CS11" s="3" t="n">
         <v>1</v>
@@ -7742,67 +7742,67 @@
       <c r="DJ11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS11" s="2" t="n">
-        <v>0</v>
+      <c r="DK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT11" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED11" s="3" t="n">
-        <v>1</v>
+      <c r="DU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EE11" s="3" t="n">
         <v>1</v>
@@ -7899,35 +7899,35 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS11" s="2" t="n">
-        <v>0</v>
+      <c r="FJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FT11" s="3" t="n">
         <v>1</v>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -68,8 +68,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1747,198 +1747,198 @@
       <c r="S2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="4" t="inlineStr">
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" s="3" t="n">
-        <v>1</v>
+      <c r="AQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BF2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE2" s="4" t="inlineStr">
+      <c r="BG2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2039,14 +2039,14 @@
       <c r="DK2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" s="3" t="n">
-        <v>1</v>
+      <c r="DL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DO2" s="2" t="n">
         <v>0</v>
@@ -2063,7 +2063,7 @@
       <c r="DS2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT2" s="4" t="inlineStr">
+      <c r="DT2" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2152,43 +2152,43 @@
       <c r="EV2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI2" s="4" t="inlineStr">
+      <c r="EW2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2295,30 +2295,30 @@
       <c r="GQ2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" s="4" t="inlineStr">
+      <c r="GR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY2" s="4">
+      <c r="GY2" s="3">
         <f>SUM(B2:GX2)</f>
         <v/>
       </c>
@@ -2327,59 +2327,59 @@
       <c r="A3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>1</v>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="T3" s="2" t="n">
         <v>0</v>
@@ -2447,52 +2447,52 @@
       <c r="AO3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP3" s="4" t="inlineStr">
+      <c r="AP3" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="2" t="n">
-        <v>0</v>
+      <c r="AQ3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BE3" s="2" t="n">
         <v>0</v>
@@ -2572,40 +2572,40 @@
       <c r="CD3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE3" s="4" t="inlineStr">
+      <c r="CE3" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="2" t="n">
-        <v>0</v>
+      <c r="CF3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="CP3" s="2" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
       <c r="DS3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT3" s="4" t="inlineStr">
+      <c r="DT3" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2717,74 +2717,74 @@
       <c r="DY3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV3" s="3" t="n">
-        <v>1</v>
+      <c r="DZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EW3" s="2" t="n">
         <v>0</v>
@@ -2822,46 +2822,46 @@
       <c r="FH3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI3" s="4" t="inlineStr">
+      <c r="FI3" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" s="2" t="n">
-        <v>0</v>
+      <c r="FJ3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU3" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="FV3" s="2" t="n">
         <v>0</v>
@@ -2947,12 +2947,12 @@
       <c r="GW3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX3" s="4" t="inlineStr">
+      <c r="GX3" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY3" s="4">
+      <c r="GY3" s="3">
         <f>SUM(B3:GX3)</f>
         <v/>
       </c>
@@ -3069,19 +3069,19 @@
       <c r="AK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="4" t="inlineStr">
+      <c r="AL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3194,19 +3194,19 @@
       <c r="BZ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE4" s="4" t="inlineStr">
+      <c r="CA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3301,37 +3301,37 @@
       <c r="DI4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT4" s="4" t="inlineStr">
+      <c r="DJ4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT4" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3420,43 +3420,43 @@
       <c r="EV4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FI4" s="4" t="inlineStr">
+      <c r="EW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI4" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3473,56 +3473,56 @@
       <c r="FM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD4" s="3" t="n">
-        <v>1</v>
+      <c r="FN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GE4" s="2" t="n">
         <v>0</v>
@@ -3545,48 +3545,48 @@
       <c r="GK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX4" s="4" t="inlineStr">
+      <c r="GL4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX4" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY4" s="4">
+      <c r="GY4" s="3">
         <f>SUM(B4:GX4)</f>
         <v/>
       </c>
@@ -3715,7 +3715,7 @@
       <c r="AO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP5" s="4" t="inlineStr">
+      <c r="AP5" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3804,168 +3804,168 @@
       <c r="BR5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="4" t="inlineStr">
+      <c r="BS5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE5" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT5" s="4" t="inlineStr">
+      <c r="CF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT5" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4030,29 +4030,29 @@
       <c r="EN5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV5" s="2" t="n">
-        <v>0</v>
+      <c r="EO5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV5" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="EW5" s="2" t="n">
         <v>0</v>
@@ -4078,55 +4078,55 @@
       <c r="FD5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FI5" s="4" t="inlineStr">
+      <c r="FE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI5" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT5" s="3" t="n">
-        <v>1</v>
+      <c r="FJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FU5" s="2" t="n">
         <v>0</v>
@@ -4215,12 +4215,12 @@
       <c r="GW5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX5" s="4" t="inlineStr">
+      <c r="GX5" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY5" s="4">
+      <c r="GY5" s="3">
         <f>SUM(B5:GX5)</f>
         <v/>
       </c>
@@ -4229,113 +4229,113 @@
       <c r="A6" t="n">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="3" t="n">
-        <v>1</v>
+      <c r="B6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
         <v>0</v>
@@ -4349,117 +4349,117 @@
       <c r="AO6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP6" s="4" t="inlineStr">
+      <c r="AP6" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ6" s="3" t="n">
+      <c r="AQ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="CA6" s="2" t="n">
@@ -4474,100 +4474,100 @@
       <c r="CD6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE6" s="4" t="inlineStr">
+      <c r="CE6" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI6" s="2" t="n">
-        <v>0</v>
+      <c r="CF6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI6" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="DJ6" s="2" t="n">
         <v>0</v>
@@ -4599,118 +4599,118 @@
       <c r="DS6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT6" s="4" t="inlineStr">
+      <c r="DT6" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD6" s="3" t="n">
-        <v>1</v>
+      <c r="DU6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FE6" s="2" t="n">
         <v>0</v>
@@ -4724,117 +4724,117 @@
       <c r="FH6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI6" s="4" t="inlineStr">
+      <c r="FI6" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS6" s="3" t="n">
+      <c r="FJ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="GT6" s="2" t="n">
@@ -4849,12 +4849,12 @@
       <c r="GW6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX6" s="4" t="inlineStr">
+      <c r="GX6" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY6" s="4">
+      <c r="GY6" s="3">
         <f>SUM(B6:GX6)</f>
         <v/>
       </c>
@@ -4983,7 +4983,7 @@
       <c r="AO7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP7" s="4" t="inlineStr">
+      <c r="AP7" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5030,50 +5030,50 @@
       <c r="BD7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS7" s="3" t="n">
-        <v>1</v>
+      <c r="BE7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BT7" s="2" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
       <c r="CD7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE7" s="4" t="inlineStr">
+      <c r="CE7" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5173,17 +5173,17 @@
       <c r="CY7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CZ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC7" s="3" t="n">
-        <v>1</v>
+      <c r="CZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DD7" s="2" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
       <c r="DS7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT7" s="4" t="inlineStr">
+      <c r="DT7" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5358,7 +5358,7 @@
       <c r="FH7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI7" s="4" t="inlineStr">
+      <c r="FI7" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5399,62 +5399,62 @@
       <c r="FU7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FV7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN7" s="3" t="n">
-        <v>1</v>
+      <c r="FV7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GO7" s="2" t="n">
         <v>0</v>
@@ -5483,12 +5483,12 @@
       <c r="GW7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX7" s="4" t="inlineStr">
+      <c r="GX7" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY7" s="4">
+      <c r="GY7" s="3">
         <f>SUM(B7:GX7)</f>
         <v/>
       </c>
@@ -5533,91 +5533,91 @@
       <c r="M8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="4" t="inlineStr">
+      <c r="N8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5709,40 +5709,40 @@
       <c r="BS8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BT8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE8" s="4" t="inlineStr">
+      <c r="BT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5825,67 +5825,67 @@
       <c r="DE8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DF8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT8" s="4" t="inlineStr">
+      <c r="DF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY8" s="3" t="n">
-        <v>1</v>
+      <c r="DU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DZ8" s="2" t="n">
         <v>0</v>
@@ -5968,31 +5968,31 @@
       <c r="EZ8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI8" s="4" t="inlineStr">
+      <c r="FA8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI8" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6105,24 +6105,24 @@
       <c r="GS8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GT8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX8" s="4" t="inlineStr">
+      <c r="GT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX8" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY8" s="4">
+      <c r="GY8" s="3">
         <f>SUM(B8:GX8)</f>
         <v/>
       </c>
@@ -6131,41 +6131,41 @@
       <c r="A9" t="n">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
+      <c r="B9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
       <c r="AO9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP9" s="4" t="inlineStr">
+      <c r="AP9" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6376,7 +6376,7 @@
       <c r="CD9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE9" s="4" t="inlineStr">
+      <c r="CE9" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6501,46 +6501,46 @@
       <c r="DS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT9" s="4" t="inlineStr">
+      <c r="DT9" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF9" s="2" t="n">
-        <v>0</v>
+      <c r="DU9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF9" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="EG9" s="2" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
       <c r="FH9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI9" s="4" t="inlineStr">
+      <c r="FI9" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6751,12 +6751,12 @@
       <c r="GW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX9" s="4" t="inlineStr">
+      <c r="GX9" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY9" s="4">
+      <c r="GY9" s="3">
         <f>SUM(B9:GX9)</f>
         <v/>
       </c>
@@ -6867,25 +6867,25 @@
       <c r="AI10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="4" t="inlineStr">
+      <c r="AJ10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7010,7 +7010,7 @@
       <c r="CD10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE10" s="4" t="inlineStr">
+      <c r="CE10" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7126,16 +7126,16 @@
       <c r="DP10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DQ10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT10" s="4" t="inlineStr">
+      <c r="DQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT10" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7260,7 +7260,7 @@
       <c r="FH10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI10" s="4" t="inlineStr">
+      <c r="FI10" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7355,17 +7355,17 @@
       <c r="GM10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GN10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ10" s="3" t="n">
-        <v>1</v>
+      <c r="GN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GR10" s="2" t="n">
         <v>0</v>
@@ -7385,12 +7385,12 @@
       <c r="GW10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX10" s="4" t="inlineStr">
+      <c r="GX10" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY10" s="4">
+      <c r="GY10" s="3">
         <f>SUM(B10:GX10)</f>
         <v/>
       </c>
@@ -7399,632 +7399,632 @@
       <c r="A11" t="n">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="4" t="inlineStr">
+      <c r="B11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE11" s="4" t="inlineStr">
+      <c r="AQ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT11" s="4" t="inlineStr">
+      <c r="CF11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT11" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FI11" s="4" t="inlineStr">
+      <c r="DU11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI11" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX11" s="4" t="inlineStr">
+      <c r="FJ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX11" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY11" s="4">
+      <c r="GY11" s="3">
         <f>SUM(B11:GX11)</f>
         <v/>
       </c>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1818,35 +1818,35 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="2" t="n">
-        <v>0</v>
+      <c r="AQ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BA2" s="2" t="n">
         <v>0</v>
@@ -1866,121 +1866,121 @@
       <c r="BF2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BG2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" s="4" t="n">
-        <v>1</v>
+      <c r="BG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE2" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR2" s="2" t="n">
-        <v>0</v>
+      <c r="CF2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="CS2" s="2" t="n">
         <v>0</v>
@@ -2110,41 +2110,41 @@
       <c r="EH2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET2" s="2" t="n">
-        <v>0</v>
+      <c r="EI2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET2" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="EU2" s="2" t="n">
         <v>0</v>
@@ -2152,76 +2152,76 @@
       <c r="EV2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EW2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH2" s="4" t="n">
-        <v>1</v>
+      <c r="EW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI2" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS2" s="2" t="n">
-        <v>0</v>
+      <c r="FJ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="FT2" s="2" t="n">
         <v>0</v>
@@ -2301,17 +2301,17 @@
       <c r="GS2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GT2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" s="4" t="n">
-        <v>1</v>
+      <c r="GT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX2" s="3" t="inlineStr">
         <is>
@@ -2327,41 +2327,41 @@
       <c r="A3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>0</v>
+      <c r="B3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -2452,47 +2452,47 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="4" t="n">
-        <v>1</v>
+      <c r="AQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BE3" s="2" t="n">
         <v>0</v>
@@ -2577,35 +2577,35 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO3" s="4" t="n">
-        <v>1</v>
+      <c r="CF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CP3" s="2" t="n">
         <v>0</v>
@@ -2702,35 +2702,35 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" s="2" t="n">
-        <v>0</v>
+      <c r="DU3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED3" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="EE3" s="2" t="n">
         <v>0</v>
@@ -2738,29 +2738,29 @@
       <c r="EF3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EG3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN3" s="4" t="n">
-        <v>1</v>
+      <c r="EG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EO3" s="2" t="n">
         <v>0</v>
@@ -2863,53 +2863,53 @@
       <c r="FU3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="FV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK3" s="2" t="n">
-        <v>0</v>
+      <c r="FV3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK3" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="GL3" s="2" t="n">
         <v>0</v>
@@ -3170,41 +3170,41 @@
       <c r="BR4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="2" t="n">
-        <v>0</v>
+      <c r="BS4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="CE4" s="3" t="inlineStr">
         <is>
@@ -3295,11 +3295,11 @@
       <c r="DG4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI4" s="2" t="n">
-        <v>0</v>
+      <c r="DH4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="DJ4" s="4" t="n">
         <v>1</v>
@@ -3414,23 +3414,23 @@
       <c r="ET4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ4" s="2" t="n">
-        <v>0</v>
+      <c r="EU4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ4" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="FA4" s="4" t="n">
         <v>1</v>
@@ -3720,250 +3720,250 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD5" s="4" t="n">
-        <v>1</v>
+      <c r="AQ5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE5" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS5" s="4" t="n">
-        <v>1</v>
+      <c r="CF5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT5" s="3" t="inlineStr">
         <is>
@@ -4030,29 +4030,29 @@
       <c r="EN5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EO5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV5" s="4" t="n">
-        <v>1</v>
+      <c r="EO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EW5" s="2" t="n">
         <v>0</v>
@@ -4331,8 +4331,8 @@
       <c r="AI6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AJ6" s="2" t="n">
-        <v>0</v>
+      <c r="AJ6" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AK6" s="2" t="n">
         <v>0</v>
@@ -4569,14 +4569,14 @@
       <c r="DI6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="DJ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL6" s="2" t="n">
-        <v>0</v>
+      <c r="DJ6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL6" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="DM6" s="2" t="n">
         <v>0</v>
@@ -4700,11 +4700,11 @@
       <c r="EZ6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="FA6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB6" s="2" t="n">
-        <v>0</v>
+      <c r="FA6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB6" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="FC6" s="2" t="n">
         <v>0</v>
@@ -4819,23 +4819,23 @@
       <c r="GM6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="GN6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS6" s="4" t="n">
-        <v>1</v>
+      <c r="GN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GT6" s="2" t="n">
         <v>0</v>
@@ -4899,53 +4899,53 @@
       <c r="M7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2" t="n">
-        <v>0</v>
+      <c r="N7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AD7" s="2" t="n">
         <v>0</v>
@@ -5030,47 +5030,47 @@
       <c r="BD7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BE7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR7" s="4" t="n">
-        <v>1</v>
+      <c r="BE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BS7" s="2" t="n">
         <v>0</v>
@@ -5152,50 +5152,50 @@
       <c r="CR7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CS7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG7" s="2" t="n">
-        <v>0</v>
+      <c r="CS7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG7" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="DH7" s="2" t="n">
         <v>0</v>
@@ -5399,53 +5399,53 @@
       <c r="FU7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FV7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK7" s="4" t="n">
-        <v>1</v>
+      <c r="FV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GL7" s="2" t="n">
         <v>0</v>
@@ -5533,53 +5533,53 @@
       <c r="M8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1</v>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AD8" s="4" t="n">
         <v>1</v>
@@ -5712,23 +5712,23 @@
       <c r="BT8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="2" t="n">
-        <v>0</v>
+      <c r="BU8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="CA8" s="4" t="n">
         <v>1</v>
@@ -5837,35 +5837,35 @@
       <c r="DI8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS8" s="2" t="n">
-        <v>0</v>
+      <c r="DJ8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS8" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="DT8" s="3" t="inlineStr">
         <is>
@@ -5962,11 +5962,11 @@
       <c r="EX8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ8" s="2" t="n">
-        <v>0</v>
+      <c r="EY8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ8" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="FA8" s="4" t="n">
         <v>1</v>
@@ -6087,35 +6087,35 @@
       <c r="GM8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW8" s="2" t="n">
-        <v>0</v>
+      <c r="GN8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW8" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="GX8" s="3" t="inlineStr">
         <is>
@@ -6161,11 +6161,11 @@
       <c r="K9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1</v>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>0</v>
@@ -6542,11 +6542,11 @@
       <c r="EF9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="EG9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH9" s="2" t="n">
-        <v>0</v>
+      <c r="EG9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH9" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="EI9" s="2" t="n">
         <v>0</v>
@@ -6855,17 +6855,17 @@
       <c r="AE10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AF10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="2" t="n">
-        <v>0</v>
+      <c r="AF10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AJ10" s="4" t="n">
         <v>1</v>
@@ -7399,23 +7399,23 @@
       <c r="A11" t="n">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>1</v>
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>1</v>
@@ -7524,20 +7524,20 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="4" t="n">
-        <v>1</v>
+      <c r="AQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AV11" s="4" t="n">
         <v>1</v>
@@ -7572,106 +7572,106 @@
       <c r="BF11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="BG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD11" s="2" t="n">
-        <v>0</v>
+      <c r="BG11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD11" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="CE11" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM11" s="4" t="n">
-        <v>1</v>
+      <c r="CF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CN11" s="4" t="n">
         <v>1</v>
@@ -7774,26 +7774,26 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA11" s="4" t="n">
-        <v>1</v>
+      <c r="DU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EB11" s="4" t="n">
         <v>1</v>
@@ -7870,52 +7870,52 @@
       <c r="EZ11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="FA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH11" s="2" t="n">
-        <v>0</v>
+      <c r="FA11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH11" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="FI11" s="3" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO11" s="4" t="n">
-        <v>1</v>
+      <c r="FJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FP11" s="4" t="n">
         <v>1</v>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -68,8 +68,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1729,53 +1729,53 @@
       <c r="M2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>0</v>
+      <c r="N2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AD2" s="2" t="n">
         <v>0</v>
@@ -1813,40 +1813,40 @@
       <c r="AO2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP2" s="3" t="inlineStr">
+      <c r="AP2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="4" t="n">
-        <v>1</v>
+      <c r="AQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BA2" s="2" t="n">
         <v>0</v>
@@ -1938,49 +1938,49 @@
       <c r="CD2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE2" s="3" t="inlineStr">
+      <c r="CE2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" s="4" t="n">
-        <v>1</v>
+      <c r="CF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CS2" s="2" t="n">
         <v>0</v>
@@ -2063,7 +2063,7 @@
       <c r="DS2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT2" s="3" t="inlineStr">
+      <c r="DT2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2110,41 +2110,41 @@
       <c r="EH2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EI2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET2" s="4" t="n">
-        <v>1</v>
+      <c r="EI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EU2" s="2" t="n">
         <v>0</v>
@@ -2188,46 +2188,46 @@
       <c r="FH2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI2" s="3" t="inlineStr">
+      <c r="FI2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU2" s="2" t="n">
-        <v>0</v>
+      <c r="FJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FV2" s="2" t="n">
         <v>0</v>
@@ -2313,12 +2313,12 @@
       <c r="GW2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX2" s="3" t="inlineStr">
+      <c r="GX2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY2" s="3">
+      <c r="GY2" s="4">
         <f>SUM(B2:GX2)</f>
         <v/>
       </c>
@@ -2327,40 +2327,40 @@
       <c r="A3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="n">
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="N3" s="2" t="n">
@@ -2447,7 +2447,7 @@
       <c r="AO3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP3" s="3" t="inlineStr">
+      <c r="AP3" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2572,52 +2572,52 @@
       <c r="CD3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE3" s="3" t="inlineStr">
+      <c r="CE3" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" s="2" t="n">
-        <v>0</v>
+      <c r="CF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CT3" s="2" t="n">
         <v>0</v>
@@ -2697,76 +2697,76 @@
       <c r="DS3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT3" s="3" t="inlineStr">
+      <c r="DT3" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" s="2" t="n">
-        <v>0</v>
+      <c r="DU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EQ3" s="2" t="n">
         <v>0</v>
@@ -2822,94 +2822,94 @@
       <c r="FH3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI3" s="3" t="inlineStr">
+      <c r="FI3" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK3" s="4" t="n">
-        <v>1</v>
+      <c r="FJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GL3" s="2" t="n">
         <v>0</v>
@@ -2947,12 +2947,12 @@
       <c r="GW3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX3" s="3" t="inlineStr">
+      <c r="GX3" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY3" s="3">
+      <c r="GY3" s="4">
         <f>SUM(B3:GX3)</f>
         <v/>
       </c>
@@ -3051,37 +3051,37 @@
       <c r="AE4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="3" t="inlineStr">
+      <c r="AF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3134,79 +3134,79 @@
       <c r="BF4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE4" s="3" t="inlineStr">
+      <c r="BG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3253,41 +3253,41 @@
       <c r="CS4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE4" s="2" t="n">
-        <v>0</v>
+      <c r="CT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DF4" s="2" t="n">
         <v>0</v>
@@ -3295,43 +3295,43 @@
       <c r="DG4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DH4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT4" s="3" t="inlineStr">
+      <c r="DH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT4" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3414,49 +3414,49 @@
       <c r="ET4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EU4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FI4" s="3" t="inlineStr">
+      <c r="EU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI4" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3545,48 +3545,48 @@
       <c r="GK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GL4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX4" s="3" t="inlineStr">
+      <c r="GL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX4" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY4" s="3">
+      <c r="GY4" s="4">
         <f>SUM(B4:GX4)</f>
         <v/>
       </c>
@@ -3715,165 +3715,165 @@
       <c r="AO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP5" s="3" t="inlineStr">
+      <c r="AP5" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="3" t="inlineStr">
+      <c r="AQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE5" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO5" s="4" t="n">
-        <v>1</v>
+      <c r="CF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CP5" s="2" t="n">
         <v>0</v>
@@ -3941,31 +3941,31 @@
       <c r="DK5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT5" s="3" t="inlineStr">
+      <c r="DL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT5" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4036,61 +4036,61 @@
       <c r="EP5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI5" s="3" t="inlineStr">
+      <c r="EQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI5" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4179,48 +4179,48 @@
       <c r="GK5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX5" s="3" t="inlineStr">
+      <c r="GL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX5" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY5" s="3">
+      <c r="GY5" s="4">
         <f>SUM(B5:GX5)</f>
         <v/>
       </c>
@@ -4229,113 +4229,113 @@
       <c r="A6" t="n">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>0</v>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AL6" s="2" t="n">
         <v>0</v>
@@ -4349,118 +4349,118 @@
       <c r="AO6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP6" s="3" t="inlineStr">
+      <c r="AP6" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ6" s="4" t="n">
-        <v>1</v>
+      <c r="AQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CA6" s="2" t="n">
         <v>0</v>
@@ -4474,118 +4474,118 @@
       <c r="CD6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE6" s="3" t="inlineStr">
+      <c r="CE6" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO6" s="2" t="n">
-        <v>0</v>
+      <c r="CF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DP6" s="2" t="n">
         <v>0</v>
@@ -4599,112 +4599,112 @@
       <c r="DS6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT6" s="3" t="inlineStr">
+      <c r="DT6" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB6" s="4" t="n">
-        <v>1</v>
+      <c r="DU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FC6" s="2" t="n">
         <v>0</v>
@@ -4724,106 +4724,106 @@
       <c r="FH6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI6" s="3" t="inlineStr">
+      <c r="FI6" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO6" s="2" t="n">
-        <v>0</v>
+      <c r="FJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GP6" s="2" t="n">
         <v>0</v>
@@ -4849,12 +4849,12 @@
       <c r="GW6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX6" s="3" t="inlineStr">
+      <c r="GX6" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY6" s="3">
+      <c r="GY6" s="4">
         <f>SUM(B6:GX6)</f>
         <v/>
       </c>
@@ -4899,59 +4899,59 @@
       <c r="M7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2" t="n">
-        <v>0</v>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AF7" s="2" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
       <c r="AO7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP7" s="3" t="inlineStr">
+      <c r="AP7" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5108,7 +5108,7 @@
       <c r="CD7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE7" s="3" t="inlineStr">
+      <c r="CE7" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5152,50 +5152,50 @@
       <c r="CR7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CS7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG7" s="4" t="n">
-        <v>1</v>
+      <c r="CS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DH7" s="2" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
       <c r="DS7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT7" s="3" t="inlineStr">
+      <c r="DT7" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5358,7 +5358,7 @@
       <c r="FH7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI7" s="3" t="inlineStr">
+      <c r="FI7" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5399,53 +5399,53 @@
       <c r="FU7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FV7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK7" s="2" t="n">
-        <v>0</v>
+      <c r="FV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GL7" s="2" t="n">
         <v>0</v>
@@ -5483,12 +5483,12 @@
       <c r="GW7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX7" s="3" t="inlineStr">
+      <c r="GX7" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY7" s="3">
+      <c r="GY7" s="4">
         <f>SUM(B7:GX7)</f>
         <v/>
       </c>
@@ -5581,43 +5581,43 @@
       <c r="AC8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AD8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="3" t="inlineStr">
+      <c r="AD8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5712,37 +5712,37 @@
       <c r="BT8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BU8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE8" s="3" t="inlineStr">
+      <c r="BU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5825,49 +5825,49 @@
       <c r="DE8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT8" s="3" t="inlineStr">
+      <c r="DF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT8" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5962,37 +5962,37 @@
       <c r="EX8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EY8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FI8" s="3" t="inlineStr">
+      <c r="EY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6087,42 +6087,42 @@
       <c r="GM8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GN8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX8" s="3" t="inlineStr">
+      <c r="GN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX8" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY8" s="3">
+      <c r="GY8" s="4">
         <f>SUM(B8:GX8)</f>
         <v/>
       </c>
@@ -6131,35 +6131,35 @@
       <c r="A9" t="n">
         <v>10</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1</v>
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="L9" s="2" t="n">
         <v>0</v>
@@ -6251,58 +6251,58 @@
       <c r="AO9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AP9" s="3" t="inlineStr">
+      <c r="AP9" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="2" t="n">
-        <v>0</v>
+      <c r="AQ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BG9" s="2" t="n">
         <v>0</v>
@@ -6376,7 +6376,7 @@
       <c r="CD9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE9" s="3" t="inlineStr">
+      <c r="CE9" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6501,52 +6501,52 @@
       <c r="DS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT9" s="3" t="inlineStr">
+      <c r="DT9" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH9" s="4" t="n">
-        <v>1</v>
+      <c r="DU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EI9" s="2" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
       <c r="FH9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI9" s="3" t="inlineStr">
+      <c r="FI9" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -6751,12 +6751,12 @@
       <c r="GW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX9" s="3" t="inlineStr">
+      <c r="GX9" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY9" s="3">
+      <c r="GY9" s="4">
         <f>SUM(B9:GX9)</f>
         <v/>
       </c>
@@ -6855,37 +6855,37 @@
       <c r="AE10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AF10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="3" t="inlineStr">
+      <c r="AF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7010,7 +7010,7 @@
       <c r="CD10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CE10" s="3" t="inlineStr">
+      <c r="CE10" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7135,7 +7135,7 @@
       <c r="DS10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DT10" s="3" t="inlineStr">
+      <c r="DT10" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7260,7 +7260,7 @@
       <c r="FH10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FI10" s="3" t="inlineStr">
+      <c r="FI10" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -7385,12 +7385,12 @@
       <c r="GW10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GX10" s="3" t="inlineStr">
+      <c r="GX10" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY10" s="3">
+      <c r="GY10" s="4">
         <f>SUM(B10:GX10)</f>
         <v/>
       </c>
@@ -7399,632 +7399,632 @@
       <c r="A11" t="n">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="3" t="inlineStr">
+      <c r="B11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE11" s="3" t="inlineStr">
+      <c r="AQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE11" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT11" s="3" t="inlineStr">
+      <c r="CF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT11" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FI11" s="3" t="inlineStr">
+      <c r="DU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI11" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX11" s="3" t="inlineStr">
+      <c r="FJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX11" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="GY11" s="3">
+      <c r="GY11" s="4">
         <f>SUM(B11:GX11)</f>
         <v/>
       </c>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1729,53 +1729,53 @@
       <c r="M2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>1</v>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AD2" s="2" t="n">
         <v>0</v>
@@ -1783,35 +1783,35 @@
       <c r="AE2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>0</v>
+      <c r="AF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP2" s="4" t="inlineStr">
         <is>
@@ -1896,76 +1896,76 @@
       <c r="BP2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="2" t="n">
-        <v>0</v>
+      <c r="BQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="2" t="n">
-        <v>0</v>
+      <c r="CF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CN2" s="2" t="n">
         <v>0</v>
@@ -2217,17 +2217,17 @@
       <c r="FQ2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" s="3" t="n">
-        <v>1</v>
+      <c r="FR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FV2" s="2" t="n">
         <v>0</v>
@@ -2327,89 +2327,89 @@
       <c r="A3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>1</v>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>0</v>
+      <c r="O3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AD3" s="2" t="n">
         <v>0</v>
@@ -2452,83 +2452,83 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="2" t="n">
-        <v>0</v>
+      <c r="AQ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BQ3" s="2" t="n">
         <v>0</v>
@@ -2577,47 +2577,47 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS3" s="3" t="n">
-        <v>1</v>
+      <c r="CF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CT3" s="2" t="n">
         <v>0</v>
@@ -2702,71 +2702,71 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP3" s="3" t="n">
-        <v>1</v>
+      <c r="DU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EQ3" s="2" t="n">
         <v>0</v>
@@ -3045,11 +3045,11 @@
       <c r="AC4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>0</v>
+      <c r="AD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AF4" s="3" t="n">
         <v>1</v>
@@ -3134,41 +3134,41 @@
       <c r="BF4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="3" t="n">
-        <v>1</v>
+      <c r="BG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BS4" s="2" t="n">
         <v>0</v>
@@ -3182,29 +3182,29 @@
       <c r="BV4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="2" t="n">
-        <v>0</v>
+      <c r="BW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE4" s="4" t="inlineStr">
         <is>
@@ -3253,41 +3253,41 @@
       <c r="CS4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE4" s="3" t="n">
-        <v>1</v>
+      <c r="CT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DF4" s="2" t="n">
         <v>0</v>
@@ -3307,29 +3307,29 @@
       <c r="DK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS4" s="2" t="n">
-        <v>0</v>
+      <c r="DL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT4" s="4" t="inlineStr">
         <is>
@@ -3420,17 +3420,17 @@
       <c r="EV4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ4" s="2" t="n">
-        <v>0</v>
+      <c r="EW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FA4" s="3" t="n">
         <v>1</v>
@@ -3804,8 +3804,8 @@
       <c r="BR5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BS5" s="3" t="n">
-        <v>1</v>
+      <c r="BS5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BT5" s="3" t="n">
         <v>1</v>
@@ -4036,17 +4036,17 @@
       <c r="EP5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET5" s="3" t="n">
-        <v>1</v>
+      <c r="EQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EU5" s="3" t="n">
         <v>1</v>
@@ -4072,23 +4072,23 @@
       <c r="FB5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH5" s="3" t="n">
-        <v>1</v>
+      <c r="FC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI5" s="4" t="inlineStr">
         <is>
@@ -4173,11 +4173,11 @@
       <c r="GI5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK5" s="2" t="n">
-        <v>0</v>
+      <c r="GJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GL5" s="3" t="n">
         <v>1</v>
@@ -4328,14 +4328,14 @@
       <c r="AH6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AI6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="3" t="n">
-        <v>1</v>
+      <c r="AI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
         <v>0</v>
@@ -4584,8 +4584,8 @@
       <c r="DN6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DO6" s="3" t="n">
-        <v>1</v>
+      <c r="DO6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DP6" s="2" t="n">
         <v>0</v>
@@ -4700,8 +4700,8 @@
       <c r="EZ6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FA6" s="2" t="n">
-        <v>0</v>
+      <c r="FA6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FB6" s="2" t="n">
         <v>0</v>
@@ -4825,14 +4825,14 @@
       <c r="GO6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GP6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR6" s="2" t="n">
-        <v>0</v>
+      <c r="GP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GS6" s="2" t="n">
         <v>0</v>
@@ -4917,41 +4917,41 @@
       <c r="S7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="3" t="n">
-        <v>1</v>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AF7" s="2" t="n">
         <v>0</v>
@@ -5277,44 +5277,44 @@
       <c r="EG7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EH7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET7" s="2" t="n">
-        <v>0</v>
+      <c r="EH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EU7" s="2" t="n">
         <v>0</v>
@@ -5387,17 +5387,17 @@
       <c r="FQ7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FR7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU7" s="2" t="n">
-        <v>0</v>
+      <c r="FR7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FV7" s="3" t="n">
         <v>1</v>
@@ -5441,11 +5441,11 @@
       <c r="GI7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GJ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK7" s="3" t="n">
-        <v>1</v>
+      <c r="GJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GL7" s="2" t="n">
         <v>0</v>
@@ -5581,41 +5581,41 @@
       <c r="AC8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AD8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="3" t="n">
-        <v>1</v>
+      <c r="AD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AP8" s="4" t="inlineStr">
         <is>
@@ -5718,112 +5718,112 @@
       <c r="BV8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="3" t="n">
-        <v>1</v>
+      <c r="BW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE8" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE8" s="2" t="n">
-        <v>0</v>
+      <c r="CF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DF8" s="3" t="n">
         <v>1</v>
@@ -5968,29 +5968,29 @@
       <c r="EZ8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH8" s="2" t="n">
-        <v>0</v>
+      <c r="FA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI8" s="4" t="inlineStr">
         <is>
@@ -6087,35 +6087,35 @@
       <c r="GM8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GN8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW8" s="3" t="n">
-        <v>1</v>
+      <c r="GN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX8" s="4" t="inlineStr">
         <is>
@@ -6131,44 +6131,44 @@
       <c r="A9" t="n">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="O9" s="2" t="n">
         <v>0</v>
@@ -6256,53 +6256,53 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF9" s="3" t="n">
-        <v>1</v>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BG9" s="2" t="n">
         <v>0</v>
@@ -6506,44 +6506,44 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG9" s="2" t="n">
-        <v>0</v>
+      <c r="DU9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EH9" s="2" t="n">
         <v>0</v>
@@ -7453,41 +7453,41 @@
       <c r="S11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2" t="n">
-        <v>0</v>
+      <c r="T11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AF11" s="2" t="n">
         <v>0</v>
@@ -7611,49 +7611,49 @@
       <c r="BS11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BT11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD11" s="3" t="n">
-        <v>1</v>
+      <c r="BT11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE11" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG11" s="3" t="n">
-        <v>1</v>
+      <c r="CF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CH11" s="3" t="n">
         <v>1</v>
@@ -7745,29 +7745,29 @@
       <c r="DK11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DL11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS11" s="3" t="n">
-        <v>1</v>
+      <c r="DL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT11" s="4" t="inlineStr">
         <is>
@@ -7989,35 +7989,35 @@
       <c r="GM11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GN11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW11" s="2" t="n">
-        <v>0</v>
+      <c r="GN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX11" s="4" t="inlineStr">
         <is>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1768,20 +1768,20 @@
       <c r="Z2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>0</v>
+      <c r="AA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AF2" s="3" t="n">
         <v>1</v>
@@ -1896,23 +1896,23 @@
       <c r="BP2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" s="3" t="n">
-        <v>1</v>
+      <c r="BQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BW2" s="3" t="n">
         <v>1</v>
@@ -1943,29 +1943,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" s="3" t="n">
-        <v>1</v>
+      <c r="CF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CN2" s="2" t="n">
         <v>0</v>
@@ -2039,29 +2039,29 @@
       <c r="DK2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS2" s="2" t="n">
-        <v>0</v>
+      <c r="DL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT2" s="4" t="inlineStr">
         <is>
@@ -2193,29 +2193,29 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ2" s="3" t="n">
-        <v>1</v>
+      <c r="FJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FR2" s="2" t="n">
         <v>0</v>
@@ -2289,29 +2289,29 @@
       <c r="GO2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW2" s="2" t="n">
-        <v>0</v>
+      <c r="GP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2366,50 +2366,50 @@
       <c r="N3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="3" t="n">
-        <v>1</v>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AD3" s="2" t="n">
         <v>0</v>
@@ -2452,41 +2452,41 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="3" t="n">
-        <v>1</v>
+      <c r="AQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BC3" s="3" t="n">
         <v>1</v>
@@ -2527,8 +2527,8 @@
       <c r="BO3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BP3" s="3" t="n">
-        <v>1</v>
+      <c r="BP3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BQ3" s="2" t="n">
         <v>0</v>
@@ -2702,89 +2702,89 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV3" s="2" t="n">
-        <v>0</v>
+      <c r="DU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EW3" s="2" t="n">
         <v>0</v>
@@ -3045,17 +3045,17 @@
       <c r="AC4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="3" t="n">
-        <v>1</v>
+      <c r="AD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AH4" s="3" t="n">
         <v>1</v>
@@ -3182,29 +3182,29 @@
       <c r="BV4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="3" t="n">
-        <v>1</v>
+      <c r="BW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE4" s="4" t="inlineStr">
         <is>
@@ -3286,26 +3286,26 @@
       <c r="DD4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK4" s="2" t="n">
-        <v>0</v>
+      <c r="DE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DL4" s="3" t="n">
         <v>1</v>
@@ -3539,23 +3539,23 @@
       <c r="GI4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO4" s="2" t="n">
-        <v>0</v>
+      <c r="GJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GP4" s="3" t="n">
         <v>1</v>
@@ -3795,17 +3795,17 @@
       <c r="BO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="2" t="n">
-        <v>0</v>
+      <c r="BP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BT5" s="3" t="n">
         <v>1</v>
@@ -3941,29 +3941,29 @@
       <c r="DK5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS5" s="3" t="n">
-        <v>1</v>
+      <c r="DL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT5" s="4" t="inlineStr">
         <is>
@@ -4048,23 +4048,23 @@
       <c r="ET5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EU5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ5" s="3" t="n">
-        <v>1</v>
+      <c r="EU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FA5" s="3" t="n">
         <v>1</v>
@@ -4072,23 +4072,23 @@
       <c r="FB5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" s="2" t="n">
-        <v>0</v>
+      <c r="FC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI5" s="4" t="inlineStr">
         <is>
@@ -4173,23 +4173,23 @@
       <c r="GI5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO5" s="3" t="n">
-        <v>1</v>
+      <c r="GJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GP5" s="3" t="n">
         <v>1</v>
@@ -4325,8 +4325,8 @@
       <c r="AG6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AH6" s="3" t="n">
-        <v>1</v>
+      <c r="AH6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AI6" s="2" t="n">
         <v>0</v>
@@ -4584,8 +4584,8 @@
       <c r="DN6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DO6" s="2" t="n">
-        <v>0</v>
+      <c r="DO6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DP6" s="2" t="n">
         <v>0</v>
@@ -4703,14 +4703,14 @@
       <c r="FA6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FB6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD6" s="2" t="n">
-        <v>0</v>
+      <c r="FB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FE6" s="2" t="n">
         <v>0</v>
@@ -4825,14 +4825,14 @@
       <c r="GO6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GP6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR6" s="3" t="n">
-        <v>1</v>
+      <c r="GP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GS6" s="2" t="n">
         <v>0</v>
@@ -4902,41 +4902,41 @@
       <c r="N7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2" t="n">
-        <v>0</v>
+      <c r="O7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AA7" s="2" t="n">
         <v>0</v>
@@ -5152,41 +5152,41 @@
       <c r="CR7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CS7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD7" s="2" t="n">
-        <v>0</v>
+      <c r="CS7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DE7" s="2" t="n">
         <v>0</v>
@@ -5277,44 +5277,44 @@
       <c r="EG7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EH7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET7" s="3" t="n">
-        <v>1</v>
+      <c r="EH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EU7" s="2" t="n">
         <v>0</v>
@@ -5387,20 +5387,20 @@
       <c r="FQ7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FR7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV7" s="3" t="n">
-        <v>1</v>
+      <c r="FR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV7" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FW7" s="3" t="n">
         <v>1</v>
@@ -5497,44 +5497,44 @@
       <c r="A8" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>0</v>
+      <c r="B8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="O8" s="2" t="n">
         <v>0</v>
@@ -5718,130 +5718,130 @@
       <c r="BV8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="2" t="n">
-        <v>0</v>
+      <c r="BW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE8" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK8" s="3" t="n">
-        <v>1</v>
+      <c r="CF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DL8" s="3" t="n">
         <v>1</v>
@@ -5997,44 +5997,44 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV8" s="2" t="n">
-        <v>0</v>
+      <c r="FJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV8" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FW8" s="2" t="n">
         <v>0</v>
@@ -6131,44 +6131,44 @@
       <c r="A9" t="n">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>1</v>
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="O9" s="2" t="n">
         <v>0</v>
@@ -6256,41 +6256,41 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="2" t="n">
-        <v>0</v>
+      <c r="AQ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BC9" s="2" t="n">
         <v>0</v>
@@ -6381,44 +6381,44 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR9" s="2" t="n">
-        <v>0</v>
+      <c r="CF9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CS9" s="2" t="n">
         <v>0</v>
@@ -6506,44 +6506,44 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG9" s="3" t="n">
-        <v>1</v>
+      <c r="DU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EH9" s="2" t="n">
         <v>0</v>
@@ -7489,11 +7489,11 @@
       <c r="AE11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <v>0</v>
+      <c r="AF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AH11" s="2" t="n">
         <v>0</v>
@@ -7611,14 +7611,14 @@
       <c r="BS11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BT11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV11" s="2" t="n">
-        <v>0</v>
+      <c r="BT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BW11" s="2" t="n">
         <v>0</v>
@@ -7649,11 +7649,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" s="2" t="n">
-        <v>0</v>
+      <c r="CF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CH11" s="3" t="n">
         <v>1</v>
@@ -7745,14 +7745,14 @@
       <c r="DK11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DL11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN11" s="2" t="n">
-        <v>0</v>
+      <c r="DL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DO11" s="2" t="n">
         <v>0</v>
@@ -7885,14 +7885,14 @@
       <c r="FE11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FF11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH11" s="3" t="n">
-        <v>1</v>
+      <c r="FF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI11" s="4" t="inlineStr">
         <is>
@@ -7995,29 +7995,29 @@
       <c r="GO11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GP11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW11" s="3" t="n">
-        <v>1</v>
+      <c r="GP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW11" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX11" s="4" t="inlineStr">
         <is>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1741,20 +1741,20 @@
       <c r="Q2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>0</v>
+      <c r="R2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="W2" s="3" t="n">
         <v>1</v>
@@ -1994,11 +1994,11 @@
       <c r="CV2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX2" s="2" t="n">
-        <v>0</v>
+      <c r="CW2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CY2" s="3" t="n">
         <v>1</v>
@@ -2051,17 +2051,17 @@
       <c r="DO2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS2" s="2" t="n">
-        <v>0</v>
+      <c r="DP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT2" s="4" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
       <c r="EG2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" s="3" t="n">
-        <v>1</v>
+      <c r="EH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EK2" s="3" t="n">
         <v>1</v>
@@ -2152,29 +2152,29 @@
       <c r="EV2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD2" s="2" t="n">
-        <v>0</v>
+      <c r="EW2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FE2" s="2" t="n">
         <v>0</v>
@@ -2241,23 +2241,23 @@
       <c r="FY2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" s="3" t="n">
-        <v>1</v>
+      <c r="FZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GF2" s="3" t="n">
         <v>1</v>
@@ -2301,17 +2301,17 @@
       <c r="GS2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" s="3" t="n">
-        <v>1</v>
+      <c r="GT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2661,29 +2661,29 @@
       <c r="DG3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="DH3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO3" s="2" t="n">
-        <v>0</v>
+      <c r="DH3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DP3" s="2" t="n">
         <v>0</v>
@@ -2702,17 +2702,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX3" s="2" t="n">
-        <v>0</v>
+      <c r="DU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DY3" s="3" t="n">
         <v>1</v>
@@ -2798,17 +2798,17 @@
       <c r="EZ3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" s="3" t="n">
-        <v>1</v>
+      <c r="FA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FE3" s="2" t="n">
         <v>0</v>
@@ -2911,29 +2911,29 @@
       <c r="GK3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS3" s="3" t="n">
-        <v>1</v>
+      <c r="GL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GT3" s="2" t="n">
         <v>0</v>
@@ -3009,20 +3009,20 @@
       <c r="Q4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3" t="n">
-        <v>1</v>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="W4" s="2" t="n">
         <v>0</v>
@@ -3262,11 +3262,11 @@
       <c r="CV4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX4" s="3" t="n">
-        <v>1</v>
+      <c r="CW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CY4" s="2" t="n">
         <v>0</v>
@@ -3336,17 +3336,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX4" s="3" t="n">
-        <v>1</v>
+      <c r="DU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DY4" s="3" t="n">
         <v>1</v>
@@ -3375,14 +3375,14 @@
       <c r="EG4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ4" s="2" t="n">
-        <v>0</v>
+      <c r="EH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EK4" s="2" t="n">
         <v>0</v>
@@ -3509,23 +3509,23 @@
       <c r="FY4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE4" s="2" t="n">
-        <v>0</v>
+      <c r="FZ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GF4" s="2" t="n">
         <v>0</v>
@@ -3929,41 +3929,41 @@
       <c r="DG5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS5" s="3" t="n">
-        <v>1</v>
+      <c r="DH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT5" s="4" t="inlineStr">
         <is>
@@ -4054,17 +4054,17 @@
       <c r="EV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ5" s="3" t="n">
-        <v>1</v>
+      <c r="EW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FA5" s="3" t="n">
         <v>1</v>
@@ -4179,41 +4179,41 @@
       <c r="GK5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW5" s="2" t="n">
-        <v>0</v>
+      <c r="GL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX5" s="4" t="inlineStr">
         <is>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -1741,29 +1741,29 @@
       <c r="Q2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>1</v>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="Z2" s="3" t="n">
         <v>1</v>
@@ -1902,41 +1902,41 @@
       <c r="BR2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" s="3" t="n">
-        <v>1</v>
+      <c r="BS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CE2" s="4" t="inlineStr">
         <is>
@@ -1988,11 +1988,11 @@
       <c r="CT2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV2" s="2" t="n">
-        <v>0</v>
+      <c r="CU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CW2" s="3" t="n">
         <v>1</v>
@@ -2113,8 +2113,8 @@
       <c r="EI2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EJ2" s="2" t="n">
-        <v>0</v>
+      <c r="EJ2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="EK2" s="3" t="n">
         <v>1</v>
@@ -2152,29 +2152,29 @@
       <c r="EV2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" s="3" t="n">
-        <v>1</v>
+      <c r="EW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FE2" s="2" t="n">
         <v>0</v>
@@ -2229,35 +2229,35 @@
       <c r="FU2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE2" s="2" t="n">
-        <v>0</v>
+      <c r="FV2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GF2" s="3" t="n">
         <v>1</v>
@@ -2301,17 +2301,17 @@
       <c r="GS2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW2" s="2" t="n">
-        <v>0</v>
+      <c r="GT2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2577,17 +2577,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" s="3" t="n">
-        <v>1</v>
+      <c r="CF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CJ3" s="3" t="n">
         <v>1</v>
@@ -2702,17 +2702,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX3" s="3" t="n">
-        <v>1</v>
+      <c r="DU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DY3" s="3" t="n">
         <v>1</v>
@@ -2798,17 +2798,17 @@
       <c r="EZ3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD3" s="2" t="n">
-        <v>0</v>
+      <c r="FA3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FE3" s="2" t="n">
         <v>0</v>
@@ -2827,17 +2827,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM3" s="3" t="n">
-        <v>1</v>
+      <c r="FJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FN3" s="3" t="n">
         <v>1</v>
@@ -2911,29 +2911,29 @@
       <c r="GK3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="GL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS3" s="2" t="n">
-        <v>0</v>
+      <c r="GL3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GT3" s="2" t="n">
         <v>0</v>
@@ -3009,29 +3009,29 @@
       <c r="Q4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>0</v>
+      <c r="R4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="Z4" s="2" t="n">
         <v>0</v>
@@ -3211,17 +3211,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI4" s="2" t="n">
-        <v>0</v>
+      <c r="CF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CJ4" s="3" t="n">
         <v>1</v>
@@ -3256,11 +3256,11 @@
       <c r="CT4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV4" s="3" t="n">
-        <v>1</v>
+      <c r="CU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CW4" s="2" t="n">
         <v>0</v>
@@ -3336,17 +3336,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX4" s="2" t="n">
-        <v>0</v>
+      <c r="DU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DY4" s="3" t="n">
         <v>1</v>
@@ -3381,8 +3381,8 @@
       <c r="EI4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EJ4" s="3" t="n">
-        <v>1</v>
+      <c r="EJ4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EK4" s="2" t="n">
         <v>0</v>
@@ -3461,17 +3461,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM4" s="2" t="n">
-        <v>0</v>
+      <c r="FJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FN4" s="3" t="n">
         <v>1</v>
@@ -3497,35 +3497,35 @@
       <c r="FU4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="FV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE4" s="3" t="n">
-        <v>1</v>
+      <c r="FV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GF4" s="2" t="n">
         <v>0</v>
@@ -3804,41 +3804,41 @@
       <c r="BR5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="2" t="n">
-        <v>0</v>
+      <c r="BS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE5" s="4" t="inlineStr">
         <is>
@@ -4054,17 +4054,17 @@
       <c r="EV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ5" s="2" t="n">
-        <v>0</v>
+      <c r="EW5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FA5" s="3" t="n">
         <v>1</v>
@@ -4179,41 +4179,41 @@
       <c r="GK5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW5" s="3" t="n">
-        <v>1</v>
+      <c r="GL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX5" s="4" t="inlineStr">
         <is>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GY5"/>
+  <dimension ref="A1:GY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
@@ -1765,26 +1765,26 @@
       <c r="Y2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Z2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>1</v>
+      <c r="Z2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AG2" s="3" t="n">
         <v>1</v>
@@ -1866,41 +1866,41 @@
       <c r="BF2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" s="3" t="n">
-        <v>1</v>
+      <c r="BG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BS2" s="2" t="n">
         <v>0</v>
@@ -1923,20 +1923,20 @@
       <c r="BY2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="2" t="n">
-        <v>0</v>
+      <c r="BZ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE2" s="4" t="inlineStr">
         <is>
@@ -1988,35 +1988,35 @@
       <c r="CT2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" s="3" t="n">
-        <v>1</v>
+      <c r="CU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DE2" s="3" t="n">
         <v>1</v>
@@ -2113,17 +2113,17 @@
       <c r="EI2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" s="3" t="n">
-        <v>1</v>
+      <c r="EJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EN2" s="3" t="n">
         <v>1</v>
@@ -2152,41 +2152,41 @@
       <c r="EV2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH2" s="2" t="n">
-        <v>0</v>
+      <c r="EW2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI2" s="4" t="inlineStr">
         <is>
@@ -2229,89 +2229,89 @@
       <c r="FU2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" s="3" t="n">
-        <v>1</v>
+      <c r="FV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
@@ -2378,62 +2378,62 @@
       <c r="R3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="3" t="n">
-        <v>1</v>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AL3" s="2" t="n">
         <v>0</v>
@@ -2488,77 +2488,77 @@
       <c r="BB3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ3" s="3" t="n">
-        <v>1</v>
+      <c r="BC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CA3" s="2" t="n">
         <v>0</v>
@@ -2589,101 +2589,101 @@
       <c r="CI3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" s="3" t="n">
-        <v>1</v>
+      <c r="CJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DP3" s="2" t="n">
         <v>0</v>
@@ -2714,101 +2714,101 @@
       <c r="DX3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" s="3" t="n">
-        <v>1</v>
+      <c r="DY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FE3" s="2" t="n">
         <v>0</v>
@@ -2839,101 +2839,101 @@
       <c r="FM3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS3" s="3" t="n">
-        <v>1</v>
+      <c r="FN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GT3" s="2" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0</v>
@@ -2973,44 +2973,44 @@
       <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3" t="n">
-        <v>1</v>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="S4" s="3" t="n">
         <v>1</v>
@@ -3033,53 +3033,53 @@
       <c r="Y4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Z4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>0</v>
+      <c r="Z4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP4" s="4" t="inlineStr">
         <is>
@@ -3098,41 +3098,41 @@
       <c r="AT4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="3" t="n">
-        <v>1</v>
+      <c r="AU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BG4" s="2" t="n">
         <v>0</v>
@@ -3211,50 +3211,50 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT4" s="3" t="n">
-        <v>1</v>
+      <c r="CF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CU4" s="2" t="n">
         <v>0</v>
@@ -3295,91 +3295,91 @@
       <c r="DG4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS4" s="2" t="n">
-        <v>0</v>
+      <c r="DH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT4" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI4" s="3" t="n">
-        <v>1</v>
+      <c r="DU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EJ4" s="2" t="n">
         <v>0</v>
@@ -3429,73 +3429,73 @@
       <c r="EY4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH4" s="2" t="n">
-        <v>0</v>
+      <c r="EZ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI4" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU4" s="3" t="n">
-        <v>1</v>
+      <c r="FJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FV4" s="2" t="n">
         <v>0</v>
@@ -3563,23 +3563,23 @@
       <c r="GQ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW4" s="2" t="n">
-        <v>0</v>
+      <c r="GR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX4" s="4" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0</v>
@@ -3795,14 +3795,14 @@
       <c r="BO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="2" t="n">
-        <v>0</v>
+      <c r="BP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BS5" s="3" t="n">
         <v>1</v>
@@ -3932,38 +3932,38 @@
       <c r="DH5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="DI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS5" s="2" t="n">
-        <v>0</v>
+      <c r="DI5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT5" s="4" t="inlineStr">
         <is>
@@ -4054,41 +4054,41 @@
       <c r="EV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EW5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH5" s="3" t="n">
-        <v>1</v>
+      <c r="EW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI5" s="4" t="inlineStr">
         <is>
@@ -4143,77 +4143,77 @@
       <c r="FY5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW5" s="2" t="n">
-        <v>0</v>
+      <c r="FZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX5" s="4" t="inlineStr">
         <is>
@@ -4222,6 +4222,3810 @@
       </c>
       <c r="GY5" s="4">
         <f>SUM(B5:GX5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY6" s="4">
+        <f>SUM(B6:GX6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY7" s="4">
+        <f>SUM(B7:GX7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY8" s="4">
+        <f>SUM(B8:GX8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX9" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY9" s="4">
+        <f>SUM(B9:GX9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX10" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY10" s="4">
+        <f>SUM(B10:GX10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX11" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY11" s="4">
+        <f>SUM(B11:GX11)</f>
         <v/>
       </c>
     </row>

--- a/Einsatzplan.xlsx
+++ b/Einsatzplan.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GY5"/>
+  <dimension ref="A1:GY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
@@ -1741,32 +1741,32 @@
       <c r="Q2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>1</v>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AA2" s="3" t="n">
         <v>1</v>
@@ -1777,41 +1777,41 @@
       <c r="AC2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AD2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>0</v>
+      <c r="AD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP2" s="4" t="inlineStr">
         <is>
@@ -1866,41 +1866,41 @@
       <c r="BF2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" s="3" t="n">
-        <v>1</v>
+      <c r="BG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BS2" s="2" t="n">
         <v>0</v>
@@ -1943,44 +1943,44 @@
           <t> </t>
         </is>
       </c>
-      <c r="CF2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR2" s="2" t="n">
-        <v>0</v>
+      <c r="CF2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CS2" s="3" t="n">
         <v>1</v>
@@ -2000,85 +2000,85 @@
       <c r="CX2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="CY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" s="3" t="n">
-        <v>1</v>
+      <c r="CY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DT2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="DU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX2" s="2" t="n">
-        <v>0</v>
+      <c r="DU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DY2" s="2" t="n">
         <v>0</v>
@@ -2125,193 +2125,193 @@
       <c r="EM2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FH2" s="3" t="n">
-        <v>1</v>
+      <c r="EN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FI2" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="FJ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" s="3" t="n">
-        <v>1</v>
+      <c r="FJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GX2" s="4" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
@@ -2369,71 +2369,71 @@
       <c r="O3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="3" t="n">
-        <v>1</v>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AL3" s="2" t="n">
         <v>0</v>
@@ -2452,41 +2452,41 @@
           <t> </t>
         </is>
       </c>
-      <c r="AQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="3" t="n">
-        <v>1</v>
+      <c r="AQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BC3" s="3" t="n">
         <v>1</v>
@@ -2524,41 +2524,41 @@
       <c r="BN3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ3" s="3" t="n">
-        <v>1</v>
+      <c r="BO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CA3" s="2" t="n">
         <v>0</v>
@@ -2589,101 +2589,101 @@
       <c r="CI3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" s="3" t="n">
-        <v>1</v>
+      <c r="CJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="DP3" s="2" t="n">
         <v>0</v>
@@ -2702,17 +2702,17 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX3" s="2" t="n">
-        <v>0</v>
+      <c r="DU3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DY3" s="3" t="n">
         <v>1</v>
@@ -2759,56 +2759,56 @@
       <c r="EM3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="EN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" s="3" t="n">
-        <v>1</v>
+      <c r="EN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FE3" s="2" t="n">
         <v>0</v>
@@ -2839,101 +2839,101 @@
       <c r="FM3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="FN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FZ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GF3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GR3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS3" s="3" t="n">
-        <v>1</v>
+      <c r="FN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="GT3" s="2" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0</v>
@@ -2973,41 +2973,41 @@
       <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>1</v>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -3057,29 +3057,29 @@
       <c r="AG4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>0</v>
+      <c r="AH4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="AP4" s="4" t="inlineStr">
         <is>
@@ -3098,41 +3098,41 @@
       <c r="AT4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="3" t="n">
-        <v>1</v>
+      <c r="AU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="BG4" s="2" t="n">
         <v>0</v>
@@ -3173,82 +3173,82 @@
       <c r="BS4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="2" t="n">
-        <v>0</v>
+      <c r="BT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="CE4" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="CF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR4" s="3" t="n">
-        <v>1</v>
+      <c r="CF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="CS4" s="2" t="n">
         <v>0</v>
@@ -3336,62 +3336,62 @@
           <t> </t>
         </is>
       </c>
-      <c r="DU4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DY4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EC4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM4" s="3" t="n">
-        <v>1</v>
+      <c r="DU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="EN4" s="2" t="n">
         <v>0</v>
@@ -3461,41 +3461,41 @@
           <t> </t>
         </is>
       </c>
-      <c r="FJ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU4" s="3" t="n">
-        <v>1</v>
+      <c r="FJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="FV4" s="2" t="n">
         <v>0</v>
@@ -3545,41 +3545,41 @@
       <c r="GK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="GL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW4" s="2" t="n">
-        <v>0</v>
+      <c r="GL4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW4" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="GX4" s="4" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0</v>
@@ -3679,41 +3679,41 @@
       <c r="AC5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AD5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="3" t="n">
-        <v>1</v>
+      <c r="AD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="AP5" s="4" t="inlineStr">
         <is>
@@ -3792,17 +3792,17 @@
       <c r="BN5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="BO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="2" t="n">
-        <v>0</v>
+      <c r="BO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="BS5" s="3" t="n">
         <v>1</v>
@@ -3902,68 +3902,68 @@
       <c r="CX5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="CY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS5" s="2" t="n">
-        <v>0</v>
+      <c r="CY5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="DT5" s="4" t="inlineStr">
         <is>
@@ -4063,32 +4063,32 @@
       <c r="EY5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="EZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" s="2" t="n">
-        <v>0</v>
+      <c r="EZ5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="FI5" s="4" t="inlineStr">
         <is>
@@ -4222,6 +4222,3810 @@
       </c>
       <c r="GY5" s="4">
         <f>SUM(B5:GX5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX6" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY6" s="4">
+        <f>SUM(B6:GX6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="CF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="DU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="FJ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX7" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="GY7" s="4">
+        <f>SUM(B7:GX7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </